--- a/tidsrapport/tidsrapportering3.xlsx
+++ b/tidsrapport/tidsrapportering3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ext.sagh\Desktop\tidsrapport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ext.sagh\Desktop\code_snippets\tidsrapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="3390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016 old" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6411" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6412" uniqueCount="307">
   <si>
     <t>vecka 38</t>
   </si>
@@ -949,6 +949,9 @@
   <si>
     <t>jobba från hem</t>
   </si>
+  <si>
+    <t>Flex in project reset</t>
+  </si>
 </sst>
 </file>
 
@@ -1297,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1484,6 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23219,10 +23223,10 @@
   <dimension ref="A1:AK723"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C569" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C563" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T587" sqref="T587"/>
+      <selection pane="bottomRight" activeCell="Y587" sqref="Y587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23449,7 +23453,7 @@
       <c r="AA7">
         <v>-15</v>
       </c>
-      <c r="AB7" s="7" t="s">
+      <c r="AC7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -23498,7 +23502,7 @@
         <f>T8+U8-Q8*0.5</f>
         <v>5.4</v>
       </c>
-      <c r="AB8" s="9" t="s">
+      <c r="AC8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -23547,7 +23551,7 @@
         <f>T9+U9-Q9*0.5</f>
         <v>7.1333333333333329</v>
       </c>
-      <c r="AB9" s="8" t="s">
+      <c r="AC9" s="8" t="s">
         <v>254</v>
       </c>
     </row>
@@ -25460,7 +25464,7 @@
         <f>T44+U44-Q44*0.5</f>
         <v>17.116666666666667</v>
       </c>
-      <c r="AB44" s="9" t="s">
+      <c r="AC44" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -26464,7 +26468,7 @@
         <v>7.8666666666666671</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="51"/>
       <c r="B65"/>
       <c r="C65" s="1" t="s">
@@ -26522,7 +26526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="51"/>
       <c r="B66"/>
       <c r="C66" s="1" t="s">
@@ -26584,7 +26588,7 @@
         <v>6.5166666666666586</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="51"/>
       <c r="B67" s="6" t="s">
         <v>28</v>
@@ -26626,7 +26630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="51"/>
       <c r="B68" s="9"/>
       <c r="C68" s="1" t="s">
@@ -26672,7 +26676,7 @@
         <v>7.6666666666666661</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="51"/>
       <c r="B69" s="9"/>
       <c r="C69" s="1" t="s">
@@ -26718,7 +26722,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="51"/>
       <c r="B70" s="9" t="s">
         <v>52</v>
@@ -26756,7 +26760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="51"/>
       <c r="B71" s="9"/>
       <c r="C71" s="1" t="s">
@@ -26816,7 +26820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="51"/>
       <c r="B72" s="9" t="s">
         <v>52</v>
@@ -26870,7 +26874,7 @@
         <v>5.4499999999999922</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="51"/>
       <c r="B73" s="6" t="s">
         <v>29</v>
@@ -26912,7 +26916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="51"/>
       <c r="B74" s="9"/>
       <c r="C74" s="1" t="s">
@@ -26960,7 +26964,7 @@
         <v>5.8166666666666682</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="51"/>
       <c r="B75" s="9" t="s">
         <v>52</v>
@@ -26998,7 +27002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="51"/>
       <c r="B76" s="9"/>
       <c r="C76" s="1" t="s">
@@ -27046,7 +27050,7 @@
         <v>6.2166666666666686</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="51"/>
       <c r="B77" s="9" t="s">
         <v>52</v>
@@ -27096,7 +27100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="51"/>
       <c r="B78" s="9"/>
       <c r="C78" s="1" t="s">
@@ -27158,7 +27162,7 @@
         <v>0.73333333333333073</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="51"/>
       <c r="B79" s="6" t="s">
         <v>30</v>
@@ -27200,7 +27204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="51"/>
       <c r="B80" s="9"/>
       <c r="C80" s="1" t="s">
@@ -27245,7 +27249,7 @@
         <f>T80+U80-Q80*0.5</f>
         <v>9.9166666666666661</v>
       </c>
-      <c r="Z80" s="7" t="s">
+      <c r="AC80" s="7" t="s">
         <v>255</v>
       </c>
     </row>
@@ -30488,7 +30492,7 @@
         <v>-30.449999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="51"/>
       <c r="B145" s="6" t="s">
         <v>41</v>
@@ -30530,7 +30534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="51"/>
       <c r="B146"/>
       <c r="C146" s="1" t="s">
@@ -30576,7 +30580,7 @@
         <v>7.0000000000000018</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="51"/>
       <c r="B147"/>
       <c r="C147" s="1" t="s">
@@ -30625,7 +30629,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="51"/>
       <c r="B148"/>
       <c r="C148" s="1" t="s">
@@ -30676,7 +30680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="51"/>
       <c r="B149"/>
       <c r="C149" s="1" t="s">
@@ -30734,7 +30738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="51"/>
       <c r="B150"/>
       <c r="C150" s="1" t="s">
@@ -30796,7 +30800,7 @@
         <v>-31.733333333333327</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="51"/>
       <c r="B151" s="6" t="s">
         <v>42</v>
@@ -30838,7 +30842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="51"/>
       <c r="B152" s="9" t="s">
         <v>58</v>
@@ -30877,7 +30881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="51"/>
       <c r="B153" s="9"/>
       <c r="C153" s="1" t="s">
@@ -30928,7 +30932,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="51"/>
       <c r="B154" s="9"/>
       <c r="C154" s="1" t="s">
@@ -30977,7 +30981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="51"/>
       <c r="B155" s="9"/>
       <c r="C155" s="1" t="s">
@@ -31035,7 +31039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="51"/>
       <c r="B156" s="9"/>
       <c r="C156" s="1" t="s">
@@ -31097,7 +31101,7 @@
         <v>-29.049999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="51"/>
       <c r="B157" s="6" t="s">
         <v>43</v>
@@ -31139,7 +31143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="51"/>
       <c r="B158" s="9" t="s">
         <v>58</v>
@@ -31189,11 +31193,11 @@
       <c r="X158" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AB158" s="7" t="s">
+      <c r="AC158" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="51"/>
       <c r="B159" s="9" t="s">
         <v>58</v>
@@ -31247,7 +31251,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="51"/>
       <c r="B160" s="9" t="s">
         <v>58</v>
@@ -31300,11 +31304,11 @@
       <c r="Y160">
         <v>5</v>
       </c>
-      <c r="AB160" s="7" t="s">
+      <c r="AC160" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="51"/>
       <c r="B161" s="9"/>
       <c r="C161" s="1" t="s">
@@ -31362,7 +31366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="51"/>
       <c r="B162" s="9" t="s">
         <v>63</v>
@@ -31413,11 +31417,11 @@
         <f>AA156+Y162</f>
         <v>-24.6</v>
       </c>
-      <c r="AB162" s="9" t="s">
+      <c r="AC162" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="51"/>
       <c r="B163" s="6" t="s">
         <v>44</v>
@@ -31459,7 +31463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="51"/>
       <c r="B164" s="9" t="s">
         <v>63</v>
@@ -31494,7 +31498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="51"/>
       <c r="B165" s="9" t="s">
         <v>63</v>
@@ -31532,7 +31536,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="51"/>
       <c r="B166" s="9" t="s">
         <v>63</v>
@@ -31570,7 +31574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="51"/>
       <c r="B167" s="9" t="s">
         <v>63</v>
@@ -31617,7 +31621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="51"/>
       <c r="B168" s="9" t="s">
         <v>63</v>
@@ -31668,7 +31672,7 @@
         <v>-24.6</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="51"/>
       <c r="B169" s="6" t="s">
         <v>45</v>
@@ -31710,7 +31714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="51"/>
       <c r="B170" s="9" t="s">
         <v>63</v>
@@ -31745,7 +31749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="51"/>
       <c r="B171" s="9" t="s">
         <v>63</v>
@@ -31783,7 +31787,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="51"/>
       <c r="B172" s="9" t="s">
         <v>64</v>
@@ -31821,7 +31825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="51"/>
       <c r="B173" s="9" t="s">
         <v>64</v>
@@ -31868,7 +31872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="51"/>
       <c r="B174" s="9" t="s">
         <v>54</v>
@@ -31920,7 +31924,7 @@
         <v>-24.6</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="51"/>
       <c r="B175" s="6" t="s">
         <v>46</v>
@@ -31962,7 +31966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="51"/>
       <c r="B176" s="9" t="s">
         <v>54</v>
@@ -41146,7 +41150,9 @@
       <c r="A340" s="52">
         <v>43360</v>
       </c>
-      <c r="B340" s="9"/>
+      <c r="B340" s="9" t="s">
+        <v>275</v>
+      </c>
       <c r="C340" s="1" t="s">
         <v>1</v>
       </c>
@@ -41203,9 +41209,6 @@
         <f>T340+U340-Q340*0.5</f>
         <v>9.7333333333333325</v>
       </c>
-      <c r="AB340" s="9" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="341" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A341" s="52">
@@ -41264,7 +41267,9 @@
       <c r="A342" s="52">
         <v>43362</v>
       </c>
-      <c r="B342" s="9"/>
+      <c r="B342" s="9" t="s">
+        <v>275</v>
+      </c>
       <c r="C342" s="1" t="s">
         <v>3</v>
       </c>
@@ -41324,9 +41329,7 @@
       <c r="Y342" s="75">
         <v>0</v>
       </c>
-      <c r="AB342" s="9" t="s">
-        <v>275</v>
-      </c>
+      <c r="AC342" s="9"/>
     </row>
     <row r="343" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A343" s="52">
@@ -42129,7 +42132,7 @@
       <c r="AA357" t="s">
         <v>50</v>
       </c>
-      <c r="AB357" s="9" t="s">
+      <c r="AC357" s="9" t="s">
         <v>277</v>
       </c>
       <c r="AE357" s="95"/>
@@ -42337,7 +42340,7 @@
         <f>T361+U361-Q361*0.5+V361+8</f>
         <v>17.299999999999997</v>
       </c>
-      <c r="AB361" s="7" t="s">
+      <c r="AC361" s="7" t="s">
         <v>279</v>
       </c>
     </row>
@@ -42393,7 +42396,7 @@
       <c r="Y362" t="s">
         <v>258</v>
       </c>
-      <c r="AB362" s="9"/>
+      <c r="AC362" s="9"/>
     </row>
     <row r="363" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A363" s="52">
@@ -42445,7 +42448,7 @@
       <c r="Y363" s="75">
         <v>0</v>
       </c>
-      <c r="AB363" s="7" t="s">
+      <c r="AC363" s="7" t="s">
         <v>280</v>
       </c>
     </row>
@@ -44504,7 +44507,7 @@
         <f>AB393+Z400</f>
         <v>34.22999999999999</v>
       </c>
-      <c r="AC400" s="9" t="s">
+      <c r="AD400" s="9" t="s">
         <v>283</v>
       </c>
     </row>
@@ -50705,7 +50708,7 @@
         <v>17.296666666666663</v>
       </c>
     </row>
-    <row r="513" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A513" s="61">
         <v>43540</v>
       </c>
@@ -50753,7 +50756,7 @@
       <c r="AF513" s="59"/>
       <c r="AG513" s="59"/>
     </row>
-    <row r="514" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A514" s="114">
         <v>43541</v>
       </c>
@@ -50802,7 +50805,7 @@
       </c>
       <c r="Y514" s="108"/>
     </row>
-    <row r="515" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A515" s="52">
         <v>43542</v>
       </c>
@@ -50855,7 +50858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="516" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A516" s="52">
         <v>43543</v>
       </c>
@@ -50909,7 +50912,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="517" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A517" s="52">
         <v>43544</v>
       </c>
@@ -50965,7 +50968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A518" s="52">
         <v>43545</v>
       </c>
@@ -51031,7 +51034,7 @@
       </c>
       <c r="AE518" s="95"/>
     </row>
-    <row r="519" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A519" s="52">
         <v>43546</v>
       </c>
@@ -51100,7 +51103,7 @@
         <v>18.063333333333322</v>
       </c>
     </row>
-    <row r="520" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A520" s="61">
         <v>43547</v>
       </c>
@@ -51148,7 +51151,7 @@
       <c r="AF520" s="59"/>
       <c r="AG520" s="59"/>
     </row>
-    <row r="521" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A521" s="114">
         <v>43548</v>
       </c>
@@ -51196,11 +51199,11 @@
         <v>285</v>
       </c>
       <c r="Y521" s="108"/>
-      <c r="AC521" s="8" t="s">
+      <c r="AD521" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="522" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A522" s="52">
         <v>43549</v>
       </c>
@@ -51252,12 +51255,12 @@
       <c r="X522" s="109">
         <v>7</v>
       </c>
-      <c r="AH522" s="54" t="s">
+      <c r="AI522" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="AI522" s="106"/>
-    </row>
-    <row r="523" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ522" s="106"/>
+    </row>
+    <row r="523" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A523" s="52">
         <v>43550</v>
       </c>
@@ -51312,12 +51315,12 @@
       <c r="Z523" t="s">
         <v>258</v>
       </c>
-      <c r="AH523" s="102">
+      <c r="AI523" s="102">
         <v>5</v>
       </c>
-      <c r="AI523" s="57"/>
-    </row>
-    <row r="524" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ523" s="57"/>
+    </row>
+    <row r="524" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A524" s="52">
         <v>43551</v>
       </c>
@@ -51372,14 +51375,14 @@
       <c r="Z524" s="75">
         <v>0</v>
       </c>
-      <c r="AH524" s="104" t="s">
+      <c r="AI524" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="AI524" s="105" t="s">
+      <c r="AJ524" s="105" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="525" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A525" s="52">
         <v>43552</v>
       </c>
@@ -51444,15 +51447,15 @@
         <v>300</v>
       </c>
       <c r="AE525" s="95"/>
-      <c r="AH525" s="106">
+      <c r="AI525" s="106">
         <f>34.4*2</f>
         <v>68.8</v>
       </c>
-      <c r="AI525" s="103">
+      <c r="AJ525" s="103">
         <v>9800</v>
       </c>
     </row>
-    <row r="526" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A526" s="52">
         <v>43553</v>
       </c>
@@ -51520,17 +51523,17 @@
         <f>AB519+Z526</f>
         <v>15.413333333333316</v>
       </c>
-      <c r="AC526" s="8" t="s">
+      <c r="AD526" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="AH526" s="104" t="s">
+      <c r="AI526" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="AI526" s="105" t="s">
+      <c r="AJ526" s="105" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="527" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A527" s="61">
         <v>43554</v>
       </c>
@@ -51577,15 +51580,15 @@
       <c r="AE527" s="59"/>
       <c r="AF527" s="59"/>
       <c r="AG527" s="59"/>
-      <c r="AH527" s="57">
-        <f>AH525*AH523</f>
+      <c r="AI527" s="57">
+        <f>AI525*AI523</f>
         <v>344</v>
       </c>
-      <c r="AI527" s="60" t="s">
+      <c r="AJ527" s="60" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="528" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A528" s="114">
         <v>43555</v>
       </c>
@@ -51686,10 +51689,10 @@
         <v>8</v>
       </c>
       <c r="AC529" s="8"/>
-      <c r="AH529" s="54" t="s">
+      <c r="AI529" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="AI529" s="106"/>
+      <c r="AJ529" s="106"/>
     </row>
     <row r="530" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A530" s="52">
@@ -51744,10 +51747,10 @@
       <c r="Z530" t="s">
         <v>258</v>
       </c>
-      <c r="AH530" s="102">
+      <c r="AI530" s="102">
         <v>5</v>
       </c>
-      <c r="AI530" s="57"/>
+      <c r="AJ530" s="57"/>
     </row>
     <row r="531" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A531" s="52">
@@ -51802,10 +51805,10 @@
       <c r="Z531" s="75">
         <v>0</v>
       </c>
-      <c r="AH531" s="104" t="s">
+      <c r="AI531" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="AI531" s="105" t="s">
+      <c r="AJ531" s="105" t="s">
         <v>223</v>
       </c>
       <c r="AK531">
@@ -51876,11 +51879,11 @@
         <v>300</v>
       </c>
       <c r="AE532" s="95"/>
-      <c r="AH532" s="106">
+      <c r="AI532" s="106">
         <f>34.4*2</f>
         <v>68.8</v>
       </c>
-      <c r="AI532" s="103">
+      <c r="AJ532" s="103">
         <v>9800</v>
       </c>
     </row>
@@ -51950,10 +51953,10 @@
         <f>AB526+Z533</f>
         <v>18.096666666666653</v>
       </c>
-      <c r="AH533" s="104" t="s">
+      <c r="AI533" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="AI533" s="105" t="s">
+      <c r="AJ533" s="105" t="s">
         <v>221</v>
       </c>
     </row>
@@ -52004,11 +52007,11 @@
       <c r="AE534" s="59"/>
       <c r="AF534" s="59"/>
       <c r="AG534" s="59"/>
-      <c r="AH534" s="57">
-        <f>AH532*AH530</f>
+      <c r="AI534" s="57">
+        <f>AI532*AI530</f>
         <v>344</v>
       </c>
-      <c r="AI534" s="60" t="s">
+      <c r="AJ534" s="60" t="s">
         <v>222</v>
       </c>
     </row>
@@ -52113,10 +52116,10 @@
         <v>2</v>
       </c>
       <c r="AC536" s="8"/>
-      <c r="AH536" s="54" t="s">
+      <c r="AI536" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="AI536" s="106"/>
+      <c r="AJ536" s="106"/>
     </row>
     <row r="537" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A537" s="52">
@@ -52171,10 +52174,10 @@
       <c r="Z537" t="s">
         <v>258</v>
       </c>
-      <c r="AH537" s="102">
+      <c r="AI537" s="102">
         <v>5</v>
       </c>
-      <c r="AI537" s="57"/>
+      <c r="AJ537" s="57"/>
     </row>
     <row r="538" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A538" s="52">
@@ -52229,10 +52232,10 @@
       <c r="Z538" s="75">
         <v>0</v>
       </c>
-      <c r="AH538" s="104" t="s">
+      <c r="AI538" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="AI538" s="105" t="s">
+      <c r="AJ538" s="105" t="s">
         <v>223</v>
       </c>
     </row>
@@ -52299,11 +52302,11 @@
         <v>300</v>
       </c>
       <c r="AE539" s="95"/>
-      <c r="AH539" s="106">
+      <c r="AI539" s="106">
         <f>34.4*2</f>
         <v>68.8</v>
       </c>
-      <c r="AI539" s="103">
+      <c r="AJ539" s="103">
         <v>9800</v>
       </c>
     </row>
@@ -52373,10 +52376,10 @@
         <f>AB533+Z540</f>
         <v>3.6466666666666541</v>
       </c>
-      <c r="AH540" s="104" t="s">
+      <c r="AI540" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="AI540" s="105" t="s">
+      <c r="AJ540" s="105" t="s">
         <v>221</v>
       </c>
     </row>
@@ -52429,11 +52432,11 @@
       <c r="AE541" s="59"/>
       <c r="AF541" s="59"/>
       <c r="AG541" s="59"/>
-      <c r="AH541" s="57">
-        <f>AH539*AH537</f>
+      <c r="AI541" s="57">
+        <f>AI539*AI537</f>
         <v>344</v>
       </c>
-      <c r="AI541" s="60" t="s">
+      <c r="AJ541" s="60" t="s">
         <v>222</v>
       </c>
     </row>
@@ -52526,10 +52529,10 @@
       </c>
       <c r="X543" s="109"/>
       <c r="AC543" s="8"/>
-      <c r="AH543" s="54" t="s">
+      <c r="AI543" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="AI543" s="106"/>
+      <c r="AJ543" s="106"/>
     </row>
     <row r="544" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A544" s="52">
@@ -52572,12 +52575,12 @@
       <c r="Z544" t="s">
         <v>258</v>
       </c>
-      <c r="AH544" s="102">
-        <v>0</v>
-      </c>
-      <c r="AI544" s="57"/>
-    </row>
-    <row r="545" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI544" s="102">
+        <v>0</v>
+      </c>
+      <c r="AJ544" s="57"/>
+    </row>
+    <row r="545" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A545" s="52">
         <v>43572</v>
       </c>
@@ -52618,14 +52621,14 @@
       <c r="Z545" s="75">
         <v>5</v>
       </c>
-      <c r="AH545" s="104" t="s">
+      <c r="AI545" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="AI545" s="105" t="s">
+      <c r="AJ545" s="105" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="546" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A546" s="52">
         <v>43573</v>
       </c>
@@ -52676,15 +52679,15 @@
         <v>300</v>
       </c>
       <c r="AE546" s="95"/>
-      <c r="AH546" s="106">
+      <c r="AI546" s="106">
         <f>34.4*2</f>
         <v>68.8</v>
       </c>
-      <c r="AI546" s="103">
+      <c r="AJ546" s="103">
         <v>9800</v>
       </c>
     </row>
-    <row r="547" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A547" s="52">
         <v>43574</v>
       </c>
@@ -52738,14 +52741,14 @@
         <f>AB540+Z547</f>
         <v>3.6466666666666541</v>
       </c>
-      <c r="AH547" s="104" t="s">
+      <c r="AI547" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="AI547" s="105" t="s">
+      <c r="AJ547" s="105" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="548" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A548" s="61">
         <v>43575</v>
       </c>
@@ -52792,15 +52795,15 @@
       <c r="AE548" s="59"/>
       <c r="AF548" s="59"/>
       <c r="AG548" s="59"/>
-      <c r="AH548" s="57">
-        <f>AH546*AH544</f>
-        <v>0</v>
-      </c>
-      <c r="AI548" s="60" t="s">
+      <c r="AI548" s="57">
+        <f>AI546*AI544</f>
+        <v>0</v>
+      </c>
+      <c r="AJ548" s="60" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="549" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A549" s="114">
         <v>43576</v>
       </c>
@@ -52850,7 +52853,7 @@
       <c r="Y549" s="108"/>
       <c r="AC549" s="8"/>
     </row>
-    <row r="550" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A550" s="52">
         <v>43577</v>
       </c>
@@ -52890,7 +52893,7 @@
       <c r="X550" s="109"/>
       <c r="AC550" s="8"/>
     </row>
-    <row r="551" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A551" s="52">
         <v>43578</v>
       </c>
@@ -52932,7 +52935,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="552" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A552" s="52">
         <v>43579</v>
       </c>
@@ -52974,7 +52977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A553" s="52">
         <v>43580</v>
       </c>
@@ -53026,7 +53029,7 @@
       </c>
       <c r="AE553" s="95"/>
     </row>
-    <row r="554" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A554" s="52">
         <v>43581</v>
       </c>
@@ -53081,7 +53084,7 @@
         <v>3.6466666666666541</v>
       </c>
     </row>
-    <row r="555" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A555" s="61">
         <v>43582</v>
       </c>
@@ -53129,7 +53132,7 @@
       <c r="AF555" s="59"/>
       <c r="AG555" s="59"/>
     </row>
-    <row r="556" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A556" s="114">
         <v>43583</v>
       </c>
@@ -53179,7 +53182,7 @@
       <c r="Y556" s="108"/>
       <c r="AC556" s="8"/>
     </row>
-    <row r="557" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A557" s="52">
         <v>43584</v>
       </c>
@@ -53219,7 +53222,7 @@
       <c r="X557" s="109"/>
       <c r="AC557" s="8"/>
     </row>
-    <row r="558" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A558" s="52">
         <v>43585</v>
       </c>
@@ -53261,7 +53264,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="559" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A559" s="52">
         <v>43586</v>
       </c>
@@ -53303,7 +53306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A560" s="52">
         <v>43587</v>
       </c>
@@ -54453,12 +54456,15 @@
         <v>-2.3166666666666629</v>
       </c>
       <c r="AA582" s="10">
-        <f>AA575+Z582</f>
-        <v>-16.733333333333331</v>
+        <f>Z582</f>
+        <v>-2.3166666666666629</v>
       </c>
       <c r="AB582" s="10">
         <f>AB575+Z582</f>
         <v>1.3299999999999912</v>
+      </c>
+      <c r="AC582" s="9" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="583" spans="1:33" x14ac:dyDescent="0.25">
@@ -54496,7 +54502,7 @@
       <c r="V583" s="72"/>
       <c r="W583" s="73"/>
       <c r="X583" s="69"/>
-      <c r="Y583" s="12">
+      <c r="Y583" s="126">
         <f>SUM(X578:X582)</f>
         <v>38</v>
       </c>
@@ -54835,7 +54841,7 @@
       </c>
       <c r="AA589" s="10">
         <f>AA582+Z589</f>
-        <v>-14.066666666666666</v>
+        <v>0.35000000000000142</v>
       </c>
       <c r="AB589" s="10">
         <f>AB582+Z589</f>
@@ -54877,7 +54883,7 @@
       <c r="V590" s="72"/>
       <c r="W590" s="73"/>
       <c r="X590" s="69"/>
-      <c r="Y590" s="12">
+      <c r="Y590" s="126">
         <f>SUM(X585:X589)</f>
         <v>34.5</v>
       </c>
@@ -55172,7 +55178,7 @@
       </c>
       <c r="AA596" s="10">
         <f>AA589+Z596</f>
-        <v>-40.5</v>
+        <v>-26.083333333333332</v>
       </c>
       <c r="AB596" s="10">
         <f>AB589+Z596</f>
@@ -55214,7 +55220,7 @@
       <c r="V597" s="72"/>
       <c r="W597" s="73"/>
       <c r="X597" s="69"/>
-      <c r="Y597" s="12">
+      <c r="Y597" s="126">
         <f>SUM(X592:X596)</f>
         <v>0</v>
       </c>
@@ -55491,7 +55497,7 @@
       </c>
       <c r="AA603" s="10">
         <f>AA596+Z603</f>
-        <v>-80.5</v>
+        <v>-66.083333333333329</v>
       </c>
       <c r="AB603" s="10">
         <f>AB596+Z603</f>
@@ -55533,7 +55539,7 @@
       <c r="V604" s="72"/>
       <c r="W604" s="73"/>
       <c r="X604" s="69"/>
-      <c r="Y604" s="12">
+      <c r="Y604" s="126">
         <f>SUM(X599:X603)</f>
         <v>0</v>
       </c>
@@ -55810,7 +55816,7 @@
       </c>
       <c r="AA610" s="10">
         <f>AA603+Z610</f>
-        <v>-120.5</v>
+        <v>-106.08333333333333</v>
       </c>
       <c r="AB610" s="10">
         <f>AB603+Z610</f>
@@ -55852,7 +55858,7 @@
       <c r="V611" s="72"/>
       <c r="W611" s="73"/>
       <c r="X611" s="69"/>
-      <c r="Y611" s="12">
+      <c r="Y611" s="126">
         <f>SUM(X606:X610)</f>
         <v>0</v>
       </c>
@@ -56129,7 +56135,7 @@
       </c>
       <c r="AA617" s="10">
         <f>AA610+Z617</f>
-        <v>-160.5</v>
+        <v>-146.08333333333331</v>
       </c>
       <c r="AB617" s="10">
         <f>AB610+Z617</f>
@@ -56171,7 +56177,7 @@
       <c r="V618" s="72"/>
       <c r="W618" s="73"/>
       <c r="X618" s="69"/>
-      <c r="Y618" s="12">
+      <c r="Y618" s="126">
         <f>SUM(X613:X617)</f>
         <v>0</v>
       </c>
@@ -56448,7 +56454,7 @@
       </c>
       <c r="AA624" s="10">
         <f>AA617+Z624</f>
-        <v>-200.5</v>
+        <v>-186.08333333333331</v>
       </c>
       <c r="AB624" s="10">
         <f>AB617+Z624</f>
@@ -56490,7 +56496,7 @@
       <c r="V625" s="72"/>
       <c r="W625" s="73"/>
       <c r="X625" s="69"/>
-      <c r="Y625" s="12">
+      <c r="Y625" s="126">
         <f>SUM(X620:X624)</f>
         <v>0</v>
       </c>
@@ -56767,7 +56773,7 @@
       </c>
       <c r="AA631" s="10">
         <f>AA624+Z631</f>
-        <v>-240.5</v>
+        <v>-226.08333333333331</v>
       </c>
       <c r="AB631" s="10">
         <f>AB624+Z631</f>
@@ -56809,7 +56815,7 @@
       <c r="V632" s="72"/>
       <c r="W632" s="73"/>
       <c r="X632" s="69"/>
-      <c r="Y632" s="12">
+      <c r="Y632" s="126">
         <f>SUM(X627:X631)</f>
         <v>0</v>
       </c>
@@ -57086,7 +57092,7 @@
       </c>
       <c r="AA638" s="10">
         <f>AA631+Z638</f>
-        <v>-280.5</v>
+        <v>-266.08333333333331</v>
       </c>
       <c r="AB638" s="10">
         <f>AB631+Z638</f>
@@ -57128,7 +57134,7 @@
       <c r="V639" s="72"/>
       <c r="W639" s="73"/>
       <c r="X639" s="69"/>
-      <c r="Y639" s="12">
+      <c r="Y639" s="126">
         <f>SUM(X634:X638)</f>
         <v>0</v>
       </c>
@@ -57405,7 +57411,7 @@
       </c>
       <c r="AA645" s="10">
         <f>AA638+Z645</f>
-        <v>-320.5</v>
+        <v>-306.08333333333331</v>
       </c>
       <c r="AB645" s="10">
         <f>AB638+Z645</f>
@@ -57447,7 +57453,7 @@
       <c r="V646" s="72"/>
       <c r="W646" s="73"/>
       <c r="X646" s="69"/>
-      <c r="Y646" s="12">
+      <c r="Y646" s="126">
         <f>SUM(X641:X645)</f>
         <v>0</v>
       </c>
@@ -57724,7 +57730,7 @@
       </c>
       <c r="AA652" s="10">
         <f>AA645+Z652</f>
-        <v>-360.5</v>
+        <v>-346.08333333333331</v>
       </c>
       <c r="AB652" s="10">
         <f>AB645+Z652</f>
@@ -57766,7 +57772,7 @@
       <c r="V653" s="72"/>
       <c r="W653" s="73"/>
       <c r="X653" s="69"/>
-      <c r="Y653" s="12">
+      <c r="Y653" s="126">
         <f>SUM(X648:X652)</f>
         <v>0</v>
       </c>
@@ -58043,7 +58049,7 @@
       </c>
       <c r="AA659" s="10">
         <f>AA652+Z659</f>
-        <v>-400.5</v>
+        <v>-386.08333333333331</v>
       </c>
       <c r="AB659" s="10">
         <f>AB652+Z659</f>
@@ -58085,7 +58091,7 @@
       <c r="V660" s="72"/>
       <c r="W660" s="73"/>
       <c r="X660" s="69"/>
-      <c r="Y660" s="12">
+      <c r="Y660" s="126">
         <f>SUM(X655:X659)</f>
         <v>0</v>
       </c>
@@ -58362,7 +58368,7 @@
       </c>
       <c r="AA666" s="10">
         <f>AA659+Z666</f>
-        <v>-440.5</v>
+        <v>-426.08333333333331</v>
       </c>
       <c r="AB666" s="10">
         <f>AB659+Z666</f>
@@ -58404,7 +58410,7 @@
       <c r="V667" s="72"/>
       <c r="W667" s="73"/>
       <c r="X667" s="69"/>
-      <c r="Y667" s="12">
+      <c r="Y667" s="126">
         <f>SUM(X662:X666)</f>
         <v>0</v>
       </c>
@@ -58681,7 +58687,7 @@
       </c>
       <c r="AA673" s="10">
         <f>AA666+Z673</f>
-        <v>-480.5</v>
+        <v>-466.08333333333331</v>
       </c>
       <c r="AB673" s="10">
         <f>AB666+Z673</f>
@@ -58723,7 +58729,7 @@
       <c r="V674" s="72"/>
       <c r="W674" s="73"/>
       <c r="X674" s="69"/>
-      <c r="Y674" s="12">
+      <c r="Y674" s="126">
         <f>SUM(X669:X673)</f>
         <v>0</v>
       </c>
@@ -59000,7 +59006,7 @@
       </c>
       <c r="AA680" s="10">
         <f>AA673+Z680</f>
-        <v>-520.5</v>
+        <v>-506.08333333333331</v>
       </c>
       <c r="AB680" s="10">
         <f>AB673+Z680</f>
@@ -59042,7 +59048,7 @@
       <c r="V681" s="72"/>
       <c r="W681" s="73"/>
       <c r="X681" s="69"/>
-      <c r="Y681" s="12">
+      <c r="Y681" s="126">
         <f>SUM(X676:X680)</f>
         <v>0</v>
       </c>
@@ -59319,7 +59325,7 @@
       </c>
       <c r="AA687" s="10">
         <f>AA680+Z687</f>
-        <v>-560.5</v>
+        <v>-546.08333333333326</v>
       </c>
       <c r="AB687" s="10">
         <f>AB680+Z687</f>
@@ -59361,7 +59367,7 @@
       <c r="V688" s="72"/>
       <c r="W688" s="73"/>
       <c r="X688" s="69"/>
-      <c r="Y688" s="12">
+      <c r="Y688" s="126">
         <f>SUM(X683:X687)</f>
         <v>0</v>
       </c>
@@ -59638,7 +59644,7 @@
       </c>
       <c r="AA694" s="10">
         <f>AA687+Z694</f>
-        <v>-600.5</v>
+        <v>-586.08333333333326</v>
       </c>
       <c r="AB694" s="10">
         <f>AB687+Z694</f>
@@ -59680,7 +59686,7 @@
       <c r="V695" s="72"/>
       <c r="W695" s="73"/>
       <c r="X695" s="69"/>
-      <c r="Y695" s="12">
+      <c r="Y695" s="126">
         <f>SUM(X690:X694)</f>
         <v>0</v>
       </c>
@@ -59957,7 +59963,7 @@
       </c>
       <c r="AA701" s="10">
         <f>AA694+Z701</f>
-        <v>-640.5</v>
+        <v>-626.08333333333326</v>
       </c>
       <c r="AB701" s="10">
         <f>AB694+Z701</f>
@@ -59999,7 +60005,7 @@
       <c r="V702" s="72"/>
       <c r="W702" s="73"/>
       <c r="X702" s="69"/>
-      <c r="Y702" s="12">
+      <c r="Y702" s="126">
         <f>SUM(X697:X701)</f>
         <v>0</v>
       </c>
@@ -60276,7 +60282,7 @@
       </c>
       <c r="AA708" s="10">
         <f>AA701+Z708</f>
-        <v>-680.5</v>
+        <v>-666.08333333333326</v>
       </c>
       <c r="AB708" s="10">
         <f>AB701+Z708</f>
@@ -60318,7 +60324,7 @@
       <c r="V709" s="72"/>
       <c r="W709" s="73"/>
       <c r="X709" s="69"/>
-      <c r="Y709" s="12">
+      <c r="Y709" s="126">
         <f>SUM(X704:X708)</f>
         <v>0</v>
       </c>
@@ -60595,7 +60601,7 @@
       </c>
       <c r="AA715" s="10">
         <f>AA708+Z715</f>
-        <v>-720.5</v>
+        <v>-706.08333333333326</v>
       </c>
       <c r="AB715" s="10">
         <f>AB708+Z715</f>
@@ -60637,7 +60643,7 @@
       <c r="V716" s="72"/>
       <c r="W716" s="73"/>
       <c r="X716" s="69"/>
-      <c r="Y716" s="12">
+      <c r="Y716" s="126">
         <f>SUM(X711:X715)</f>
         <v>0</v>
       </c>
@@ -60914,7 +60920,7 @@
       </c>
       <c r="AA722" s="10">
         <f>AA715+Z722</f>
-        <v>-760.5</v>
+        <v>-746.08333333333326</v>
       </c>
       <c r="AB722" s="10">
         <f>AB715+Z722</f>
@@ -60956,7 +60962,7 @@
       <c r="V723" s="72"/>
       <c r="W723" s="73"/>
       <c r="X723" s="69"/>
-      <c r="Y723" s="12">
+      <c r="Y723" s="126">
         <f>SUM(X718:X722)</f>
         <v>0</v>
       </c>
@@ -60971,48 +60977,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E437:I437"/>
-    <mergeCell ref="K437:O437"/>
-    <mergeCell ref="E430:I430"/>
-    <mergeCell ref="K430:O430"/>
-    <mergeCell ref="E409:I409"/>
-    <mergeCell ref="K409:O409"/>
-    <mergeCell ref="E416:I416"/>
-    <mergeCell ref="K416:O416"/>
-    <mergeCell ref="E423:I423"/>
-    <mergeCell ref="K423:O423"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="E304:I304"/>
-    <mergeCell ref="K304:O304"/>
-    <mergeCell ref="E283:I283"/>
-    <mergeCell ref="K283:O283"/>
-    <mergeCell ref="E276:I276"/>
-    <mergeCell ref="K276:O276"/>
-    <mergeCell ref="E269:I269"/>
-    <mergeCell ref="K269:O269"/>
-    <mergeCell ref="E262:I262"/>
-    <mergeCell ref="K262:O262"/>
-    <mergeCell ref="E339:I339"/>
-    <mergeCell ref="K339:O339"/>
-    <mergeCell ref="E290:I290"/>
-    <mergeCell ref="K290:O290"/>
-    <mergeCell ref="E311:I311"/>
-    <mergeCell ref="K311:O311"/>
-    <mergeCell ref="E318:I318"/>
-    <mergeCell ref="K318:O318"/>
-    <mergeCell ref="E325:I325"/>
-    <mergeCell ref="K325:O325"/>
-    <mergeCell ref="E297:I297"/>
-    <mergeCell ref="K297:O297"/>
-    <mergeCell ref="E332:I332"/>
-    <mergeCell ref="K332:O332"/>
-    <mergeCell ref="E346:I346"/>
-    <mergeCell ref="K346:O346"/>
-    <mergeCell ref="E353:I353"/>
-    <mergeCell ref="K353:O353"/>
-    <mergeCell ref="E360:I360"/>
-    <mergeCell ref="K360:O360"/>
     <mergeCell ref="E444:I444"/>
     <mergeCell ref="K444:O444"/>
     <mergeCell ref="E451:I451"/>
@@ -61029,6 +60993,48 @@
     <mergeCell ref="K395:O395"/>
     <mergeCell ref="E402:I402"/>
     <mergeCell ref="K402:O402"/>
+    <mergeCell ref="E346:I346"/>
+    <mergeCell ref="K346:O346"/>
+    <mergeCell ref="E353:I353"/>
+    <mergeCell ref="K353:O353"/>
+    <mergeCell ref="E360:I360"/>
+    <mergeCell ref="K360:O360"/>
+    <mergeCell ref="E339:I339"/>
+    <mergeCell ref="K339:O339"/>
+    <mergeCell ref="E290:I290"/>
+    <mergeCell ref="K290:O290"/>
+    <mergeCell ref="E311:I311"/>
+    <mergeCell ref="K311:O311"/>
+    <mergeCell ref="E318:I318"/>
+    <mergeCell ref="K318:O318"/>
+    <mergeCell ref="E325:I325"/>
+    <mergeCell ref="K325:O325"/>
+    <mergeCell ref="E297:I297"/>
+    <mergeCell ref="K297:O297"/>
+    <mergeCell ref="E332:I332"/>
+    <mergeCell ref="K332:O332"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="E304:I304"/>
+    <mergeCell ref="K304:O304"/>
+    <mergeCell ref="E283:I283"/>
+    <mergeCell ref="K283:O283"/>
+    <mergeCell ref="E276:I276"/>
+    <mergeCell ref="K276:O276"/>
+    <mergeCell ref="E269:I269"/>
+    <mergeCell ref="K269:O269"/>
+    <mergeCell ref="E262:I262"/>
+    <mergeCell ref="K262:O262"/>
+    <mergeCell ref="E437:I437"/>
+    <mergeCell ref="K437:O437"/>
+    <mergeCell ref="E430:I430"/>
+    <mergeCell ref="K430:O430"/>
+    <mergeCell ref="E409:I409"/>
+    <mergeCell ref="K409:O409"/>
+    <mergeCell ref="E416:I416"/>
+    <mergeCell ref="K416:O416"/>
+    <mergeCell ref="E423:I423"/>
+    <mergeCell ref="K423:O423"/>
   </mergeCells>
   <conditionalFormatting sqref="Y216">
     <cfRule type="colorScale" priority="81">
@@ -61040,7 +61046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y307 Y209 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
+  <conditionalFormatting sqref="Y209 Y307 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -61060,7 +61066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD309 AD218 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
+  <conditionalFormatting sqref="AD218 AD309 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -61720,7 +61726,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH544">
+  <conditionalFormatting sqref="AI544">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -61730,7 +61736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH537">
+  <conditionalFormatting sqref="AI537">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -61740,7 +61746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH530">
+  <conditionalFormatting sqref="AI530">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -61750,7 +61756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH523">
+  <conditionalFormatting sqref="AI523">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/tidsrapport/tidsrapportering3.xlsx
+++ b/tidsrapport/tidsrapportering3.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6412" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6411" uniqueCount="307">
   <si>
     <t>vecka 38</t>
   </si>
@@ -1478,6 +1478,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1487,7 +1488,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10110,20 +10110,20 @@
       <c r="A4" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="I4" s="123" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="I4" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
       <c r="N4" s="31"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="40" t="s">
@@ -23223,10 +23223,10 @@
   <dimension ref="A1:AK723"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C563" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C569" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y587" sqref="Y587"/>
+      <selection pane="bottomRight" activeCell="AG581" sqref="AG581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23285,21 +23285,21 @@
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
       <c r="J2" s="90"/>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="126" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="97" t="s">
         <v>18</v>
@@ -36699,21 +36699,21 @@
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="124" t="s">
+      <c r="E262" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F262" s="124"/>
-      <c r="G262" s="124"/>
-      <c r="H262" s="124"/>
-      <c r="I262" s="124"/>
+      <c r="F262" s="125"/>
+      <c r="G262" s="125"/>
+      <c r="H262" s="125"/>
+      <c r="I262" s="125"/>
       <c r="J262" s="42"/>
-      <c r="K262" s="124" t="s">
+      <c r="K262" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L262" s="124"/>
-      <c r="M262" s="124"/>
-      <c r="N262" s="124"/>
-      <c r="O262" s="124"/>
+      <c r="L262" s="125"/>
+      <c r="M262" s="125"/>
+      <c r="N262" s="125"/>
+      <c r="O262" s="125"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="96" t="s">
         <v>18</v>
@@ -37124,21 +37124,21 @@
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="124" t="s">
+      <c r="E269" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F269" s="124"/>
-      <c r="G269" s="124"/>
-      <c r="H269" s="124"/>
-      <c r="I269" s="124"/>
+      <c r="F269" s="125"/>
+      <c r="G269" s="125"/>
+      <c r="H269" s="125"/>
+      <c r="I269" s="125"/>
       <c r="J269" s="42"/>
-      <c r="K269" s="124" t="s">
+      <c r="K269" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L269" s="124"/>
-      <c r="M269" s="124"/>
-      <c r="N269" s="124"/>
-      <c r="O269" s="124"/>
+      <c r="L269" s="125"/>
+      <c r="M269" s="125"/>
+      <c r="N269" s="125"/>
+      <c r="O269" s="125"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="96" t="s">
         <v>18</v>
@@ -37534,21 +37534,21 @@
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="124" t="s">
+      <c r="E276" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F276" s="124"/>
-      <c r="G276" s="124"/>
-      <c r="H276" s="124"/>
-      <c r="I276" s="124"/>
+      <c r="F276" s="125"/>
+      <c r="G276" s="125"/>
+      <c r="H276" s="125"/>
+      <c r="I276" s="125"/>
       <c r="J276" s="42"/>
-      <c r="K276" s="124" t="s">
+      <c r="K276" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L276" s="124"/>
-      <c r="M276" s="124"/>
-      <c r="N276" s="124"/>
-      <c r="O276" s="124"/>
+      <c r="L276" s="125"/>
+      <c r="M276" s="125"/>
+      <c r="N276" s="125"/>
+      <c r="O276" s="125"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="96" t="s">
         <v>18</v>
@@ -37922,21 +37922,21 @@
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="124" t="s">
+      <c r="E283" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F283" s="124"/>
-      <c r="G283" s="124"/>
-      <c r="H283" s="124"/>
-      <c r="I283" s="124"/>
+      <c r="F283" s="125"/>
+      <c r="G283" s="125"/>
+      <c r="H283" s="125"/>
+      <c r="I283" s="125"/>
       <c r="J283" s="42"/>
-      <c r="K283" s="124" t="s">
+      <c r="K283" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L283" s="124"/>
-      <c r="M283" s="124"/>
-      <c r="N283" s="124"/>
-      <c r="O283" s="124"/>
+      <c r="L283" s="125"/>
+      <c r="M283" s="125"/>
+      <c r="N283" s="125"/>
+      <c r="O283" s="125"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="96" t="s">
         <v>18</v>
@@ -38274,21 +38274,21 @@
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="124" t="s">
+      <c r="E290" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F290" s="124"/>
-      <c r="G290" s="124"/>
-      <c r="H290" s="124"/>
-      <c r="I290" s="124"/>
+      <c r="F290" s="125"/>
+      <c r="G290" s="125"/>
+      <c r="H290" s="125"/>
+      <c r="I290" s="125"/>
       <c r="J290" s="42"/>
-      <c r="K290" s="124" t="s">
+      <c r="K290" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L290" s="124"/>
-      <c r="M290" s="124"/>
-      <c r="N290" s="124"/>
-      <c r="O290" s="124"/>
+      <c r="L290" s="125"/>
+      <c r="M290" s="125"/>
+      <c r="N290" s="125"/>
+      <c r="O290" s="125"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="96" t="s">
         <v>18</v>
@@ -38633,21 +38633,21 @@
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="124" t="s">
+      <c r="E297" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F297" s="124"/>
-      <c r="G297" s="124"/>
-      <c r="H297" s="124"/>
-      <c r="I297" s="124"/>
+      <c r="F297" s="125"/>
+      <c r="G297" s="125"/>
+      <c r="H297" s="125"/>
+      <c r="I297" s="125"/>
       <c r="J297" s="42"/>
-      <c r="K297" s="124" t="s">
+      <c r="K297" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L297" s="124"/>
-      <c r="M297" s="124"/>
-      <c r="N297" s="124"/>
-      <c r="O297" s="124"/>
+      <c r="L297" s="125"/>
+      <c r="M297" s="125"/>
+      <c r="N297" s="125"/>
+      <c r="O297" s="125"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="96" t="s">
         <v>18</v>
@@ -39048,21 +39048,21 @@
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="124" t="s">
+      <c r="E304" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F304" s="124"/>
-      <c r="G304" s="124"/>
-      <c r="H304" s="124"/>
-      <c r="I304" s="124"/>
+      <c r="F304" s="125"/>
+      <c r="G304" s="125"/>
+      <c r="H304" s="125"/>
+      <c r="I304" s="125"/>
       <c r="J304" s="42"/>
-      <c r="K304" s="124" t="s">
+      <c r="K304" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L304" s="124"/>
-      <c r="M304" s="124"/>
-      <c r="N304" s="124"/>
-      <c r="O304" s="124"/>
+      <c r="L304" s="125"/>
+      <c r="M304" s="125"/>
+      <c r="N304" s="125"/>
+      <c r="O304" s="125"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="96" t="s">
         <v>18</v>
@@ -39453,21 +39453,21 @@
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="124" t="s">
+      <c r="E311" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F311" s="124"/>
-      <c r="G311" s="124"/>
-      <c r="H311" s="124"/>
-      <c r="I311" s="124"/>
+      <c r="F311" s="125"/>
+      <c r="G311" s="125"/>
+      <c r="H311" s="125"/>
+      <c r="I311" s="125"/>
       <c r="J311" s="42"/>
-      <c r="K311" s="124" t="s">
+      <c r="K311" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L311" s="124"/>
-      <c r="M311" s="124"/>
-      <c r="N311" s="124"/>
-      <c r="O311" s="124"/>
+      <c r="L311" s="125"/>
+      <c r="M311" s="125"/>
+      <c r="N311" s="125"/>
+      <c r="O311" s="125"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="96" t="s">
         <v>18</v>
@@ -39866,21 +39866,21 @@
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="124" t="s">
+      <c r="E318" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F318" s="124"/>
-      <c r="G318" s="124"/>
-      <c r="H318" s="124"/>
-      <c r="I318" s="124"/>
+      <c r="F318" s="125"/>
+      <c r="G318" s="125"/>
+      <c r="H318" s="125"/>
+      <c r="I318" s="125"/>
       <c r="J318" s="42"/>
-      <c r="K318" s="124" t="s">
+      <c r="K318" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L318" s="124"/>
-      <c r="M318" s="124"/>
-      <c r="N318" s="124"/>
-      <c r="O318" s="124"/>
+      <c r="L318" s="125"/>
+      <c r="M318" s="125"/>
+      <c r="N318" s="125"/>
+      <c r="O318" s="125"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="96" t="s">
         <v>18</v>
@@ -40289,21 +40289,21 @@
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="124" t="s">
+      <c r="E325" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F325" s="124"/>
-      <c r="G325" s="124"/>
-      <c r="H325" s="124"/>
-      <c r="I325" s="124"/>
+      <c r="F325" s="125"/>
+      <c r="G325" s="125"/>
+      <c r="H325" s="125"/>
+      <c r="I325" s="125"/>
       <c r="J325" s="42"/>
-      <c r="K325" s="124" t="s">
+      <c r="K325" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L325" s="124"/>
-      <c r="M325" s="124"/>
-      <c r="N325" s="124"/>
-      <c r="O325" s="124"/>
+      <c r="L325" s="125"/>
+      <c r="M325" s="125"/>
+      <c r="N325" s="125"/>
+      <c r="O325" s="125"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="96" t="s">
         <v>18</v>
@@ -40691,21 +40691,21 @@
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
-      <c r="E332" s="124" t="s">
+      <c r="E332" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F332" s="124"/>
-      <c r="G332" s="124"/>
-      <c r="H332" s="124"/>
-      <c r="I332" s="124"/>
+      <c r="F332" s="125"/>
+      <c r="G332" s="125"/>
+      <c r="H332" s="125"/>
+      <c r="I332" s="125"/>
       <c r="J332" s="42"/>
-      <c r="K332" s="124" t="s">
+      <c r="K332" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L332" s="124"/>
-      <c r="M332" s="124"/>
-      <c r="N332" s="124"/>
-      <c r="O332" s="124"/>
+      <c r="L332" s="125"/>
+      <c r="M332" s="125"/>
+      <c r="N332" s="125"/>
+      <c r="O332" s="125"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="96" t="s">
         <v>18</v>
@@ -41110,21 +41110,21 @@
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
-      <c r="E339" s="124" t="s">
+      <c r="E339" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F339" s="124"/>
-      <c r="G339" s="124"/>
-      <c r="H339" s="124"/>
-      <c r="I339" s="124"/>
+      <c r="F339" s="125"/>
+      <c r="G339" s="125"/>
+      <c r="H339" s="125"/>
+      <c r="I339" s="125"/>
       <c r="J339" s="42"/>
-      <c r="K339" s="124" t="s">
+      <c r="K339" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L339" s="124"/>
-      <c r="M339" s="124"/>
-      <c r="N339" s="124"/>
-      <c r="O339" s="124"/>
+      <c r="L339" s="125"/>
+      <c r="M339" s="125"/>
+      <c r="N339" s="125"/>
+      <c r="O339" s="125"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="96" t="s">
         <v>18</v>
@@ -41514,21 +41514,21 @@
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
-      <c r="E346" s="124" t="s">
+      <c r="E346" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F346" s="124"/>
-      <c r="G346" s="124"/>
-      <c r="H346" s="124"/>
-      <c r="I346" s="124"/>
+      <c r="F346" s="125"/>
+      <c r="G346" s="125"/>
+      <c r="H346" s="125"/>
+      <c r="I346" s="125"/>
       <c r="J346" s="42"/>
-      <c r="K346" s="124" t="s">
+      <c r="K346" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L346" s="124"/>
-      <c r="M346" s="124"/>
-      <c r="N346" s="124"/>
-      <c r="O346" s="124"/>
+      <c r="L346" s="125"/>
+      <c r="M346" s="125"/>
+      <c r="N346" s="125"/>
+      <c r="O346" s="125"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="96" t="s">
         <v>18</v>
@@ -41887,21 +41887,21 @@
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
-      <c r="E353" s="124" t="s">
+      <c r="E353" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F353" s="124"/>
-      <c r="G353" s="124"/>
-      <c r="H353" s="124"/>
-      <c r="I353" s="124"/>
+      <c r="F353" s="125"/>
+      <c r="G353" s="125"/>
+      <c r="H353" s="125"/>
+      <c r="I353" s="125"/>
       <c r="J353" s="42"/>
-      <c r="K353" s="124" t="s">
+      <c r="K353" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L353" s="124"/>
-      <c r="M353" s="124"/>
-      <c r="N353" s="124"/>
-      <c r="O353" s="124"/>
+      <c r="L353" s="125"/>
+      <c r="M353" s="125"/>
+      <c r="N353" s="125"/>
+      <c r="O353" s="125"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="96" t="s">
         <v>18</v>
@@ -42257,21 +42257,21 @@
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
-      <c r="E360" s="124" t="s">
+      <c r="E360" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F360" s="124"/>
-      <c r="G360" s="124"/>
-      <c r="H360" s="124"/>
-      <c r="I360" s="124"/>
+      <c r="F360" s="125"/>
+      <c r="G360" s="125"/>
+      <c r="H360" s="125"/>
+      <c r="I360" s="125"/>
       <c r="J360" s="42"/>
-      <c r="K360" s="124" t="s">
+      <c r="K360" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L360" s="124"/>
-      <c r="M360" s="124"/>
-      <c r="N360" s="124"/>
-      <c r="O360" s="124"/>
+      <c r="L360" s="125"/>
+      <c r="M360" s="125"/>
+      <c r="N360" s="125"/>
+      <c r="O360" s="125"/>
       <c r="P360" s="1"/>
       <c r="Q360" s="96" t="s">
         <v>18</v>
@@ -42637,21 +42637,21 @@
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
-      <c r="E367" s="124" t="s">
+      <c r="E367" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F367" s="124"/>
-      <c r="G367" s="124"/>
-      <c r="H367" s="124"/>
-      <c r="I367" s="124"/>
+      <c r="F367" s="125"/>
+      <c r="G367" s="125"/>
+      <c r="H367" s="125"/>
+      <c r="I367" s="125"/>
       <c r="J367" s="42"/>
-      <c r="K367" s="124" t="s">
+      <c r="K367" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L367" s="124"/>
-      <c r="M367" s="124"/>
-      <c r="N367" s="124"/>
-      <c r="O367" s="124"/>
+      <c r="L367" s="125"/>
+      <c r="M367" s="125"/>
+      <c r="N367" s="125"/>
+      <c r="O367" s="125"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="96" t="s">
         <v>18</v>
@@ -43010,21 +43010,21 @@
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
-      <c r="E374" s="124" t="s">
+      <c r="E374" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F374" s="124"/>
-      <c r="G374" s="124"/>
-      <c r="H374" s="124"/>
-      <c r="I374" s="124"/>
+      <c r="F374" s="125"/>
+      <c r="G374" s="125"/>
+      <c r="H374" s="125"/>
+      <c r="I374" s="125"/>
       <c r="J374" s="42"/>
-      <c r="K374" s="124" t="s">
+      <c r="K374" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L374" s="124"/>
-      <c r="M374" s="124"/>
-      <c r="N374" s="124"/>
-      <c r="O374" s="124"/>
+      <c r="L374" s="125"/>
+      <c r="M374" s="125"/>
+      <c r="N374" s="125"/>
+      <c r="O374" s="125"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="96" t="s">
         <v>18</v>
@@ -43385,21 +43385,21 @@
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
-      <c r="E381" s="124" t="s">
+      <c r="E381" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F381" s="124"/>
-      <c r="G381" s="124"/>
-      <c r="H381" s="124"/>
-      <c r="I381" s="124"/>
+      <c r="F381" s="125"/>
+      <c r="G381" s="125"/>
+      <c r="H381" s="125"/>
+      <c r="I381" s="125"/>
       <c r="J381" s="42"/>
-      <c r="K381" s="124" t="s">
+      <c r="K381" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L381" s="124"/>
-      <c r="M381" s="124"/>
-      <c r="N381" s="124"/>
-      <c r="O381" s="124"/>
+      <c r="L381" s="125"/>
+      <c r="M381" s="125"/>
+      <c r="N381" s="125"/>
+      <c r="O381" s="125"/>
       <c r="P381" s="1"/>
       <c r="Q381" s="96" t="s">
         <v>18</v>
@@ -43773,21 +43773,21 @@
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
-      <c r="E388" s="124" t="s">
+      <c r="E388" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F388" s="124"/>
-      <c r="G388" s="124"/>
-      <c r="H388" s="124"/>
-      <c r="I388" s="124"/>
+      <c r="F388" s="125"/>
+      <c r="G388" s="125"/>
+      <c r="H388" s="125"/>
+      <c r="I388" s="125"/>
       <c r="J388" s="42"/>
-      <c r="K388" s="124" t="s">
+      <c r="K388" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L388" s="124"/>
-      <c r="M388" s="124"/>
-      <c r="N388" s="124"/>
-      <c r="O388" s="124"/>
+      <c r="L388" s="125"/>
+      <c r="M388" s="125"/>
+      <c r="N388" s="125"/>
+      <c r="O388" s="125"/>
       <c r="P388" s="1"/>
       <c r="Q388" s="96" t="s">
         <v>18</v>
@@ -44168,21 +44168,21 @@
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
-      <c r="E395" s="124" t="s">
+      <c r="E395" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F395" s="124"/>
-      <c r="G395" s="124"/>
-      <c r="H395" s="124"/>
-      <c r="I395" s="124"/>
+      <c r="F395" s="125"/>
+      <c r="G395" s="125"/>
+      <c r="H395" s="125"/>
+      <c r="I395" s="125"/>
       <c r="J395" s="42"/>
-      <c r="K395" s="124" t="s">
+      <c r="K395" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L395" s="124"/>
-      <c r="M395" s="124"/>
-      <c r="N395" s="124"/>
-      <c r="O395" s="124"/>
+      <c r="L395" s="125"/>
+      <c r="M395" s="125"/>
+      <c r="N395" s="125"/>
+      <c r="O395" s="125"/>
       <c r="P395" s="1"/>
       <c r="Q395" s="96" t="s">
         <v>18</v>
@@ -44568,21 +44568,21 @@
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
-      <c r="E402" s="124" t="s">
+      <c r="E402" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F402" s="124"/>
-      <c r="G402" s="124"/>
-      <c r="H402" s="124"/>
-      <c r="I402" s="124"/>
+      <c r="F402" s="125"/>
+      <c r="G402" s="125"/>
+      <c r="H402" s="125"/>
+      <c r="I402" s="125"/>
       <c r="J402" s="42"/>
-      <c r="K402" s="124" t="s">
+      <c r="K402" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L402" s="124"/>
-      <c r="M402" s="124"/>
-      <c r="N402" s="124"/>
-      <c r="O402" s="124"/>
+      <c r="L402" s="125"/>
+      <c r="M402" s="125"/>
+      <c r="N402" s="125"/>
+      <c r="O402" s="125"/>
       <c r="P402" s="1"/>
       <c r="Q402" s="96" t="s">
         <v>18</v>
@@ -44955,21 +44955,21 @@
       </c>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
-      <c r="E409" s="124" t="s">
+      <c r="E409" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F409" s="124"/>
-      <c r="G409" s="124"/>
-      <c r="H409" s="124"/>
-      <c r="I409" s="124"/>
+      <c r="F409" s="125"/>
+      <c r="G409" s="125"/>
+      <c r="H409" s="125"/>
+      <c r="I409" s="125"/>
       <c r="J409" s="42"/>
-      <c r="K409" s="124" t="s">
+      <c r="K409" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L409" s="124"/>
-      <c r="M409" s="124"/>
-      <c r="N409" s="124"/>
-      <c r="O409" s="124"/>
+      <c r="L409" s="125"/>
+      <c r="M409" s="125"/>
+      <c r="N409" s="125"/>
+      <c r="O409" s="125"/>
       <c r="P409" s="1"/>
       <c r="Q409" s="96" t="s">
         <v>18</v>
@@ -45352,21 +45352,21 @@
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
-      <c r="E416" s="124" t="s">
+      <c r="E416" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F416" s="124"/>
-      <c r="G416" s="124"/>
-      <c r="H416" s="124"/>
-      <c r="I416" s="124"/>
+      <c r="F416" s="125"/>
+      <c r="G416" s="125"/>
+      <c r="H416" s="125"/>
+      <c r="I416" s="125"/>
       <c r="J416" s="42"/>
-      <c r="K416" s="124" t="s">
+      <c r="K416" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L416" s="124"/>
-      <c r="M416" s="124"/>
-      <c r="N416" s="124"/>
-      <c r="O416" s="124"/>
+      <c r="L416" s="125"/>
+      <c r="M416" s="125"/>
+      <c r="N416" s="125"/>
+      <c r="O416" s="125"/>
       <c r="P416" s="1"/>
       <c r="Q416" s="96" t="s">
         <v>18</v>
@@ -45747,21 +45747,21 @@
       </c>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
-      <c r="E423" s="124" t="s">
+      <c r="E423" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F423" s="124"/>
-      <c r="G423" s="124"/>
-      <c r="H423" s="124"/>
-      <c r="I423" s="124"/>
+      <c r="F423" s="125"/>
+      <c r="G423" s="125"/>
+      <c r="H423" s="125"/>
+      <c r="I423" s="125"/>
       <c r="J423" s="42"/>
-      <c r="K423" s="124" t="s">
+      <c r="K423" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L423" s="124"/>
-      <c r="M423" s="124"/>
-      <c r="N423" s="124"/>
-      <c r="O423" s="124"/>
+      <c r="L423" s="125"/>
+      <c r="M423" s="125"/>
+      <c r="N423" s="125"/>
+      <c r="O423" s="125"/>
       <c r="P423" s="1"/>
       <c r="Q423" s="96" t="s">
         <v>18</v>
@@ -46196,21 +46196,21 @@
       </c>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
-      <c r="E430" s="124" t="s">
+      <c r="E430" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F430" s="124"/>
-      <c r="G430" s="124"/>
-      <c r="H430" s="124"/>
-      <c r="I430" s="124"/>
+      <c r="F430" s="125"/>
+      <c r="G430" s="125"/>
+      <c r="H430" s="125"/>
+      <c r="I430" s="125"/>
       <c r="J430" s="42"/>
-      <c r="K430" s="124" t="s">
+      <c r="K430" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L430" s="124"/>
-      <c r="M430" s="124"/>
-      <c r="N430" s="124"/>
-      <c r="O430" s="124"/>
+      <c r="L430" s="125"/>
+      <c r="M430" s="125"/>
+      <c r="N430" s="125"/>
+      <c r="O430" s="125"/>
       <c r="P430" s="1"/>
       <c r="Q430" s="96" t="s">
         <v>18</v>
@@ -46591,21 +46591,21 @@
       </c>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
-      <c r="E437" s="124" t="s">
+      <c r="E437" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F437" s="124"/>
-      <c r="G437" s="124"/>
-      <c r="H437" s="124"/>
-      <c r="I437" s="124"/>
+      <c r="F437" s="125"/>
+      <c r="G437" s="125"/>
+      <c r="H437" s="125"/>
+      <c r="I437" s="125"/>
       <c r="J437" s="42"/>
-      <c r="K437" s="124" t="s">
+      <c r="K437" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L437" s="124"/>
-      <c r="M437" s="124"/>
-      <c r="N437" s="124"/>
-      <c r="O437" s="124"/>
+      <c r="L437" s="125"/>
+      <c r="M437" s="125"/>
+      <c r="N437" s="125"/>
+      <c r="O437" s="125"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="96" t="s">
         <v>18</v>
@@ -46918,21 +46918,21 @@
       </c>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
-      <c r="E444" s="124" t="s">
+      <c r="E444" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F444" s="124"/>
-      <c r="G444" s="124"/>
-      <c r="H444" s="124"/>
-      <c r="I444" s="124"/>
+      <c r="F444" s="125"/>
+      <c r="G444" s="125"/>
+      <c r="H444" s="125"/>
+      <c r="I444" s="125"/>
       <c r="J444" s="42"/>
-      <c r="K444" s="124" t="s">
+      <c r="K444" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L444" s="124"/>
-      <c r="M444" s="124"/>
-      <c r="N444" s="124"/>
-      <c r="O444" s="124"/>
+      <c r="L444" s="125"/>
+      <c r="M444" s="125"/>
+      <c r="N444" s="125"/>
+      <c r="O444" s="125"/>
       <c r="P444" s="1"/>
       <c r="Q444" s="96" t="s">
         <v>18</v>
@@ -47285,21 +47285,21 @@
       </c>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
-      <c r="E451" s="124" t="s">
+      <c r="E451" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F451" s="124"/>
-      <c r="G451" s="124"/>
-      <c r="H451" s="124"/>
-      <c r="I451" s="124"/>
+      <c r="F451" s="125"/>
+      <c r="G451" s="125"/>
+      <c r="H451" s="125"/>
+      <c r="I451" s="125"/>
       <c r="J451" s="42"/>
-      <c r="K451" s="124" t="s">
+      <c r="K451" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="L451" s="124"/>
-      <c r="M451" s="124"/>
-      <c r="N451" s="124"/>
-      <c r="O451" s="124"/>
+      <c r="L451" s="125"/>
+      <c r="M451" s="125"/>
+      <c r="N451" s="125"/>
+      <c r="O451" s="125"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="96" t="s">
         <v>18</v>
@@ -54502,7 +54502,7 @@
       <c r="V583" s="72"/>
       <c r="W583" s="73"/>
       <c r="X583" s="69"/>
-      <c r="Y583" s="126">
+      <c r="Y583" s="123">
         <f>SUM(X578:X582)</f>
         <v>38</v>
       </c>
@@ -54883,7 +54883,7 @@
       <c r="V590" s="72"/>
       <c r="W590" s="73"/>
       <c r="X590" s="69"/>
-      <c r="Y590" s="126">
+      <c r="Y590" s="123">
         <f>SUM(X585:X589)</f>
         <v>34.5</v>
       </c>
@@ -54995,7 +54995,9 @@
         <f>T592+U592-Q592*0.5+V592</f>
         <v>5.5666666666666664</v>
       </c>
-      <c r="X592" s="109"/>
+      <c r="X592" s="109">
+        <v>6</v>
+      </c>
       <c r="AC592" s="8"/>
     </row>
     <row r="593" spans="1:33" x14ac:dyDescent="0.25">
@@ -55007,8 +55009,20 @@
         <v>2</v>
       </c>
       <c r="D593" s="1"/>
+      <c r="E593">
+        <v>9</v>
+      </c>
+      <c r="F593">
+        <v>5</v>
+      </c>
       <c r="G593" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H593">
+        <v>17</v>
+      </c>
+      <c r="I593">
+        <v>0</v>
       </c>
       <c r="J593" s="85" t="s">
         <v>17</v>
@@ -55022,7 +55036,7 @@
       <c r="S593" s="4"/>
       <c r="T593" s="10">
         <f>(I593/60+H593)-(F593/60+E593)</f>
-        <v>0</v>
+        <v>7.9166666666666661</v>
       </c>
       <c r="U593" s="10">
         <f>(O593/60+N593)-(L593/60+K593)</f>
@@ -55031,9 +55045,11 @@
       <c r="V593" s="10"/>
       <c r="W593" s="11">
         <f>T593+U593-Q593*0.5+V593</f>
-        <v>0</v>
-      </c>
-      <c r="X593" s="10"/>
+        <v>7.9166666666666661</v>
+      </c>
+      <c r="X593" s="10">
+        <v>8</v>
+      </c>
       <c r="Z593" t="s">
         <v>258</v>
       </c>
@@ -55047,8 +55063,20 @@
         <v>3</v>
       </c>
       <c r="D594" s="1"/>
+      <c r="E594">
+        <v>9</v>
+      </c>
+      <c r="F594">
+        <v>0</v>
+      </c>
       <c r="G594" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H594">
+        <v>17</v>
+      </c>
+      <c r="I594">
+        <v>0</v>
       </c>
       <c r="J594" s="85" t="s">
         <v>17</v>
@@ -55062,7 +55090,7 @@
       <c r="S594" s="4"/>
       <c r="T594" s="10">
         <f>(I594/60+H594)-(F594/60+E594)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U594" s="10">
         <f>(O594/60+N594)-(L594/60+K594)</f>
@@ -55071,9 +55099,11 @@
       <c r="V594" s="10"/>
       <c r="W594" s="11">
         <f>T594+U594-Q594*0.5+V594</f>
-        <v>0</v>
-      </c>
-      <c r="X594" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="X594" s="10">
+        <v>8</v>
+      </c>
       <c r="Z594" s="75">
         <v>1</v>
       </c>
@@ -55134,16 +55164,26 @@
       <c r="A596" s="52">
         <v>43623</v>
       </c>
-      <c r="B596" s="9" t="s">
-        <v>305</v>
-      </c>
+      <c r="B596" s="9"/>
       <c r="C596" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D596" s="1"/>
+      <c r="E596">
+        <v>9</v>
+      </c>
+      <c r="F596">
+        <v>0</v>
+      </c>
       <c r="G596" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H596">
+        <v>18</v>
+      </c>
+      <c r="I596">
+        <v>10</v>
+      </c>
       <c r="J596" s="85" t="s">
         <v>17</v>
       </c>
@@ -55151,12 +55191,14 @@
         <v>6</v>
       </c>
       <c r="P596" s="1"/>
-      <c r="Q596" s="3"/>
+      <c r="Q596" s="3">
+        <v>1</v>
+      </c>
       <c r="R596" s="5"/>
       <c r="S596" s="4"/>
       <c r="T596" s="10">
         <f>(I596/60+H596)-(F596/60+E596)</f>
-        <v>0</v>
+        <v>9.1666666666666679</v>
       </c>
       <c r="U596" s="10">
         <f>(O596/60+N596)-(L596/60+K596)</f>
@@ -55165,24 +55207,26 @@
       <c r="V596" s="10"/>
       <c r="W596" s="11">
         <f>T596+U596-Q596*0.5+V596</f>
-        <v>0</v>
-      </c>
-      <c r="X596" s="10"/>
+        <v>8.6666666666666679</v>
+      </c>
+      <c r="X596" s="10">
+        <v>8</v>
+      </c>
       <c r="Y596" s="12">
         <f>SUM(W592:W596)</f>
-        <v>5.5666666666666664</v>
+        <v>30.150000000000002</v>
       </c>
       <c r="Z596" s="10">
         <f>Y596-(8*(5-Z594))+SUM(S592:S596)*8</f>
-        <v>-26.433333333333334</v>
+        <v>-1.8499999999999979</v>
       </c>
       <c r="AA596" s="10">
         <f>AA589+Z596</f>
-        <v>-26.083333333333332</v>
+        <v>-1.4999999999999964</v>
       </c>
       <c r="AB596" s="10">
         <f>AB589+Z596</f>
-        <v>-22.436666666666678</v>
+        <v>2.1466666666666576</v>
       </c>
     </row>
     <row r="597" spans="1:33" x14ac:dyDescent="0.25">
@@ -55220,9 +55264,9 @@
       <c r="V597" s="72"/>
       <c r="W597" s="73"/>
       <c r="X597" s="69"/>
-      <c r="Y597" s="126">
+      <c r="Y597" s="123">
         <f>SUM(X592:X596)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z597" s="67"/>
       <c r="AA597" s="67"/>
@@ -55497,11 +55541,11 @@
       </c>
       <c r="AA603" s="10">
         <f>AA596+Z603</f>
-        <v>-66.083333333333329</v>
+        <v>-41.5</v>
       </c>
       <c r="AB603" s="10">
         <f>AB596+Z603</f>
-        <v>-62.436666666666682</v>
+        <v>-37.853333333333339</v>
       </c>
     </row>
     <row r="604" spans="1:33" x14ac:dyDescent="0.25">
@@ -55539,7 +55583,7 @@
       <c r="V604" s="72"/>
       <c r="W604" s="73"/>
       <c r="X604" s="69"/>
-      <c r="Y604" s="126">
+      <c r="Y604" s="123">
         <f>SUM(X599:X603)</f>
         <v>0</v>
       </c>
@@ -55816,11 +55860,11 @@
       </c>
       <c r="AA610" s="10">
         <f>AA603+Z610</f>
-        <v>-106.08333333333333</v>
+        <v>-81.5</v>
       </c>
       <c r="AB610" s="10">
         <f>AB603+Z610</f>
-        <v>-102.43666666666668</v>
+        <v>-77.853333333333339</v>
       </c>
     </row>
     <row r="611" spans="1:33" x14ac:dyDescent="0.25">
@@ -55858,7 +55902,7 @@
       <c r="V611" s="72"/>
       <c r="W611" s="73"/>
       <c r="X611" s="69"/>
-      <c r="Y611" s="126">
+      <c r="Y611" s="123">
         <f>SUM(X606:X610)</f>
         <v>0</v>
       </c>
@@ -56135,11 +56179,11 @@
       </c>
       <c r="AA617" s="10">
         <f>AA610+Z617</f>
-        <v>-146.08333333333331</v>
+        <v>-121.5</v>
       </c>
       <c r="AB617" s="10">
         <f>AB610+Z617</f>
-        <v>-142.43666666666667</v>
+        <v>-117.85333333333334</v>
       </c>
     </row>
     <row r="618" spans="1:33" x14ac:dyDescent="0.25">
@@ -56177,7 +56221,7 @@
       <c r="V618" s="72"/>
       <c r="W618" s="73"/>
       <c r="X618" s="69"/>
-      <c r="Y618" s="126">
+      <c r="Y618" s="123">
         <f>SUM(X613:X617)</f>
         <v>0</v>
       </c>
@@ -56454,11 +56498,11 @@
       </c>
       <c r="AA624" s="10">
         <f>AA617+Z624</f>
-        <v>-186.08333333333331</v>
+        <v>-161.5</v>
       </c>
       <c r="AB624" s="10">
         <f>AB617+Z624</f>
-        <v>-182.43666666666667</v>
+        <v>-157.85333333333335</v>
       </c>
     </row>
     <row r="625" spans="1:33" x14ac:dyDescent="0.25">
@@ -56496,7 +56540,7 @@
       <c r="V625" s="72"/>
       <c r="W625" s="73"/>
       <c r="X625" s="69"/>
-      <c r="Y625" s="126">
+      <c r="Y625" s="123">
         <f>SUM(X620:X624)</f>
         <v>0</v>
       </c>
@@ -56773,11 +56817,11 @@
       </c>
       <c r="AA631" s="10">
         <f>AA624+Z631</f>
-        <v>-226.08333333333331</v>
+        <v>-201.5</v>
       </c>
       <c r="AB631" s="10">
         <f>AB624+Z631</f>
-        <v>-222.43666666666667</v>
+        <v>-197.85333333333335</v>
       </c>
     </row>
     <row r="632" spans="1:33" x14ac:dyDescent="0.25">
@@ -56815,7 +56859,7 @@
       <c r="V632" s="72"/>
       <c r="W632" s="73"/>
       <c r="X632" s="69"/>
-      <c r="Y632" s="126">
+      <c r="Y632" s="123">
         <f>SUM(X627:X631)</f>
         <v>0</v>
       </c>
@@ -57092,11 +57136,11 @@
       </c>
       <c r="AA638" s="10">
         <f>AA631+Z638</f>
-        <v>-266.08333333333331</v>
+        <v>-241.5</v>
       </c>
       <c r="AB638" s="10">
         <f>AB631+Z638</f>
-        <v>-262.43666666666667</v>
+        <v>-237.85333333333335</v>
       </c>
     </row>
     <row r="639" spans="1:33" x14ac:dyDescent="0.25">
@@ -57134,7 +57178,7 @@
       <c r="V639" s="72"/>
       <c r="W639" s="73"/>
       <c r="X639" s="69"/>
-      <c r="Y639" s="126">
+      <c r="Y639" s="123">
         <f>SUM(X634:X638)</f>
         <v>0</v>
       </c>
@@ -57411,11 +57455,11 @@
       </c>
       <c r="AA645" s="10">
         <f>AA638+Z645</f>
-        <v>-306.08333333333331</v>
+        <v>-281.5</v>
       </c>
       <c r="AB645" s="10">
         <f>AB638+Z645</f>
-        <v>-302.43666666666667</v>
+        <v>-277.85333333333335</v>
       </c>
     </row>
     <row r="646" spans="1:33" x14ac:dyDescent="0.25">
@@ -57453,7 +57497,7 @@
       <c r="V646" s="72"/>
       <c r="W646" s="73"/>
       <c r="X646" s="69"/>
-      <c r="Y646" s="126">
+      <c r="Y646" s="123">
         <f>SUM(X641:X645)</f>
         <v>0</v>
       </c>
@@ -57730,11 +57774,11 @@
       </c>
       <c r="AA652" s="10">
         <f>AA645+Z652</f>
-        <v>-346.08333333333331</v>
+        <v>-321.5</v>
       </c>
       <c r="AB652" s="10">
         <f>AB645+Z652</f>
-        <v>-342.43666666666667</v>
+        <v>-317.85333333333335</v>
       </c>
     </row>
     <row r="653" spans="1:33" x14ac:dyDescent="0.25">
@@ -57772,7 +57816,7 @@
       <c r="V653" s="72"/>
       <c r="W653" s="73"/>
       <c r="X653" s="69"/>
-      <c r="Y653" s="126">
+      <c r="Y653" s="123">
         <f>SUM(X648:X652)</f>
         <v>0</v>
       </c>
@@ -58049,11 +58093,11 @@
       </c>
       <c r="AA659" s="10">
         <f>AA652+Z659</f>
-        <v>-386.08333333333331</v>
+        <v>-361.5</v>
       </c>
       <c r="AB659" s="10">
         <f>AB652+Z659</f>
-        <v>-382.43666666666667</v>
+        <v>-357.85333333333335</v>
       </c>
     </row>
     <row r="660" spans="1:33" x14ac:dyDescent="0.25">
@@ -58091,7 +58135,7 @@
       <c r="V660" s="72"/>
       <c r="W660" s="73"/>
       <c r="X660" s="69"/>
-      <c r="Y660" s="126">
+      <c r="Y660" s="123">
         <f>SUM(X655:X659)</f>
         <v>0</v>
       </c>
@@ -58368,11 +58412,11 @@
       </c>
       <c r="AA666" s="10">
         <f>AA659+Z666</f>
-        <v>-426.08333333333331</v>
+        <v>-401.5</v>
       </c>
       <c r="AB666" s="10">
         <f>AB659+Z666</f>
-        <v>-422.43666666666667</v>
+        <v>-397.85333333333335</v>
       </c>
     </row>
     <row r="667" spans="1:33" x14ac:dyDescent="0.25">
@@ -58410,7 +58454,7 @@
       <c r="V667" s="72"/>
       <c r="W667" s="73"/>
       <c r="X667" s="69"/>
-      <c r="Y667" s="126">
+      <c r="Y667" s="123">
         <f>SUM(X662:X666)</f>
         <v>0</v>
       </c>
@@ -58687,11 +58731,11 @@
       </c>
       <c r="AA673" s="10">
         <f>AA666+Z673</f>
-        <v>-466.08333333333331</v>
+        <v>-441.5</v>
       </c>
       <c r="AB673" s="10">
         <f>AB666+Z673</f>
-        <v>-462.43666666666667</v>
+        <v>-437.85333333333335</v>
       </c>
     </row>
     <row r="674" spans="1:33" x14ac:dyDescent="0.25">
@@ -58729,7 +58773,7 @@
       <c r="V674" s="72"/>
       <c r="W674" s="73"/>
       <c r="X674" s="69"/>
-      <c r="Y674" s="126">
+      <c r="Y674" s="123">
         <f>SUM(X669:X673)</f>
         <v>0</v>
       </c>
@@ -59006,11 +59050,11 @@
       </c>
       <c r="AA680" s="10">
         <f>AA673+Z680</f>
-        <v>-506.08333333333331</v>
+        <v>-481.5</v>
       </c>
       <c r="AB680" s="10">
         <f>AB673+Z680</f>
-        <v>-502.43666666666667</v>
+        <v>-477.85333333333335</v>
       </c>
     </row>
     <row r="681" spans="1:33" x14ac:dyDescent="0.25">
@@ -59048,7 +59092,7 @@
       <c r="V681" s="72"/>
       <c r="W681" s="73"/>
       <c r="X681" s="69"/>
-      <c r="Y681" s="126">
+      <c r="Y681" s="123">
         <f>SUM(X676:X680)</f>
         <v>0</v>
       </c>
@@ -59325,11 +59369,11 @@
       </c>
       <c r="AA687" s="10">
         <f>AA680+Z687</f>
-        <v>-546.08333333333326</v>
+        <v>-521.5</v>
       </c>
       <c r="AB687" s="10">
         <f>AB680+Z687</f>
-        <v>-542.43666666666672</v>
+        <v>-517.85333333333335</v>
       </c>
     </row>
     <row r="688" spans="1:33" x14ac:dyDescent="0.25">
@@ -59367,7 +59411,7 @@
       <c r="V688" s="72"/>
       <c r="W688" s="73"/>
       <c r="X688" s="69"/>
-      <c r="Y688" s="126">
+      <c r="Y688" s="123">
         <f>SUM(X683:X687)</f>
         <v>0</v>
       </c>
@@ -59644,11 +59688,11 @@
       </c>
       <c r="AA694" s="10">
         <f>AA687+Z694</f>
-        <v>-586.08333333333326</v>
+        <v>-561.5</v>
       </c>
       <c r="AB694" s="10">
         <f>AB687+Z694</f>
-        <v>-582.43666666666672</v>
+        <v>-557.85333333333335</v>
       </c>
     </row>
     <row r="695" spans="1:33" x14ac:dyDescent="0.25">
@@ -59686,7 +59730,7 @@
       <c r="V695" s="72"/>
       <c r="W695" s="73"/>
       <c r="X695" s="69"/>
-      <c r="Y695" s="126">
+      <c r="Y695" s="123">
         <f>SUM(X690:X694)</f>
         <v>0</v>
       </c>
@@ -59963,11 +60007,11 @@
       </c>
       <c r="AA701" s="10">
         <f>AA694+Z701</f>
-        <v>-626.08333333333326</v>
+        <v>-601.5</v>
       </c>
       <c r="AB701" s="10">
         <f>AB694+Z701</f>
-        <v>-622.43666666666672</v>
+        <v>-597.85333333333335</v>
       </c>
     </row>
     <row r="702" spans="1:33" x14ac:dyDescent="0.25">
@@ -60005,7 +60049,7 @@
       <c r="V702" s="72"/>
       <c r="W702" s="73"/>
       <c r="X702" s="69"/>
-      <c r="Y702" s="126">
+      <c r="Y702" s="123">
         <f>SUM(X697:X701)</f>
         <v>0</v>
       </c>
@@ -60282,11 +60326,11 @@
       </c>
       <c r="AA708" s="10">
         <f>AA701+Z708</f>
-        <v>-666.08333333333326</v>
+        <v>-641.5</v>
       </c>
       <c r="AB708" s="10">
         <f>AB701+Z708</f>
-        <v>-662.43666666666672</v>
+        <v>-637.85333333333335</v>
       </c>
     </row>
     <row r="709" spans="1:33" x14ac:dyDescent="0.25">
@@ -60324,7 +60368,7 @@
       <c r="V709" s="72"/>
       <c r="W709" s="73"/>
       <c r="X709" s="69"/>
-      <c r="Y709" s="126">
+      <c r="Y709" s="123">
         <f>SUM(X704:X708)</f>
         <v>0</v>
       </c>
@@ -60601,11 +60645,11 @@
       </c>
       <c r="AA715" s="10">
         <f>AA708+Z715</f>
-        <v>-706.08333333333326</v>
+        <v>-681.5</v>
       </c>
       <c r="AB715" s="10">
         <f>AB708+Z715</f>
-        <v>-702.43666666666672</v>
+        <v>-677.85333333333335</v>
       </c>
     </row>
     <row r="716" spans="1:33" x14ac:dyDescent="0.25">
@@ -60643,7 +60687,7 @@
       <c r="V716" s="72"/>
       <c r="W716" s="73"/>
       <c r="X716" s="69"/>
-      <c r="Y716" s="126">
+      <c r="Y716" s="123">
         <f>SUM(X711:X715)</f>
         <v>0</v>
       </c>
@@ -60920,11 +60964,11 @@
       </c>
       <c r="AA722" s="10">
         <f>AA715+Z722</f>
-        <v>-746.08333333333326</v>
+        <v>-721.5</v>
       </c>
       <c r="AB722" s="10">
         <f>AB715+Z722</f>
-        <v>-742.43666666666672</v>
+        <v>-717.85333333333335</v>
       </c>
     </row>
     <row r="723" spans="1:33" x14ac:dyDescent="0.25">
@@ -60962,7 +61006,7 @@
       <c r="V723" s="72"/>
       <c r="W723" s="73"/>
       <c r="X723" s="69"/>
-      <c r="Y723" s="126">
+      <c r="Y723" s="123">
         <f>SUM(X718:X722)</f>
         <v>0</v>
       </c>
@@ -60977,6 +61021,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="E437:I437"/>
+    <mergeCell ref="K437:O437"/>
+    <mergeCell ref="E430:I430"/>
+    <mergeCell ref="K430:O430"/>
+    <mergeCell ref="E409:I409"/>
+    <mergeCell ref="K409:O409"/>
+    <mergeCell ref="E416:I416"/>
+    <mergeCell ref="K416:O416"/>
+    <mergeCell ref="E423:I423"/>
+    <mergeCell ref="K423:O423"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="E304:I304"/>
+    <mergeCell ref="K304:O304"/>
+    <mergeCell ref="E283:I283"/>
+    <mergeCell ref="K283:O283"/>
+    <mergeCell ref="E276:I276"/>
+    <mergeCell ref="K276:O276"/>
+    <mergeCell ref="E269:I269"/>
+    <mergeCell ref="K269:O269"/>
+    <mergeCell ref="E262:I262"/>
+    <mergeCell ref="K262:O262"/>
+    <mergeCell ref="E339:I339"/>
+    <mergeCell ref="K339:O339"/>
+    <mergeCell ref="E290:I290"/>
+    <mergeCell ref="K290:O290"/>
+    <mergeCell ref="E311:I311"/>
+    <mergeCell ref="K311:O311"/>
+    <mergeCell ref="E318:I318"/>
+    <mergeCell ref="K318:O318"/>
+    <mergeCell ref="E325:I325"/>
+    <mergeCell ref="K325:O325"/>
+    <mergeCell ref="E297:I297"/>
+    <mergeCell ref="K297:O297"/>
+    <mergeCell ref="E332:I332"/>
+    <mergeCell ref="K332:O332"/>
+    <mergeCell ref="E346:I346"/>
+    <mergeCell ref="K346:O346"/>
+    <mergeCell ref="E353:I353"/>
+    <mergeCell ref="K353:O353"/>
+    <mergeCell ref="E360:I360"/>
+    <mergeCell ref="K360:O360"/>
     <mergeCell ref="E444:I444"/>
     <mergeCell ref="K444:O444"/>
     <mergeCell ref="E451:I451"/>
@@ -60993,48 +61079,6 @@
     <mergeCell ref="K395:O395"/>
     <mergeCell ref="E402:I402"/>
     <mergeCell ref="K402:O402"/>
-    <mergeCell ref="E346:I346"/>
-    <mergeCell ref="K346:O346"/>
-    <mergeCell ref="E353:I353"/>
-    <mergeCell ref="K353:O353"/>
-    <mergeCell ref="E360:I360"/>
-    <mergeCell ref="K360:O360"/>
-    <mergeCell ref="E339:I339"/>
-    <mergeCell ref="K339:O339"/>
-    <mergeCell ref="E290:I290"/>
-    <mergeCell ref="K290:O290"/>
-    <mergeCell ref="E311:I311"/>
-    <mergeCell ref="K311:O311"/>
-    <mergeCell ref="E318:I318"/>
-    <mergeCell ref="K318:O318"/>
-    <mergeCell ref="E325:I325"/>
-    <mergeCell ref="K325:O325"/>
-    <mergeCell ref="E297:I297"/>
-    <mergeCell ref="K297:O297"/>
-    <mergeCell ref="E332:I332"/>
-    <mergeCell ref="K332:O332"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="E304:I304"/>
-    <mergeCell ref="K304:O304"/>
-    <mergeCell ref="E283:I283"/>
-    <mergeCell ref="K283:O283"/>
-    <mergeCell ref="E276:I276"/>
-    <mergeCell ref="K276:O276"/>
-    <mergeCell ref="E269:I269"/>
-    <mergeCell ref="K269:O269"/>
-    <mergeCell ref="E262:I262"/>
-    <mergeCell ref="K262:O262"/>
-    <mergeCell ref="E437:I437"/>
-    <mergeCell ref="K437:O437"/>
-    <mergeCell ref="E430:I430"/>
-    <mergeCell ref="K430:O430"/>
-    <mergeCell ref="E409:I409"/>
-    <mergeCell ref="K409:O409"/>
-    <mergeCell ref="E416:I416"/>
-    <mergeCell ref="K416:O416"/>
-    <mergeCell ref="E423:I423"/>
-    <mergeCell ref="K423:O423"/>
   </mergeCells>
   <conditionalFormatting sqref="Y216">
     <cfRule type="colorScale" priority="81">
@@ -61046,7 +61090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y209 Y307 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
+  <conditionalFormatting sqref="Y307 Y209 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -61066,7 +61110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD218 AD309 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
+  <conditionalFormatting sqref="AD309 AD218 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/tidsrapport/tidsrapportering3.xlsx
+++ b/tidsrapport/tidsrapportering3.xlsx
@@ -23226,7 +23226,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C569" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG581" sqref="AG581"/>
+      <selection pane="bottomRight" activeCell="AI570" sqref="AI570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55282,7 +55282,7 @@
         <v>43625</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
@@ -55336,9 +55336,21 @@
         <v>1</v>
       </c>
       <c r="D599" s="1"/>
+      <c r="E599">
+        <v>9</v>
+      </c>
+      <c r="F599">
+        <v>7</v>
+      </c>
       <c r="G599" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H599">
+        <v>18</v>
+      </c>
+      <c r="I599">
+        <v>30</v>
+      </c>
       <c r="J599" s="85" t="s">
         <v>17</v>
       </c>
@@ -55346,12 +55358,14 @@
         <v>6</v>
       </c>
       <c r="P599" s="1"/>
-      <c r="Q599" s="3"/>
+      <c r="Q599" s="3">
+        <v>1</v>
+      </c>
       <c r="R599" s="5"/>
       <c r="S599" s="4"/>
       <c r="T599" s="10">
         <f>(I599/60+H599)-(F599/60+E599)</f>
-        <v>0</v>
+        <v>9.3833333333333329</v>
       </c>
       <c r="U599" s="10">
         <f>(O599/60+N599)-(L599/60+K599)</f>
@@ -55360,9 +55374,11 @@
       <c r="V599" s="10"/>
       <c r="W599" s="11">
         <f>T599+U599-Q599*0.5+V599</f>
-        <v>0</v>
-      </c>
-      <c r="X599" s="109"/>
+        <v>8.8833333333333329</v>
+      </c>
+      <c r="X599" s="109">
+        <v>9</v>
+      </c>
       <c r="AC599" s="8"/>
     </row>
     <row r="600" spans="1:33" x14ac:dyDescent="0.25">
@@ -55374,33 +55390,61 @@
         <v>2</v>
       </c>
       <c r="D600" s="1"/>
+      <c r="E600">
+        <v>8</v>
+      </c>
+      <c r="F600">
+        <v>45</v>
+      </c>
       <c r="G600" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H600">
+        <v>9</v>
+      </c>
+      <c r="I600">
+        <v>44</v>
+      </c>
       <c r="J600" s="85" t="s">
         <v>17</v>
       </c>
+      <c r="K600">
+        <v>11</v>
+      </c>
+      <c r="L600">
+        <v>35</v>
+      </c>
       <c r="M600" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="N600">
+        <v>19</v>
+      </c>
+      <c r="O600">
+        <v>42</v>
+      </c>
       <c r="P600" s="1"/>
-      <c r="Q600" s="3"/>
+      <c r="Q600" s="3">
+        <v>1</v>
+      </c>
       <c r="R600" s="5"/>
       <c r="S600" s="4"/>
       <c r="T600" s="10">
         <f>(I600/60+H600)-(F600/60+E600)</f>
-        <v>0</v>
+        <v>0.9833333333333325</v>
       </c>
       <c r="U600" s="10">
         <f>(O600/60+N600)-(L600/60+K600)</f>
-        <v>0</v>
+        <v>8.1166666666666654</v>
       </c>
       <c r="V600" s="10"/>
       <c r="W600" s="11">
         <f>T600+U600-Q600*0.5+V600</f>
-        <v>0</v>
-      </c>
-      <c r="X600" s="10"/>
+        <v>8.5999999999999979</v>
+      </c>
+      <c r="X600" s="10">
+        <v>8.5</v>
+      </c>
       <c r="Z600" t="s">
         <v>258</v>
       </c>
@@ -55414,8 +55458,20 @@
         <v>3</v>
       </c>
       <c r="D601" s="1"/>
+      <c r="E601">
+        <v>8</v>
+      </c>
+      <c r="F601">
+        <v>30</v>
+      </c>
       <c r="G601" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H601">
+        <v>16</v>
+      </c>
+      <c r="I601">
+        <v>0</v>
       </c>
       <c r="J601" s="85" t="s">
         <v>17</v>
@@ -55429,7 +55485,7 @@
       <c r="S601" s="4"/>
       <c r="T601" s="10">
         <f>(I601/60+H601)-(F601/60+E601)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="U601" s="10">
         <f>(O601/60+N601)-(L601/60+K601)</f>
@@ -55438,9 +55494,11 @@
       <c r="V601" s="10"/>
       <c r="W601" s="11">
         <f>T601+U601-Q601*0.5+V601</f>
-        <v>0</v>
-      </c>
-      <c r="X601" s="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="X601" s="10">
+        <v>7.5</v>
+      </c>
       <c r="Z601" s="75">
         <v>0</v>
       </c>
@@ -55533,19 +55591,19 @@
       <c r="X603" s="10"/>
       <c r="Y603" s="12">
         <f>SUM(W599:W603)</f>
-        <v>0</v>
+        <v>24.983333333333331</v>
       </c>
       <c r="Z603" s="10">
         <f>Y603-(8*(5-Z601))+SUM(S599:S603)*8</f>
-        <v>-40</v>
+        <v>-15.016666666666669</v>
       </c>
       <c r="AA603" s="10">
         <f>AA596+Z603</f>
-        <v>-41.5</v>
+        <v>-16.516666666666666</v>
       </c>
       <c r="AB603" s="10">
         <f>AB596+Z603</f>
-        <v>-37.853333333333339</v>
+        <v>-12.870000000000012</v>
       </c>
     </row>
     <row r="604" spans="1:33" x14ac:dyDescent="0.25">
@@ -55585,7 +55643,7 @@
       <c r="X604" s="69"/>
       <c r="Y604" s="123">
         <f>SUM(X599:X603)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z604" s="67"/>
       <c r="AA604" s="67"/>
@@ -55860,11 +55918,11 @@
       </c>
       <c r="AA610" s="10">
         <f>AA603+Z610</f>
-        <v>-81.5</v>
+        <v>-56.516666666666666</v>
       </c>
       <c r="AB610" s="10">
         <f>AB603+Z610</f>
-        <v>-77.853333333333339</v>
+        <v>-52.870000000000012</v>
       </c>
     </row>
     <row r="611" spans="1:33" x14ac:dyDescent="0.25">
@@ -56179,11 +56237,11 @@
       </c>
       <c r="AA617" s="10">
         <f>AA610+Z617</f>
-        <v>-121.5</v>
+        <v>-96.516666666666666</v>
       </c>
       <c r="AB617" s="10">
         <f>AB610+Z617</f>
-        <v>-117.85333333333334</v>
+        <v>-92.87</v>
       </c>
     </row>
     <row r="618" spans="1:33" x14ac:dyDescent="0.25">
@@ -56498,11 +56556,11 @@
       </c>
       <c r="AA624" s="10">
         <f>AA617+Z624</f>
-        <v>-161.5</v>
+        <v>-136.51666666666665</v>
       </c>
       <c r="AB624" s="10">
         <f>AB617+Z624</f>
-        <v>-157.85333333333335</v>
+        <v>-132.87</v>
       </c>
     </row>
     <row r="625" spans="1:33" x14ac:dyDescent="0.25">
@@ -56817,11 +56875,11 @@
       </c>
       <c r="AA631" s="10">
         <f>AA624+Z631</f>
-        <v>-201.5</v>
+        <v>-176.51666666666665</v>
       </c>
       <c r="AB631" s="10">
         <f>AB624+Z631</f>
-        <v>-197.85333333333335</v>
+        <v>-172.87</v>
       </c>
     </row>
     <row r="632" spans="1:33" x14ac:dyDescent="0.25">
@@ -57136,11 +57194,11 @@
       </c>
       <c r="AA638" s="10">
         <f>AA631+Z638</f>
-        <v>-241.5</v>
+        <v>-216.51666666666665</v>
       </c>
       <c r="AB638" s="10">
         <f>AB631+Z638</f>
-        <v>-237.85333333333335</v>
+        <v>-212.87</v>
       </c>
     </row>
     <row r="639" spans="1:33" x14ac:dyDescent="0.25">
@@ -57455,11 +57513,11 @@
       </c>
       <c r="AA645" s="10">
         <f>AA638+Z645</f>
-        <v>-281.5</v>
+        <v>-256.51666666666665</v>
       </c>
       <c r="AB645" s="10">
         <f>AB638+Z645</f>
-        <v>-277.85333333333335</v>
+        <v>-252.87</v>
       </c>
     </row>
     <row r="646" spans="1:33" x14ac:dyDescent="0.25">
@@ -57774,11 +57832,11 @@
       </c>
       <c r="AA652" s="10">
         <f>AA645+Z652</f>
-        <v>-321.5</v>
+        <v>-296.51666666666665</v>
       </c>
       <c r="AB652" s="10">
         <f>AB645+Z652</f>
-        <v>-317.85333333333335</v>
+        <v>-292.87</v>
       </c>
     </row>
     <row r="653" spans="1:33" x14ac:dyDescent="0.25">
@@ -58093,11 +58151,11 @@
       </c>
       <c r="AA659" s="10">
         <f>AA652+Z659</f>
-        <v>-361.5</v>
+        <v>-336.51666666666665</v>
       </c>
       <c r="AB659" s="10">
         <f>AB652+Z659</f>
-        <v>-357.85333333333335</v>
+        <v>-332.87</v>
       </c>
     </row>
     <row r="660" spans="1:33" x14ac:dyDescent="0.25">
@@ -58412,11 +58470,11 @@
       </c>
       <c r="AA666" s="10">
         <f>AA659+Z666</f>
-        <v>-401.5</v>
+        <v>-376.51666666666665</v>
       </c>
       <c r="AB666" s="10">
         <f>AB659+Z666</f>
-        <v>-397.85333333333335</v>
+        <v>-372.87</v>
       </c>
     </row>
     <row r="667" spans="1:33" x14ac:dyDescent="0.25">
@@ -58731,11 +58789,11 @@
       </c>
       <c r="AA673" s="10">
         <f>AA666+Z673</f>
-        <v>-441.5</v>
+        <v>-416.51666666666665</v>
       </c>
       <c r="AB673" s="10">
         <f>AB666+Z673</f>
-        <v>-437.85333333333335</v>
+        <v>-412.87</v>
       </c>
     </row>
     <row r="674" spans="1:33" x14ac:dyDescent="0.25">
@@ -59050,11 +59108,11 @@
       </c>
       <c r="AA680" s="10">
         <f>AA673+Z680</f>
-        <v>-481.5</v>
+        <v>-456.51666666666665</v>
       </c>
       <c r="AB680" s="10">
         <f>AB673+Z680</f>
-        <v>-477.85333333333335</v>
+        <v>-452.87</v>
       </c>
     </row>
     <row r="681" spans="1:33" x14ac:dyDescent="0.25">
@@ -59369,11 +59427,11 @@
       </c>
       <c r="AA687" s="10">
         <f>AA680+Z687</f>
-        <v>-521.5</v>
+        <v>-496.51666666666665</v>
       </c>
       <c r="AB687" s="10">
         <f>AB680+Z687</f>
-        <v>-517.85333333333335</v>
+        <v>-492.87</v>
       </c>
     </row>
     <row r="688" spans="1:33" x14ac:dyDescent="0.25">
@@ -59688,11 +59746,11 @@
       </c>
       <c r="AA694" s="10">
         <f>AA687+Z694</f>
-        <v>-561.5</v>
+        <v>-536.51666666666665</v>
       </c>
       <c r="AB694" s="10">
         <f>AB687+Z694</f>
-        <v>-557.85333333333335</v>
+        <v>-532.87</v>
       </c>
     </row>
     <row r="695" spans="1:33" x14ac:dyDescent="0.25">
@@ -60007,11 +60065,11 @@
       </c>
       <c r="AA701" s="10">
         <f>AA694+Z701</f>
-        <v>-601.5</v>
+        <v>-576.51666666666665</v>
       </c>
       <c r="AB701" s="10">
         <f>AB694+Z701</f>
-        <v>-597.85333333333335</v>
+        <v>-572.87</v>
       </c>
     </row>
     <row r="702" spans="1:33" x14ac:dyDescent="0.25">
@@ -60326,11 +60384,11 @@
       </c>
       <c r="AA708" s="10">
         <f>AA701+Z708</f>
-        <v>-641.5</v>
+        <v>-616.51666666666665</v>
       </c>
       <c r="AB708" s="10">
         <f>AB701+Z708</f>
-        <v>-637.85333333333335</v>
+        <v>-612.87</v>
       </c>
     </row>
     <row r="709" spans="1:33" x14ac:dyDescent="0.25">
@@ -60645,11 +60703,11 @@
       </c>
       <c r="AA715" s="10">
         <f>AA708+Z715</f>
-        <v>-681.5</v>
+        <v>-656.51666666666665</v>
       </c>
       <c r="AB715" s="10">
         <f>AB708+Z715</f>
-        <v>-677.85333333333335</v>
+        <v>-652.87</v>
       </c>
     </row>
     <row r="716" spans="1:33" x14ac:dyDescent="0.25">
@@ -60964,11 +61022,11 @@
       </c>
       <c r="AA722" s="10">
         <f>AA715+Z722</f>
-        <v>-721.5</v>
+        <v>-696.51666666666665</v>
       </c>
       <c r="AB722" s="10">
         <f>AB715+Z722</f>
-        <v>-717.85333333333335</v>
+        <v>-692.87</v>
       </c>
     </row>
     <row r="723" spans="1:33" x14ac:dyDescent="0.25">
@@ -61021,48 +61079,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E437:I437"/>
-    <mergeCell ref="K437:O437"/>
-    <mergeCell ref="E430:I430"/>
-    <mergeCell ref="K430:O430"/>
-    <mergeCell ref="E409:I409"/>
-    <mergeCell ref="K409:O409"/>
-    <mergeCell ref="E416:I416"/>
-    <mergeCell ref="K416:O416"/>
-    <mergeCell ref="E423:I423"/>
-    <mergeCell ref="K423:O423"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="E304:I304"/>
-    <mergeCell ref="K304:O304"/>
-    <mergeCell ref="E283:I283"/>
-    <mergeCell ref="K283:O283"/>
-    <mergeCell ref="E276:I276"/>
-    <mergeCell ref="K276:O276"/>
-    <mergeCell ref="E269:I269"/>
-    <mergeCell ref="K269:O269"/>
-    <mergeCell ref="E262:I262"/>
-    <mergeCell ref="K262:O262"/>
-    <mergeCell ref="E339:I339"/>
-    <mergeCell ref="K339:O339"/>
-    <mergeCell ref="E290:I290"/>
-    <mergeCell ref="K290:O290"/>
-    <mergeCell ref="E311:I311"/>
-    <mergeCell ref="K311:O311"/>
-    <mergeCell ref="E318:I318"/>
-    <mergeCell ref="K318:O318"/>
-    <mergeCell ref="E325:I325"/>
-    <mergeCell ref="K325:O325"/>
-    <mergeCell ref="E297:I297"/>
-    <mergeCell ref="K297:O297"/>
-    <mergeCell ref="E332:I332"/>
-    <mergeCell ref="K332:O332"/>
-    <mergeCell ref="E346:I346"/>
-    <mergeCell ref="K346:O346"/>
-    <mergeCell ref="E353:I353"/>
-    <mergeCell ref="K353:O353"/>
-    <mergeCell ref="E360:I360"/>
-    <mergeCell ref="K360:O360"/>
     <mergeCell ref="E444:I444"/>
     <mergeCell ref="K444:O444"/>
     <mergeCell ref="E451:I451"/>
@@ -61079,6 +61095,48 @@
     <mergeCell ref="K395:O395"/>
     <mergeCell ref="E402:I402"/>
     <mergeCell ref="K402:O402"/>
+    <mergeCell ref="E346:I346"/>
+    <mergeCell ref="K346:O346"/>
+    <mergeCell ref="E353:I353"/>
+    <mergeCell ref="K353:O353"/>
+    <mergeCell ref="E360:I360"/>
+    <mergeCell ref="K360:O360"/>
+    <mergeCell ref="E339:I339"/>
+    <mergeCell ref="K339:O339"/>
+    <mergeCell ref="E290:I290"/>
+    <mergeCell ref="K290:O290"/>
+    <mergeCell ref="E311:I311"/>
+    <mergeCell ref="K311:O311"/>
+    <mergeCell ref="E318:I318"/>
+    <mergeCell ref="K318:O318"/>
+    <mergeCell ref="E325:I325"/>
+    <mergeCell ref="K325:O325"/>
+    <mergeCell ref="E297:I297"/>
+    <mergeCell ref="K297:O297"/>
+    <mergeCell ref="E332:I332"/>
+    <mergeCell ref="K332:O332"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="E304:I304"/>
+    <mergeCell ref="K304:O304"/>
+    <mergeCell ref="E283:I283"/>
+    <mergeCell ref="K283:O283"/>
+    <mergeCell ref="E276:I276"/>
+    <mergeCell ref="K276:O276"/>
+    <mergeCell ref="E269:I269"/>
+    <mergeCell ref="K269:O269"/>
+    <mergeCell ref="E262:I262"/>
+    <mergeCell ref="K262:O262"/>
+    <mergeCell ref="E437:I437"/>
+    <mergeCell ref="K437:O437"/>
+    <mergeCell ref="E430:I430"/>
+    <mergeCell ref="K430:O430"/>
+    <mergeCell ref="E409:I409"/>
+    <mergeCell ref="K409:O409"/>
+    <mergeCell ref="E416:I416"/>
+    <mergeCell ref="K416:O416"/>
+    <mergeCell ref="E423:I423"/>
+    <mergeCell ref="K423:O423"/>
   </mergeCells>
   <conditionalFormatting sqref="Y216">
     <cfRule type="colorScale" priority="81">
@@ -61090,7 +61148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y307 Y209 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
+  <conditionalFormatting sqref="Y209 Y307 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -61110,7 +61168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD309 AD218 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
+  <conditionalFormatting sqref="AD218 AD309 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/tidsrapport/tidsrapportering3.xlsx
+++ b/tidsrapport/tidsrapportering3.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6411" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6423" uniqueCount="312">
   <si>
     <t>vecka 38</t>
   </si>
@@ -952,6 +952,21 @@
   <si>
     <t>Flex in project reset</t>
   </si>
+  <si>
+    <t>semester (diskmaskin)</t>
+  </si>
+  <si>
+    <t>&lt;-- PROJ E begins</t>
+  </si>
+  <si>
+    <t>3h för the new ISEE</t>
+  </si>
+  <si>
+    <t>4h för the new ISEE</t>
+  </si>
+  <si>
+    <t>2.5h för the new ISEE</t>
+  </si>
 </sst>
 </file>
 
@@ -23223,10 +23238,10 @@
   <dimension ref="A1:AK723"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C569" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C619" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI570" sqref="AI570"/>
+      <selection pane="bottomRight" activeCell="AD633" sqref="AD633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55500,14 +55515,16 @@
         <v>7.5</v>
       </c>
       <c r="Z601" s="75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A602" s="52">
         <v>43629</v>
       </c>
-      <c r="B602" s="9"/>
+      <c r="B602" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C602" s="1" t="s">
         <v>4</v>
       </c>
@@ -55557,7 +55574,9 @@
       <c r="A603" s="52">
         <v>43630</v>
       </c>
-      <c r="B603" s="9"/>
+      <c r="B603" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C603" s="1" t="s">
         <v>5</v>
       </c>
@@ -55595,15 +55614,15 @@
       </c>
       <c r="Z603" s="10">
         <f>Y603-(8*(5-Z601))+SUM(S599:S603)*8</f>
-        <v>-15.016666666666669</v>
+        <v>0.98333333333333073</v>
       </c>
       <c r="AA603" s="10">
         <f>AA596+Z603</f>
-        <v>-16.516666666666666</v>
+        <v>-0.51666666666666572</v>
       </c>
       <c r="AB603" s="10">
         <f>AB596+Z603</f>
-        <v>-12.870000000000012</v>
+        <v>3.1299999999999883</v>
       </c>
     </row>
     <row r="604" spans="1:33" x14ac:dyDescent="0.25">
@@ -55659,7 +55678,7 @@
         <v>43632</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
@@ -55708,7 +55727,9 @@
       <c r="A606" s="52">
         <v>43633</v>
       </c>
-      <c r="B606" s="9"/>
+      <c r="B606" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C606" s="1" t="s">
         <v>1</v>
       </c>
@@ -55746,7 +55767,9 @@
       <c r="A607" s="52">
         <v>43634</v>
       </c>
-      <c r="B607" s="9"/>
+      <c r="B607" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C607" s="1" t="s">
         <v>2</v>
       </c>
@@ -55786,7 +55809,9 @@
       <c r="A608" s="52">
         <v>43635</v>
       </c>
-      <c r="B608" s="9"/>
+      <c r="B608" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C608" s="1" t="s">
         <v>3</v>
       </c>
@@ -55819,14 +55844,16 @@
       </c>
       <c r="X608" s="10"/>
       <c r="Z608" s="75">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="609" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A609" s="52">
         <v>43636</v>
       </c>
-      <c r="B609" s="9"/>
+      <c r="B609" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C609" s="1" t="s">
         <v>4</v>
       </c>
@@ -55876,7 +55903,9 @@
       <c r="A610" s="52">
         <v>43637</v>
       </c>
-      <c r="B610" s="9"/>
+      <c r="B610" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C610" s="1" t="s">
         <v>5</v>
       </c>
@@ -55914,15 +55943,15 @@
       </c>
       <c r="Z610" s="10">
         <f>Y610-(8*(5-Z608))+SUM(S606:S610)*8</f>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="AA610" s="10">
         <f>AA603+Z610</f>
-        <v>-56.516666666666666</v>
+        <v>-0.51666666666666572</v>
       </c>
       <c r="AB610" s="10">
         <f>AB603+Z610</f>
-        <v>-52.870000000000012</v>
+        <v>3.1299999999999883</v>
       </c>
     </row>
     <row r="611" spans="1:33" x14ac:dyDescent="0.25">
@@ -55978,7 +56007,7 @@
         <v>43639</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
@@ -56032,9 +56061,21 @@
         <v>1</v>
       </c>
       <c r="D613" s="1"/>
+      <c r="E613">
+        <v>10</v>
+      </c>
+      <c r="F613">
+        <v>15</v>
+      </c>
       <c r="G613" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H613">
+        <v>18</v>
+      </c>
+      <c r="I613">
+        <v>10</v>
+      </c>
       <c r="J613" s="85" t="s">
         <v>17</v>
       </c>
@@ -56042,12 +56083,14 @@
         <v>6</v>
       </c>
       <c r="P613" s="1"/>
-      <c r="Q613" s="3"/>
+      <c r="Q613" s="3">
+        <v>1</v>
+      </c>
       <c r="R613" s="5"/>
       <c r="S613" s="4"/>
       <c r="T613" s="10">
         <f>(I613/60+H613)-(F613/60+E613)</f>
-        <v>0</v>
+        <v>7.9166666666666679</v>
       </c>
       <c r="U613" s="10">
         <f>(O613/60+N613)-(L613/60+K613)</f>
@@ -56056,9 +56099,11 @@
       <c r="V613" s="10"/>
       <c r="W613" s="11">
         <f>T613+U613-Q613*0.5+V613</f>
-        <v>0</v>
-      </c>
-      <c r="X613" s="109"/>
+        <v>7.4166666666666679</v>
+      </c>
+      <c r="X613" s="109">
+        <v>8</v>
+      </c>
       <c r="AC613" s="8"/>
     </row>
     <row r="614" spans="1:33" x14ac:dyDescent="0.25">
@@ -56070,9 +56115,21 @@
         <v>2</v>
       </c>
       <c r="D614" s="1"/>
+      <c r="E614">
+        <v>11</v>
+      </c>
+      <c r="F614">
+        <v>17</v>
+      </c>
       <c r="G614" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H614">
+        <v>20</v>
+      </c>
+      <c r="I614">
+        <v>43</v>
+      </c>
       <c r="J614" s="85" t="s">
         <v>17</v>
       </c>
@@ -56080,12 +56137,14 @@
         <v>6</v>
       </c>
       <c r="P614" s="1"/>
-      <c r="Q614" s="3"/>
+      <c r="Q614" s="3">
+        <v>1</v>
+      </c>
       <c r="R614" s="5"/>
       <c r="S614" s="4"/>
       <c r="T614" s="10">
         <f>(I614/60+H614)-(F614/60+E614)</f>
-        <v>0</v>
+        <v>9.4333333333333318</v>
       </c>
       <c r="U614" s="10">
         <f>(O614/60+N614)-(L614/60+K614)</f>
@@ -56094,9 +56153,11 @@
       <c r="V614" s="10"/>
       <c r="W614" s="11">
         <f>T614+U614-Q614*0.5+V614</f>
-        <v>0</v>
-      </c>
-      <c r="X614" s="10"/>
+        <v>8.9333333333333318</v>
+      </c>
+      <c r="X614" s="10">
+        <v>8</v>
+      </c>
       <c r="Z614" t="s">
         <v>258</v>
       </c>
@@ -56105,7 +56166,9 @@
       <c r="A615" s="52">
         <v>43642</v>
       </c>
-      <c r="B615" s="9"/>
+      <c r="B615" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="C615" s="1" t="s">
         <v>3</v>
       </c>
@@ -56138,7 +56201,7 @@
       </c>
       <c r="X615" s="10"/>
       <c r="Z615" s="75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:33" x14ac:dyDescent="0.25">
@@ -56150,9 +56213,21 @@
         <v>4</v>
       </c>
       <c r="D616" s="1"/>
+      <c r="E616">
+        <v>10</v>
+      </c>
+      <c r="F616">
+        <v>15</v>
+      </c>
       <c r="G616" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H616">
+        <v>17</v>
+      </c>
+      <c r="I616">
+        <v>0</v>
+      </c>
       <c r="J616" s="85" t="s">
         <v>17</v>
       </c>
@@ -56160,12 +56235,14 @@
         <v>6</v>
       </c>
       <c r="P616" s="1"/>
-      <c r="Q616" s="3"/>
+      <c r="Q616" s="3">
+        <v>1</v>
+      </c>
       <c r="R616" s="5"/>
       <c r="S616" s="4"/>
       <c r="T616" s="10">
         <f>(I616/60+H616)-(F616/60+E616)</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="U616" s="10">
         <f>(O616/60+N616)-(L616/60+K616)</f>
@@ -56174,9 +56251,11 @@
       <c r="V616" s="10"/>
       <c r="W616" s="11">
         <f>T616+U616-Q616*0.5+V616</f>
-        <v>0</v>
-      </c>
-      <c r="X616" s="10"/>
+        <v>6.25</v>
+      </c>
+      <c r="X616" s="10">
+        <v>6</v>
+      </c>
       <c r="Y616" t="s">
         <v>11</v>
       </c>
@@ -56200,8 +56279,20 @@
         <v>5</v>
       </c>
       <c r="D617" s="1"/>
+      <c r="E617">
+        <v>9</v>
+      </c>
+      <c r="F617">
+        <v>44</v>
+      </c>
       <c r="G617" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H617">
+        <v>15</v>
+      </c>
+      <c r="I617">
+        <v>20</v>
       </c>
       <c r="J617" s="85" t="s">
         <v>17</v>
@@ -56215,7 +56306,7 @@
       <c r="S617" s="4"/>
       <c r="T617" s="10">
         <f>(I617/60+H617)-(F617/60+E617)</f>
-        <v>0</v>
+        <v>5.6000000000000014</v>
       </c>
       <c r="U617" s="10">
         <f>(O617/60+N617)-(L617/60+K617)</f>
@@ -56224,24 +56315,26 @@
       <c r="V617" s="10"/>
       <c r="W617" s="11">
         <f>T617+U617-Q617*0.5+V617</f>
-        <v>0</v>
-      </c>
-      <c r="X617" s="10"/>
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="X617" s="10">
+        <v>6</v>
+      </c>
       <c r="Y617" s="12">
         <f>SUM(W613:W617)</f>
-        <v>0</v>
+        <v>28.200000000000003</v>
       </c>
       <c r="Z617" s="10">
         <f>Y617-(8*(5-Z615))+SUM(S613:S617)*8</f>
-        <v>-40</v>
+        <v>-3.7999999999999972</v>
       </c>
       <c r="AA617" s="10">
         <f>AA610+Z617</f>
-        <v>-96.516666666666666</v>
+        <v>-4.3166666666666629</v>
       </c>
       <c r="AB617" s="10">
         <f>AB610+Z617</f>
-        <v>-92.87</v>
+        <v>-0.67000000000000881</v>
       </c>
     </row>
     <row r="618" spans="1:33" x14ac:dyDescent="0.25">
@@ -56281,7 +56374,7 @@
       <c r="X618" s="69"/>
       <c r="Y618" s="123">
         <f>SUM(X613:X617)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z618" s="67"/>
       <c r="AA618" s="67"/>
@@ -56297,7 +56390,7 @@
         <v>43646</v>
       </c>
       <c r="B619" s="6" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
@@ -56351,8 +56444,20 @@
         <v>1</v>
       </c>
       <c r="D620" s="1"/>
+      <c r="E620">
+        <v>13</v>
+      </c>
+      <c r="F620">
+        <v>10</v>
+      </c>
       <c r="G620" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H620">
+        <v>17</v>
+      </c>
+      <c r="I620">
+        <v>50</v>
       </c>
       <c r="J620" s="85" t="s">
         <v>17</v>
@@ -56366,7 +56471,7 @@
       <c r="S620" s="4"/>
       <c r="T620" s="10">
         <f>(I620/60+H620)-(F620/60+E620)</f>
-        <v>0</v>
+        <v>4.6666666666666661</v>
       </c>
       <c r="U620" s="10">
         <f>(O620/60+N620)-(L620/60+K620)</f>
@@ -56375,9 +56480,11 @@
       <c r="V620" s="10"/>
       <c r="W620" s="11">
         <f>T620+U620-Q620*0.5+V620</f>
-        <v>0</v>
-      </c>
-      <c r="X620" s="109"/>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="X620" s="109">
+        <v>4.5</v>
+      </c>
       <c r="AC620" s="8"/>
     </row>
     <row r="621" spans="1:33" x14ac:dyDescent="0.25">
@@ -56389,9 +56496,21 @@
         <v>2</v>
       </c>
       <c r="D621" s="1"/>
+      <c r="E621">
+        <v>9</v>
+      </c>
+      <c r="F621">
+        <v>8</v>
+      </c>
       <c r="G621" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H621">
+        <v>17</v>
+      </c>
+      <c r="I621">
+        <v>34</v>
+      </c>
       <c r="J621" s="85" t="s">
         <v>17</v>
       </c>
@@ -56399,12 +56518,14 @@
         <v>6</v>
       </c>
       <c r="P621" s="1"/>
-      <c r="Q621" s="3"/>
+      <c r="Q621" s="3">
+        <v>1</v>
+      </c>
       <c r="R621" s="5"/>
       <c r="S621" s="4"/>
       <c r="T621" s="10">
         <f>(I621/60+H621)-(F621/60+E621)</f>
-        <v>0</v>
+        <v>8.4333333333333336</v>
       </c>
       <c r="U621" s="10">
         <f>(O621/60+N621)-(L621/60+K621)</f>
@@ -56413,11 +56534,16 @@
       <c r="V621" s="10"/>
       <c r="W621" s="11">
         <f>T621+U621-Q621*0.5+V621</f>
-        <v>0</v>
-      </c>
-      <c r="X621" s="10"/>
+        <v>7.9333333333333336</v>
+      </c>
+      <c r="X621" s="10">
+        <v>8</v>
+      </c>
       <c r="Z621" t="s">
         <v>258</v>
+      </c>
+      <c r="AD621" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="622" spans="1:33" x14ac:dyDescent="0.25">
@@ -56429,35 +56555,66 @@
         <v>3</v>
       </c>
       <c r="D622" s="1"/>
+      <c r="E622">
+        <v>12</v>
+      </c>
+      <c r="F622">
+        <v>40</v>
+      </c>
       <c r="G622" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H622">
+        <v>20</v>
+      </c>
+      <c r="I622">
+        <v>0</v>
+      </c>
       <c r="J622" s="85" t="s">
         <v>17</v>
       </c>
+      <c r="K622">
+        <v>9</v>
+      </c>
+      <c r="L622">
+        <v>40</v>
+      </c>
       <c r="M622" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="N622">
+        <v>12</v>
+      </c>
+      <c r="O622">
+        <v>40</v>
+      </c>
       <c r="P622" s="1"/>
-      <c r="Q622" s="3"/>
+      <c r="Q622" s="3">
+        <v>1</v>
+      </c>
       <c r="R622" s="5"/>
       <c r="S622" s="4"/>
       <c r="T622" s="10">
         <f>(I622/60+H622)-(F622/60+E622)</f>
-        <v>0</v>
-      </c>
-      <c r="U622" s="10">
+        <v>7.3333333333333339</v>
+      </c>
+      <c r="U622" s="17">
         <f>(O622/60+N622)-(L622/60+K622)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V622" s="10"/>
       <c r="W622" s="11">
         <f>T622+U622-Q622*0.5+V622</f>
-        <v>0</v>
-      </c>
-      <c r="X622" s="10"/>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="X622" s="10">
+        <v>10</v>
+      </c>
       <c r="Z622" s="75">
         <v>0</v>
+      </c>
+      <c r="AD622" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="623" spans="1:33" x14ac:dyDescent="0.25">
@@ -56469,9 +56626,21 @@
         <v>4</v>
       </c>
       <c r="D623" s="1"/>
+      <c r="E623">
+        <v>9</v>
+      </c>
+      <c r="F623">
+        <v>11</v>
+      </c>
       <c r="G623" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H623">
+        <v>18</v>
+      </c>
+      <c r="I623">
+        <v>39</v>
+      </c>
       <c r="J623" s="85" t="s">
         <v>17</v>
       </c>
@@ -56479,12 +56648,14 @@
         <v>6</v>
       </c>
       <c r="P623" s="1"/>
-      <c r="Q623" s="3"/>
+      <c r="Q623" s="3">
+        <v>2</v>
+      </c>
       <c r="R623" s="5"/>
       <c r="S623" s="4"/>
       <c r="T623" s="10">
         <f>(I623/60+H623)-(F623/60+E623)</f>
-        <v>0</v>
+        <v>9.466666666666665</v>
       </c>
       <c r="U623" s="10">
         <f>(O623/60+N623)-(L623/60+K623)</f>
@@ -56493,9 +56664,11 @@
       <c r="V623" s="10"/>
       <c r="W623" s="11">
         <f>T623+U623-Q623*0.5+V623</f>
-        <v>0</v>
-      </c>
-      <c r="X623" s="10"/>
+        <v>8.466666666666665</v>
+      </c>
+      <c r="X623" s="10">
+        <v>8</v>
+      </c>
       <c r="Y623" t="s">
         <v>11</v>
       </c>
@@ -56519,9 +56692,21 @@
         <v>5</v>
       </c>
       <c r="D624" s="1"/>
+      <c r="E624">
+        <v>10</v>
+      </c>
+      <c r="F624">
+        <v>14</v>
+      </c>
       <c r="G624" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H624">
+        <v>16</v>
+      </c>
+      <c r="I624">
+        <v>30</v>
+      </c>
       <c r="J624" s="85" t="s">
         <v>17</v>
       </c>
@@ -56529,12 +56714,14 @@
         <v>6</v>
       </c>
       <c r="P624" s="1"/>
-      <c r="Q624" s="3"/>
+      <c r="Q624" s="3">
+        <v>1</v>
+      </c>
       <c r="R624" s="5"/>
       <c r="S624" s="4"/>
       <c r="T624" s="10">
         <f>(I624/60+H624)-(F624/60+E624)</f>
-        <v>0</v>
+        <v>6.2666666666666675</v>
       </c>
       <c r="U624" s="10">
         <f>(O624/60+N624)-(L624/60+K624)</f>
@@ -56543,24 +56730,26 @@
       <c r="V624" s="10"/>
       <c r="W624" s="11">
         <f>T624+U624-Q624*0.5+V624</f>
-        <v>0</v>
-      </c>
-      <c r="X624" s="10"/>
+        <v>5.7666666666666675</v>
+      </c>
+      <c r="X624" s="10">
+        <v>6.5</v>
+      </c>
       <c r="Y624" s="12">
         <f>SUM(W620:W624)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="Z624" s="10">
         <f>Y624-(8*(5-Z622))+SUM(S620:S624)*8</f>
-        <v>-40</v>
+        <v>-3.3333333333333357</v>
       </c>
       <c r="AA624" s="10">
         <f>AA617+Z624</f>
-        <v>-136.51666666666665</v>
+        <v>-7.6499999999999986</v>
       </c>
       <c r="AB624" s="10">
         <f>AB617+Z624</f>
-        <v>-132.87</v>
+        <v>-4.0033333333333445</v>
       </c>
     </row>
     <row r="625" spans="1:33" x14ac:dyDescent="0.25">
@@ -56600,7 +56789,7 @@
       <c r="X625" s="69"/>
       <c r="Y625" s="123">
         <f>SUM(X620:X624)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z625" s="67"/>
       <c r="AA625" s="67"/>
@@ -56616,7 +56805,7 @@
         <v>43653</v>
       </c>
       <c r="B626" s="6" t="s">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
@@ -56670,8 +56859,20 @@
         <v>1</v>
       </c>
       <c r="D627" s="1"/>
+      <c r="E627">
+        <v>9</v>
+      </c>
+      <c r="F627">
+        <v>47</v>
+      </c>
       <c r="G627" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H627">
+        <v>18</v>
+      </c>
+      <c r="I627">
+        <v>20</v>
       </c>
       <c r="J627" s="85" t="s">
         <v>17</v>
@@ -56685,7 +56886,7 @@
       <c r="S627" s="4"/>
       <c r="T627" s="10">
         <f>(I627/60+H627)-(F627/60+E627)</f>
-        <v>0</v>
+        <v>8.5499999999999989</v>
       </c>
       <c r="U627" s="10">
         <f>(O627/60+N627)-(L627/60+K627)</f>
@@ -56694,9 +56895,11 @@
       <c r="V627" s="10"/>
       <c r="W627" s="11">
         <f>T627+U627-Q627*0.5+V627</f>
-        <v>0</v>
-      </c>
-      <c r="X627" s="109"/>
+        <v>8.5499999999999989</v>
+      </c>
+      <c r="X627" s="109">
+        <v>8.5</v>
+      </c>
       <c r="AC627" s="8"/>
     </row>
     <row r="628" spans="1:33" x14ac:dyDescent="0.25">
@@ -56708,9 +56911,21 @@
         <v>2</v>
       </c>
       <c r="D628" s="1"/>
+      <c r="E628">
+        <v>10</v>
+      </c>
+      <c r="F628">
+        <v>25</v>
+      </c>
       <c r="G628" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H628">
+        <v>17</v>
+      </c>
+      <c r="I628">
+        <v>46</v>
+      </c>
       <c r="J628" s="85" t="s">
         <v>17</v>
       </c>
@@ -56718,12 +56933,14 @@
         <v>6</v>
       </c>
       <c r="P628" s="1"/>
-      <c r="Q628" s="3"/>
+      <c r="Q628" s="3">
+        <v>1</v>
+      </c>
       <c r="R628" s="5"/>
       <c r="S628" s="4"/>
       <c r="T628" s="10">
         <f>(I628/60+H628)-(F628/60+E628)</f>
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="U628" s="10">
         <f>(O628/60+N628)-(L628/60+K628)</f>
@@ -56732,9 +56949,11 @@
       <c r="V628" s="10"/>
       <c r="W628" s="11">
         <f>T628+U628-Q628*0.5+V628</f>
-        <v>0</v>
-      </c>
-      <c r="X628" s="10"/>
+        <v>6.85</v>
+      </c>
+      <c r="X628" s="10">
+        <v>7</v>
+      </c>
       <c r="Z628" t="s">
         <v>258</v>
       </c>
@@ -56748,9 +56967,21 @@
         <v>3</v>
       </c>
       <c r="D629" s="1"/>
+      <c r="E629">
+        <v>10</v>
+      </c>
+      <c r="F629">
+        <v>8</v>
+      </c>
       <c r="G629" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H629">
+        <v>20</v>
+      </c>
+      <c r="I629">
+        <v>55</v>
+      </c>
       <c r="J629" s="85" t="s">
         <v>17</v>
       </c>
@@ -56758,12 +56989,14 @@
         <v>6</v>
       </c>
       <c r="P629" s="1"/>
-      <c r="Q629" s="3"/>
+      <c r="Q629" s="3">
+        <v>1</v>
+      </c>
       <c r="R629" s="5"/>
       <c r="S629" s="4"/>
       <c r="T629" s="10">
         <f>(I629/60+H629)-(F629/60+E629)</f>
-        <v>0</v>
+        <v>10.783333333333335</v>
       </c>
       <c r="U629" s="10">
         <f>(O629/60+N629)-(L629/60+K629)</f>
@@ -56772,9 +57005,11 @@
       <c r="V629" s="10"/>
       <c r="W629" s="11">
         <f>T629+U629-Q629*0.5+V629</f>
-        <v>0</v>
-      </c>
-      <c r="X629" s="10"/>
+        <v>10.283333333333335</v>
+      </c>
+      <c r="X629" s="10">
+        <v>10</v>
+      </c>
       <c r="Z629" s="75">
         <v>0</v>
       </c>
@@ -56788,9 +57023,21 @@
         <v>4</v>
       </c>
       <c r="D630" s="1"/>
+      <c r="E630">
+        <v>9</v>
+      </c>
+      <c r="F630">
+        <v>12</v>
+      </c>
       <c r="G630" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H630">
+        <v>17</v>
+      </c>
+      <c r="I630">
+        <v>39</v>
+      </c>
       <c r="J630" s="85" t="s">
         <v>17</v>
       </c>
@@ -56798,12 +57045,14 @@
         <v>6</v>
       </c>
       <c r="P630" s="1"/>
-      <c r="Q630" s="3"/>
+      <c r="Q630" s="3">
+        <v>1</v>
+      </c>
       <c r="R630" s="5"/>
       <c r="S630" s="4"/>
       <c r="T630" s="10">
         <f>(I630/60+H630)-(F630/60+E630)</f>
-        <v>0</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="U630" s="10">
         <f>(O630/60+N630)-(L630/60+K630)</f>
@@ -56812,9 +57061,11 @@
       <c r="V630" s="10"/>
       <c r="W630" s="11">
         <f>T630+U630-Q630*0.5+V630</f>
-        <v>0</v>
-      </c>
-      <c r="X630" s="10"/>
+        <v>7.9499999999999993</v>
+      </c>
+      <c r="X630" s="10">
+        <v>8</v>
+      </c>
       <c r="Y630" t="s">
         <v>11</v>
       </c>
@@ -56838,9 +57089,21 @@
         <v>5</v>
       </c>
       <c r="D631" s="1"/>
+      <c r="E631">
+        <v>10</v>
+      </c>
+      <c r="F631">
+        <v>12</v>
+      </c>
       <c r="G631" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H631">
+        <v>17</v>
+      </c>
+      <c r="I631">
+        <v>45</v>
+      </c>
       <c r="J631" s="85" t="s">
         <v>17</v>
       </c>
@@ -56848,12 +57111,14 @@
         <v>6</v>
       </c>
       <c r="P631" s="1"/>
-      <c r="Q631" s="3"/>
+      <c r="Q631" s="3">
+        <v>1</v>
+      </c>
       <c r="R631" s="5"/>
       <c r="S631" s="4"/>
       <c r="T631" s="10">
         <f>(I631/60+H631)-(F631/60+E631)</f>
-        <v>0</v>
+        <v>7.5500000000000007</v>
       </c>
       <c r="U631" s="10">
         <f>(O631/60+N631)-(L631/60+K631)</f>
@@ -56862,24 +57127,26 @@
       <c r="V631" s="10"/>
       <c r="W631" s="11">
         <f>T631+U631-Q631*0.5+V631</f>
-        <v>0</v>
-      </c>
-      <c r="X631" s="10"/>
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="X631" s="10">
+        <v>7</v>
+      </c>
       <c r="Y631" s="12">
         <f>SUM(W627:W631)</f>
-        <v>0</v>
+        <v>40.683333333333337</v>
       </c>
       <c r="Z631" s="10">
         <f>Y631-(8*(5-Z629))+SUM(S627:S631)*8</f>
-        <v>-40</v>
+        <v>0.68333333333333712</v>
       </c>
       <c r="AA631" s="10">
         <f>AA624+Z631</f>
-        <v>-176.51666666666665</v>
+        <v>-6.9666666666666615</v>
       </c>
       <c r="AB631" s="10">
         <f>AB624+Z631</f>
-        <v>-172.87</v>
+        <v>-3.3200000000000074</v>
       </c>
     </row>
     <row r="632" spans="1:33" x14ac:dyDescent="0.25">
@@ -56919,7 +57186,7 @@
       <c r="X632" s="69"/>
       <c r="Y632" s="123">
         <f>SUM(X627:X631)</f>
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="Z632" s="67"/>
       <c r="AA632" s="67"/>
@@ -56935,7 +57202,7 @@
         <v>43660</v>
       </c>
       <c r="B633" s="6" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
@@ -56989,8 +57256,20 @@
         <v>1</v>
       </c>
       <c r="D634" s="1"/>
+      <c r="E634">
+        <v>9</v>
+      </c>
+      <c r="F634">
+        <v>0</v>
+      </c>
       <c r="G634" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H634">
+        <v>18</v>
+      </c>
+      <c r="I634">
+        <v>14</v>
       </c>
       <c r="J634" s="85" t="s">
         <v>17</v>
@@ -57004,7 +57283,7 @@
       <c r="S634" s="4"/>
       <c r="T634" s="10">
         <f>(I634/60+H634)-(F634/60+E634)</f>
-        <v>0</v>
+        <v>9.2333333333333343</v>
       </c>
       <c r="U634" s="10">
         <f>(O634/60+N634)-(L634/60+K634)</f>
@@ -57013,9 +57292,11 @@
       <c r="V634" s="10"/>
       <c r="W634" s="11">
         <f>T634+U634-Q634*0.5+V634</f>
-        <v>0</v>
-      </c>
-      <c r="X634" s="109"/>
+        <v>9.2333333333333343</v>
+      </c>
+      <c r="X634" s="109">
+        <v>9</v>
+      </c>
       <c r="AC634" s="8"/>
     </row>
     <row r="635" spans="1:33" x14ac:dyDescent="0.25">
@@ -57027,8 +57308,20 @@
         <v>2</v>
       </c>
       <c r="D635" s="1"/>
+      <c r="E635">
+        <v>10</v>
+      </c>
+      <c r="F635">
+        <v>20</v>
+      </c>
       <c r="G635" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H635">
+        <v>17</v>
+      </c>
+      <c r="I635">
+        <v>20</v>
       </c>
       <c r="J635" s="85" t="s">
         <v>17</v>
@@ -57042,7 +57335,7 @@
       <c r="S635" s="4"/>
       <c r="T635" s="10">
         <f>(I635/60+H635)-(F635/60+E635)</f>
-        <v>0</v>
+        <v>6.9999999999999982</v>
       </c>
       <c r="U635" s="10">
         <f>(O635/60+N635)-(L635/60+K635)</f>
@@ -57051,9 +57344,11 @@
       <c r="V635" s="10"/>
       <c r="W635" s="11">
         <f>T635+U635-Q635*0.5+V635</f>
-        <v>0</v>
-      </c>
-      <c r="X635" s="10"/>
+        <v>6.9999999999999982</v>
+      </c>
+      <c r="X635" s="10">
+        <v>7</v>
+      </c>
       <c r="Z635" t="s">
         <v>258</v>
       </c>
@@ -57067,8 +57362,20 @@
         <v>3</v>
       </c>
       <c r="D636" s="1"/>
+      <c r="E636">
+        <v>9</v>
+      </c>
+      <c r="F636">
+        <v>48</v>
+      </c>
       <c r="G636" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H636">
+        <v>19</v>
+      </c>
+      <c r="I636">
+        <v>39</v>
       </c>
       <c r="J636" s="85" t="s">
         <v>17</v>
@@ -57082,7 +57389,7 @@
       <c r="S636" s="4"/>
       <c r="T636" s="10">
         <f>(I636/60+H636)-(F636/60+E636)</f>
-        <v>0</v>
+        <v>9.8499999999999979</v>
       </c>
       <c r="U636" s="10">
         <f>(O636/60+N636)-(L636/60+K636)</f>
@@ -57091,9 +57398,11 @@
       <c r="V636" s="10"/>
       <c r="W636" s="11">
         <f>T636+U636-Q636*0.5+V636</f>
-        <v>0</v>
-      </c>
-      <c r="X636" s="10"/>
+        <v>9.8499999999999979</v>
+      </c>
+      <c r="X636" s="10">
+        <v>10</v>
+      </c>
       <c r="Z636" s="75">
         <v>0</v>
       </c>
@@ -57107,14 +57416,38 @@
         <v>4</v>
       </c>
       <c r="D637" s="1"/>
+      <c r="E637">
+        <v>9</v>
+      </c>
+      <c r="F637">
+        <v>48</v>
+      </c>
       <c r="G637" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H637">
+        <v>16</v>
+      </c>
+      <c r="I637">
+        <v>35</v>
+      </c>
       <c r="J637" s="85" t="s">
         <v>17</v>
       </c>
+      <c r="K637">
+        <v>16</v>
+      </c>
+      <c r="L637">
+        <v>35</v>
+      </c>
       <c r="M637" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="N637">
+        <v>19</v>
+      </c>
+      <c r="O637">
+        <v>5</v>
       </c>
       <c r="P637" s="1"/>
       <c r="Q637" s="3"/>
@@ -57122,18 +57455,20 @@
       <c r="S637" s="4"/>
       <c r="T637" s="10">
         <f>(I637/60+H637)-(F637/60+E637)</f>
-        <v>0</v>
-      </c>
-      <c r="U637" s="10">
+        <v>6.7833333333333314</v>
+      </c>
+      <c r="U637" s="17">
         <f>(O637/60+N637)-(L637/60+K637)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V637" s="10"/>
       <c r="W637" s="11">
         <f>T637+U637-Q637*0.5+V637</f>
-        <v>0</v>
-      </c>
-      <c r="X637" s="10"/>
+        <v>9.2833333333333314</v>
+      </c>
+      <c r="X637" s="10">
+        <v>9</v>
+      </c>
       <c r="Y637" t="s">
         <v>11</v>
       </c>
@@ -57145,6 +57480,9 @@
       </c>
       <c r="AB637" t="s">
         <v>300</v>
+      </c>
+      <c r="AD637" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="AE637" s="95"/>
     </row>
@@ -57157,14 +57495,38 @@
         <v>5</v>
       </c>
       <c r="D638" s="1"/>
+      <c r="E638">
+        <v>14</v>
+      </c>
+      <c r="F638">
+        <v>8</v>
+      </c>
       <c r="G638" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H638">
+        <v>15</v>
+      </c>
+      <c r="I638">
+        <v>47</v>
+      </c>
       <c r="J638" s="85" t="s">
         <v>17</v>
       </c>
+      <c r="K638">
+        <v>10</v>
+      </c>
+      <c r="L638">
+        <v>8</v>
+      </c>
       <c r="M638" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="N638">
+        <v>14</v>
+      </c>
+      <c r="O638">
+        <v>8</v>
       </c>
       <c r="P638" s="1"/>
       <c r="Q638" s="3"/>
@@ -57172,33 +57534,38 @@
       <c r="S638" s="4"/>
       <c r="T638" s="10">
         <f>(I638/60+H638)-(F638/60+E638)</f>
-        <v>0</v>
-      </c>
-      <c r="U638" s="10">
+        <v>1.6500000000000004</v>
+      </c>
+      <c r="U638" s="17">
         <f>(O638/60+N638)-(L638/60+K638)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V638" s="10"/>
       <c r="W638" s="11">
         <f>T638+U638-Q638*0.5+V638</f>
-        <v>0</v>
-      </c>
-      <c r="X638" s="10"/>
+        <v>5.65</v>
+      </c>
+      <c r="X638" s="10">
+        <v>6</v>
+      </c>
       <c r="Y638" s="12">
         <f>SUM(W634:W638)</f>
-        <v>0</v>
+        <v>41.016666666666659</v>
       </c>
       <c r="Z638" s="10">
         <f>Y638-(8*(5-Z636))+SUM(S634:S638)*8</f>
-        <v>-40</v>
+        <v>1.0166666666666586</v>
       </c>
       <c r="AA638" s="10">
         <f>AA631+Z638</f>
-        <v>-216.51666666666665</v>
+        <v>-5.9500000000000028</v>
       </c>
       <c r="AB638" s="10">
         <f>AB631+Z638</f>
-        <v>-212.87</v>
+        <v>-2.3033333333333488</v>
+      </c>
+      <c r="AD638" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="639" spans="1:33" x14ac:dyDescent="0.25">
@@ -57238,7 +57605,7 @@
       <c r="X639" s="69"/>
       <c r="Y639" s="123">
         <f>SUM(X634:X638)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Z639" s="67"/>
       <c r="AA639" s="67"/>
@@ -57254,7 +57621,7 @@
         <v>43667</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
@@ -57308,8 +57675,20 @@
         <v>1</v>
       </c>
       <c r="D641" s="1"/>
+      <c r="E641">
+        <v>10</v>
+      </c>
+      <c r="F641">
+        <v>0</v>
+      </c>
       <c r="G641" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H641">
+        <v>16</v>
+      </c>
+      <c r="I641">
+        <v>36</v>
       </c>
       <c r="J641" s="85" t="s">
         <v>17</v>
@@ -57323,7 +57702,7 @@
       <c r="S641" s="4"/>
       <c r="T641" s="10">
         <f>(I641/60+H641)-(F641/60+E641)</f>
-        <v>0</v>
+        <v>6.6000000000000014</v>
       </c>
       <c r="U641" s="10">
         <f>(O641/60+N641)-(L641/60+K641)</f>
@@ -57332,7 +57711,7 @@
       <c r="V641" s="10"/>
       <c r="W641" s="11">
         <f>T641+U641-Q641*0.5+V641</f>
-        <v>0</v>
+        <v>6.6000000000000014</v>
       </c>
       <c r="X641" s="109"/>
       <c r="AC641" s="8"/>
@@ -57346,8 +57725,20 @@
         <v>2</v>
       </c>
       <c r="D642" s="1"/>
+      <c r="E642">
+        <v>8</v>
+      </c>
+      <c r="F642">
+        <v>40</v>
+      </c>
       <c r="G642" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H642">
+        <v>17</v>
+      </c>
+      <c r="I642">
+        <v>0</v>
       </c>
       <c r="J642" s="85" t="s">
         <v>17</v>
@@ -57361,7 +57752,7 @@
       <c r="S642" s="4"/>
       <c r="T642" s="10">
         <f>(I642/60+H642)-(F642/60+E642)</f>
-        <v>0</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="U642" s="10">
         <f>(O642/60+N642)-(L642/60+K642)</f>
@@ -57370,7 +57761,7 @@
       <c r="V642" s="10"/>
       <c r="W642" s="11">
         <f>T642+U642-Q642*0.5+V642</f>
-        <v>0</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="X642" s="10"/>
       <c r="Z642" t="s">
@@ -57386,8 +57777,20 @@
         <v>3</v>
       </c>
       <c r="D643" s="1"/>
+      <c r="E643">
+        <v>9</v>
+      </c>
+      <c r="F643">
+        <v>15</v>
+      </c>
       <c r="G643" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H643">
+        <v>18</v>
+      </c>
+      <c r="I643">
+        <v>30</v>
       </c>
       <c r="J643" s="85" t="s">
         <v>17</v>
@@ -57401,7 +57804,7 @@
       <c r="S643" s="4"/>
       <c r="T643" s="10">
         <f>(I643/60+H643)-(F643/60+E643)</f>
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="U643" s="10">
         <f>(O643/60+N643)-(L643/60+K643)</f>
@@ -57410,7 +57813,7 @@
       <c r="V643" s="10"/>
       <c r="W643" s="11">
         <f>T643+U643-Q643*0.5+V643</f>
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="X643" s="10"/>
       <c r="Z643" s="75">
@@ -57426,6 +57829,12 @@
         <v>4</v>
       </c>
       <c r="D644" s="1"/>
+      <c r="E644">
+        <v>9</v>
+      </c>
+      <c r="F644">
+        <v>25</v>
+      </c>
       <c r="G644" s="82" t="s">
         <v>6</v>
       </c>
@@ -57441,7 +57850,7 @@
       <c r="S644" s="4"/>
       <c r="T644" s="10">
         <f>(I644/60+H644)-(F644/60+E644)</f>
-        <v>0</v>
+        <v>-9.4166666666666661</v>
       </c>
       <c r="U644" s="10">
         <f>(O644/60+N644)-(L644/60+K644)</f>
@@ -57450,7 +57859,7 @@
       <c r="V644" s="10"/>
       <c r="W644" s="11">
         <f>T644+U644-Q644*0.5+V644</f>
-        <v>0</v>
+        <v>-9.4166666666666661</v>
       </c>
       <c r="X644" s="10"/>
       <c r="Y644" t="s">
@@ -57505,19 +57914,19 @@
       <c r="X645" s="10"/>
       <c r="Y645" s="12">
         <f>SUM(W641:W645)</f>
-        <v>0</v>
+        <v>14.766666666666671</v>
       </c>
       <c r="Z645" s="10">
         <f>Y645-(8*(5-Z643))+SUM(S641:S645)*8</f>
-        <v>-40</v>
+        <v>-25.233333333333327</v>
       </c>
       <c r="AA645" s="10">
         <f>AA638+Z645</f>
-        <v>-256.51666666666665</v>
+        <v>-31.18333333333333</v>
       </c>
       <c r="AB645" s="10">
         <f>AB638+Z645</f>
-        <v>-252.87</v>
+        <v>-27.536666666666676</v>
       </c>
     </row>
     <row r="646" spans="1:33" x14ac:dyDescent="0.25">
@@ -57573,7 +57982,7 @@
         <v>43674</v>
       </c>
       <c r="B647" s="6" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
@@ -57832,11 +58241,11 @@
       </c>
       <c r="AA652" s="10">
         <f>AA645+Z652</f>
-        <v>-296.51666666666665</v>
+        <v>-71.183333333333337</v>
       </c>
       <c r="AB652" s="10">
         <f>AB645+Z652</f>
-        <v>-292.87</v>
+        <v>-67.536666666666676</v>
       </c>
     </row>
     <row r="653" spans="1:33" x14ac:dyDescent="0.25">
@@ -58151,11 +58560,11 @@
       </c>
       <c r="AA659" s="10">
         <f>AA652+Z659</f>
-        <v>-336.51666666666665</v>
+        <v>-111.18333333333334</v>
       </c>
       <c r="AB659" s="10">
         <f>AB652+Z659</f>
-        <v>-332.87</v>
+        <v>-107.53666666666668</v>
       </c>
     </row>
     <row r="660" spans="1:33" x14ac:dyDescent="0.25">
@@ -58470,11 +58879,11 @@
       </c>
       <c r="AA666" s="10">
         <f>AA659+Z666</f>
-        <v>-376.51666666666665</v>
+        <v>-151.18333333333334</v>
       </c>
       <c r="AB666" s="10">
         <f>AB659+Z666</f>
-        <v>-372.87</v>
+        <v>-147.53666666666669</v>
       </c>
     </row>
     <row r="667" spans="1:33" x14ac:dyDescent="0.25">
@@ -58789,11 +59198,11 @@
       </c>
       <c r="AA673" s="10">
         <f>AA666+Z673</f>
-        <v>-416.51666666666665</v>
+        <v>-191.18333333333334</v>
       </c>
       <c r="AB673" s="10">
         <f>AB666+Z673</f>
-        <v>-412.87</v>
+        <v>-187.53666666666669</v>
       </c>
     </row>
     <row r="674" spans="1:33" x14ac:dyDescent="0.25">
@@ -59108,11 +59517,11 @@
       </c>
       <c r="AA680" s="10">
         <f>AA673+Z680</f>
-        <v>-456.51666666666665</v>
+        <v>-231.18333333333334</v>
       </c>
       <c r="AB680" s="10">
         <f>AB673+Z680</f>
-        <v>-452.87</v>
+        <v>-227.53666666666669</v>
       </c>
     </row>
     <row r="681" spans="1:33" x14ac:dyDescent="0.25">
@@ -59427,11 +59836,11 @@
       </c>
       <c r="AA687" s="10">
         <f>AA680+Z687</f>
-        <v>-496.51666666666665</v>
+        <v>-271.18333333333334</v>
       </c>
       <c r="AB687" s="10">
         <f>AB680+Z687</f>
-        <v>-492.87</v>
+        <v>-267.53666666666669</v>
       </c>
     </row>
     <row r="688" spans="1:33" x14ac:dyDescent="0.25">
@@ -59746,11 +60155,11 @@
       </c>
       <c r="AA694" s="10">
         <f>AA687+Z694</f>
-        <v>-536.51666666666665</v>
+        <v>-311.18333333333334</v>
       </c>
       <c r="AB694" s="10">
         <f>AB687+Z694</f>
-        <v>-532.87</v>
+        <v>-307.53666666666669</v>
       </c>
     </row>
     <row r="695" spans="1:33" x14ac:dyDescent="0.25">
@@ -60065,11 +60474,11 @@
       </c>
       <c r="AA701" s="10">
         <f>AA694+Z701</f>
-        <v>-576.51666666666665</v>
+        <v>-351.18333333333334</v>
       </c>
       <c r="AB701" s="10">
         <f>AB694+Z701</f>
-        <v>-572.87</v>
+        <v>-347.53666666666669</v>
       </c>
     </row>
     <row r="702" spans="1:33" x14ac:dyDescent="0.25">
@@ -60384,11 +60793,11 @@
       </c>
       <c r="AA708" s="10">
         <f>AA701+Z708</f>
-        <v>-616.51666666666665</v>
+        <v>-391.18333333333334</v>
       </c>
       <c r="AB708" s="10">
         <f>AB701+Z708</f>
-        <v>-612.87</v>
+        <v>-387.53666666666669</v>
       </c>
     </row>
     <row r="709" spans="1:33" x14ac:dyDescent="0.25">
@@ -60703,11 +61112,11 @@
       </c>
       <c r="AA715" s="10">
         <f>AA708+Z715</f>
-        <v>-656.51666666666665</v>
+        <v>-431.18333333333334</v>
       </c>
       <c r="AB715" s="10">
         <f>AB708+Z715</f>
-        <v>-652.87</v>
+        <v>-427.53666666666669</v>
       </c>
     </row>
     <row r="716" spans="1:33" x14ac:dyDescent="0.25">
@@ -61022,11 +61431,11 @@
       </c>
       <c r="AA722" s="10">
         <f>AA715+Z722</f>
-        <v>-696.51666666666665</v>
+        <v>-471.18333333333334</v>
       </c>
       <c r="AB722" s="10">
         <f>AB715+Z722</f>
-        <v>-692.87</v>
+        <v>-467.53666666666669</v>
       </c>
     </row>
     <row r="723" spans="1:33" x14ac:dyDescent="0.25">

--- a/tidsrapport/tidsrapportering3.xlsx
+++ b/tidsrapport/tidsrapportering3.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6423" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6428" uniqueCount="312">
   <si>
     <t>vecka 38</t>
   </si>
@@ -23238,10 +23238,10 @@
   <dimension ref="A1:AK723"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C619" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C645" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD633" sqref="AD633"/>
+      <selection pane="bottomRight" activeCell="Y660" sqref="Y660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57713,7 +57713,9 @@
         <f>T641+U641-Q641*0.5+V641</f>
         <v>6.6000000000000014</v>
       </c>
-      <c r="X641" s="109"/>
+      <c r="X641" s="109">
+        <v>7</v>
+      </c>
       <c r="AC641" s="8"/>
     </row>
     <row r="642" spans="1:33" x14ac:dyDescent="0.25">
@@ -57763,7 +57765,9 @@
         <f>T642+U642-Q642*0.5+V642</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="X642" s="10"/>
+      <c r="X642" s="10">
+        <v>8</v>
+      </c>
       <c r="Z642" t="s">
         <v>258</v>
       </c>
@@ -57799,7 +57803,9 @@
         <v>6</v>
       </c>
       <c r="P643" s="1"/>
-      <c r="Q643" s="3"/>
+      <c r="Q643" s="3">
+        <v>1</v>
+      </c>
       <c r="R643" s="5"/>
       <c r="S643" s="4"/>
       <c r="T643" s="10">
@@ -57813,9 +57819,11 @@
       <c r="V643" s="10"/>
       <c r="W643" s="11">
         <f>T643+U643-Q643*0.5+V643</f>
-        <v>9.25</v>
-      </c>
-      <c r="X643" s="10"/>
+        <v>8.75</v>
+      </c>
+      <c r="X643" s="10">
+        <v>9</v>
+      </c>
       <c r="Z643" s="75">
         <v>0</v>
       </c>
@@ -57838,6 +57846,12 @@
       <c r="G644" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H644">
+        <v>18</v>
+      </c>
+      <c r="I644">
+        <v>0</v>
+      </c>
       <c r="J644" s="85" t="s">
         <v>17</v>
       </c>
@@ -57845,12 +57859,14 @@
         <v>6</v>
       </c>
       <c r="P644" s="1"/>
-      <c r="Q644" s="3"/>
+      <c r="Q644" s="3">
+        <v>1</v>
+      </c>
       <c r="R644" s="5"/>
       <c r="S644" s="4"/>
       <c r="T644" s="10">
         <f>(I644/60+H644)-(F644/60+E644)</f>
-        <v>-9.4166666666666661</v>
+        <v>8.5833333333333339</v>
       </c>
       <c r="U644" s="10">
         <f>(O644/60+N644)-(L644/60+K644)</f>
@@ -57859,9 +57875,11 @@
       <c r="V644" s="10"/>
       <c r="W644" s="11">
         <f>T644+U644-Q644*0.5+V644</f>
-        <v>-9.4166666666666661</v>
-      </c>
-      <c r="X644" s="10"/>
+        <v>8.0833333333333339</v>
+      </c>
+      <c r="X644" s="10">
+        <v>8</v>
+      </c>
       <c r="Y644" t="s">
         <v>11</v>
       </c>
@@ -57885,9 +57903,21 @@
         <v>5</v>
       </c>
       <c r="D645" s="1"/>
+      <c r="E645">
+        <v>9</v>
+      </c>
+      <c r="F645">
+        <v>0</v>
+      </c>
       <c r="G645" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H645">
+        <v>18</v>
+      </c>
+      <c r="I645">
+        <v>0</v>
+      </c>
       <c r="J645" s="85" t="s">
         <v>17</v>
       </c>
@@ -57895,12 +57925,14 @@
         <v>6</v>
       </c>
       <c r="P645" s="1"/>
-      <c r="Q645" s="3"/>
+      <c r="Q645" s="3">
+        <v>1</v>
+      </c>
       <c r="R645" s="5"/>
       <c r="S645" s="4"/>
       <c r="T645" s="10">
         <f>(I645/60+H645)-(F645/60+E645)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U645" s="10">
         <f>(O645/60+N645)-(L645/60+K645)</f>
@@ -57909,24 +57941,26 @@
       <c r="V645" s="10"/>
       <c r="W645" s="11">
         <f>T645+U645-Q645*0.5+V645</f>
-        <v>0</v>
-      </c>
-      <c r="X645" s="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="X645" s="10">
+        <v>8</v>
+      </c>
       <c r="Y645" s="12">
         <f>SUM(W641:W645)</f>
-        <v>14.766666666666671</v>
+        <v>40.266666666666673</v>
       </c>
       <c r="Z645" s="10">
         <f>Y645-(8*(5-Z643))+SUM(S641:S645)*8</f>
-        <v>-25.233333333333327</v>
+        <v>0.26666666666667282</v>
       </c>
       <c r="AA645" s="10">
         <f>AA638+Z645</f>
-        <v>-31.18333333333333</v>
+        <v>-5.68333333333333</v>
       </c>
       <c r="AB645" s="10">
         <f>AB638+Z645</f>
-        <v>-27.536666666666676</v>
+        <v>-2.036666666666676</v>
       </c>
     </row>
     <row r="646" spans="1:33" x14ac:dyDescent="0.25">
@@ -57966,7 +58000,7 @@
       <c r="X646" s="69"/>
       <c r="Y646" s="123">
         <f>SUM(X641:X645)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z646" s="67"/>
       <c r="AA646" s="67"/>
@@ -58036,8 +58070,20 @@
         <v>1</v>
       </c>
       <c r="D648" s="1"/>
+      <c r="E648">
+        <v>13</v>
+      </c>
+      <c r="F648">
+        <v>15</v>
+      </c>
       <c r="G648" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H648">
+        <v>18</v>
+      </c>
+      <c r="I648">
+        <v>37</v>
       </c>
       <c r="J648" s="85" t="s">
         <v>17</v>
@@ -58051,7 +58097,7 @@
       <c r="S648" s="4"/>
       <c r="T648" s="10">
         <f>(I648/60+H648)-(F648/60+E648)</f>
-        <v>0</v>
+        <v>5.3666666666666671</v>
       </c>
       <c r="U648" s="10">
         <f>(O648/60+N648)-(L648/60+K648)</f>
@@ -58060,9 +58106,11 @@
       <c r="V648" s="10"/>
       <c r="W648" s="11">
         <f>T648+U648-Q648*0.5+V648</f>
-        <v>0</v>
-      </c>
-      <c r="X648" s="109"/>
+        <v>5.3666666666666671</v>
+      </c>
+      <c r="X648" s="109">
+        <v>5.5</v>
+      </c>
       <c r="AC648" s="8"/>
     </row>
     <row r="649" spans="1:33" x14ac:dyDescent="0.25">
@@ -58074,8 +58122,20 @@
         <v>2</v>
       </c>
       <c r="D649" s="1"/>
+      <c r="E649">
+        <v>9</v>
+      </c>
+      <c r="F649">
+        <v>43</v>
+      </c>
       <c r="G649" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H649">
+        <v>15</v>
+      </c>
+      <c r="I649">
+        <v>37</v>
       </c>
       <c r="J649" s="85" t="s">
         <v>17</v>
@@ -58089,7 +58149,7 @@
       <c r="S649" s="4"/>
       <c r="T649" s="10">
         <f>(I649/60+H649)-(F649/60+E649)</f>
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="U649" s="10">
         <f>(O649/60+N649)-(L649/60+K649)</f>
@@ -58098,9 +58158,11 @@
       <c r="V649" s="10"/>
       <c r="W649" s="11">
         <f>T649+U649-Q649*0.5+V649</f>
-        <v>0</v>
-      </c>
-      <c r="X649" s="10"/>
+        <v>5.9</v>
+      </c>
+      <c r="X649" s="10">
+        <v>6</v>
+      </c>
       <c r="Z649" t="s">
         <v>258</v>
       </c>
@@ -58114,8 +58176,20 @@
         <v>3</v>
       </c>
       <c r="D650" s="1"/>
+      <c r="E650">
+        <v>9</v>
+      </c>
+      <c r="F650">
+        <v>48</v>
+      </c>
       <c r="G650" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H650">
+        <v>16</v>
+      </c>
+      <c r="I650">
+        <v>28</v>
       </c>
       <c r="J650" s="85" t="s">
         <v>17</v>
@@ -58129,7 +58203,7 @@
       <c r="S650" s="4"/>
       <c r="T650" s="10">
         <f>(I650/60+H650)-(F650/60+E650)</f>
-        <v>0</v>
+        <v>6.6666666666666643</v>
       </c>
       <c r="U650" s="10">
         <f>(O650/60+N650)-(L650/60+K650)</f>
@@ -58138,9 +58212,11 @@
       <c r="V650" s="10"/>
       <c r="W650" s="11">
         <f>T650+U650-Q650*0.5+V650</f>
-        <v>0</v>
-      </c>
-      <c r="X650" s="10"/>
+        <v>6.6666666666666643</v>
+      </c>
+      <c r="X650" s="10">
+        <v>6.5</v>
+      </c>
       <c r="Z650" s="75">
         <v>0</v>
       </c>
@@ -58154,8 +58230,20 @@
         <v>4</v>
       </c>
       <c r="D651" s="1"/>
+      <c r="E651">
+        <v>10</v>
+      </c>
+      <c r="F651">
+        <v>45</v>
+      </c>
       <c r="G651" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H651">
+        <v>17</v>
+      </c>
+      <c r="I651">
+        <v>0</v>
       </c>
       <c r="J651" s="85" t="s">
         <v>17</v>
@@ -58169,7 +58257,7 @@
       <c r="S651" s="4"/>
       <c r="T651" s="10">
         <f>(I651/60+H651)-(F651/60+E651)</f>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="U651" s="10">
         <f>(O651/60+N651)-(L651/60+K651)</f>
@@ -58178,9 +58266,11 @@
       <c r="V651" s="10"/>
       <c r="W651" s="11">
         <f>T651+U651-Q651*0.5+V651</f>
-        <v>0</v>
-      </c>
-      <c r="X651" s="10"/>
+        <v>6.25</v>
+      </c>
+      <c r="X651" s="10">
+        <v>6.5</v>
+      </c>
       <c r="Y651" t="s">
         <v>11</v>
       </c>
@@ -58204,8 +58294,20 @@
         <v>5</v>
       </c>
       <c r="D652" s="1"/>
+      <c r="E652">
+        <v>9</v>
+      </c>
+      <c r="F652">
+        <v>30</v>
+      </c>
       <c r="G652" s="82" t="s">
         <v>6</v>
+      </c>
+      <c r="H652">
+        <v>17</v>
+      </c>
+      <c r="I652">
+        <v>0</v>
       </c>
       <c r="J652" s="85" t="s">
         <v>17</v>
@@ -58219,7 +58321,7 @@
       <c r="S652" s="4"/>
       <c r="T652" s="10">
         <f>(I652/60+H652)-(F652/60+E652)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="U652" s="10">
         <f>(O652/60+N652)-(L652/60+K652)</f>
@@ -58228,24 +58330,26 @@
       <c r="V652" s="10"/>
       <c r="W652" s="11">
         <f>T652+U652-Q652*0.5+V652</f>
-        <v>0</v>
-      </c>
-      <c r="X652" s="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="X652" s="10">
+        <v>7.5</v>
+      </c>
       <c r="Y652" s="12">
         <f>SUM(W648:W652)</f>
-        <v>0</v>
+        <v>31.68333333333333</v>
       </c>
       <c r="Z652" s="10">
         <f>Y652-(8*(5-Z650))+SUM(S648:S652)*8</f>
-        <v>-40</v>
+        <v>-8.31666666666667</v>
       </c>
       <c r="AA652" s="10">
         <f>AA645+Z652</f>
-        <v>-71.183333333333337</v>
+        <v>-14</v>
       </c>
       <c r="AB652" s="10">
         <f>AB645+Z652</f>
-        <v>-67.536666666666676</v>
+        <v>-10.353333333333346</v>
       </c>
     </row>
     <row r="653" spans="1:33" x14ac:dyDescent="0.25">
@@ -58285,7 +58389,7 @@
       <c r="X653" s="69"/>
       <c r="Y653" s="123">
         <f>SUM(X648:X652)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z653" s="67"/>
       <c r="AA653" s="67"/>
@@ -58301,7 +58405,7 @@
         <v>43681</v>
       </c>
       <c r="B654" s="6" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
@@ -58350,7 +58454,9 @@
       <c r="A655" s="52">
         <v>43682</v>
       </c>
-      <c r="B655" s="9"/>
+      <c r="B655" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C655" s="1" t="s">
         <v>1</v>
       </c>
@@ -58388,7 +58494,9 @@
       <c r="A656" s="52">
         <v>43683</v>
       </c>
-      <c r="B656" s="9"/>
+      <c r="B656" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C656" s="1" t="s">
         <v>2</v>
       </c>
@@ -58428,7 +58536,9 @@
       <c r="A657" s="52">
         <v>43684</v>
       </c>
-      <c r="B657" s="9"/>
+      <c r="B657" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C657" s="1" t="s">
         <v>3</v>
       </c>
@@ -58468,7 +58578,9 @@
       <c r="A658" s="52">
         <v>43685</v>
       </c>
-      <c r="B658" s="9"/>
+      <c r="B658" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C658" s="1" t="s">
         <v>4</v>
       </c>
@@ -58518,7 +58630,9 @@
       <c r="A659" s="52">
         <v>43686</v>
       </c>
-      <c r="B659" s="9"/>
+      <c r="B659" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C659" s="1" t="s">
         <v>5</v>
       </c>
@@ -58560,11 +58674,11 @@
       </c>
       <c r="AA659" s="10">
         <f>AA652+Z659</f>
-        <v>-111.18333333333334</v>
+        <v>-54</v>
       </c>
       <c r="AB659" s="10">
         <f>AB652+Z659</f>
-        <v>-107.53666666666668</v>
+        <v>-50.353333333333346</v>
       </c>
     </row>
     <row r="660" spans="1:33" x14ac:dyDescent="0.25">
@@ -58620,7 +58734,7 @@
         <v>43688</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
@@ -58674,9 +58788,21 @@
         <v>1</v>
       </c>
       <c r="D662" s="1"/>
+      <c r="E662">
+        <v>9</v>
+      </c>
+      <c r="F662">
+        <v>31</v>
+      </c>
       <c r="G662" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H662">
+        <v>16</v>
+      </c>
+      <c r="I662">
+        <v>26</v>
+      </c>
       <c r="J662" s="85" t="s">
         <v>17</v>
       </c>
@@ -58684,12 +58810,14 @@
         <v>6</v>
       </c>
       <c r="P662" s="1"/>
-      <c r="Q662" s="3"/>
+      <c r="Q662" s="3">
+        <v>1</v>
+      </c>
       <c r="R662" s="5"/>
       <c r="S662" s="4"/>
       <c r="T662" s="10">
         <f>(I662/60+H662)-(F662/60+E662)</f>
-        <v>0</v>
+        <v>6.9166666666666661</v>
       </c>
       <c r="U662" s="10">
         <f>(O662/60+N662)-(L662/60+K662)</f>
@@ -58698,9 +58826,11 @@
       <c r="V662" s="10"/>
       <c r="W662" s="11">
         <f>T662+U662-Q662*0.5+V662</f>
-        <v>0</v>
-      </c>
-      <c r="X662" s="109"/>
+        <v>6.4166666666666661</v>
+      </c>
+      <c r="X662" s="109">
+        <v>6.5</v>
+      </c>
       <c r="AC662" s="8"/>
     </row>
     <row r="663" spans="1:33" x14ac:dyDescent="0.25">
@@ -58712,9 +58842,21 @@
         <v>2</v>
       </c>
       <c r="D663" s="1"/>
+      <c r="E663">
+        <v>9</v>
+      </c>
+      <c r="F663">
+        <v>11</v>
+      </c>
       <c r="G663" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H663">
+        <v>16</v>
+      </c>
+      <c r="I663">
+        <v>22</v>
+      </c>
       <c r="J663" s="85" t="s">
         <v>17</v>
       </c>
@@ -58722,12 +58864,14 @@
         <v>6</v>
       </c>
       <c r="P663" s="1"/>
-      <c r="Q663" s="3"/>
+      <c r="Q663" s="3">
+        <v>1</v>
+      </c>
       <c r="R663" s="5"/>
       <c r="S663" s="4"/>
       <c r="T663" s="10">
         <f>(I663/60+H663)-(F663/60+E663)</f>
-        <v>0</v>
+        <v>7.1833333333333336</v>
       </c>
       <c r="U663" s="10">
         <f>(O663/60+N663)-(L663/60+K663)</f>
@@ -58736,9 +58880,11 @@
       <c r="V663" s="10"/>
       <c r="W663" s="11">
         <f>T663+U663-Q663*0.5+V663</f>
-        <v>0</v>
-      </c>
-      <c r="X663" s="10"/>
+        <v>6.6833333333333336</v>
+      </c>
+      <c r="X663" s="10">
+        <v>6.5</v>
+      </c>
       <c r="Z663" t="s">
         <v>258</v>
       </c>
@@ -58752,9 +58898,21 @@
         <v>3</v>
       </c>
       <c r="D664" s="1"/>
+      <c r="E664">
+        <v>9</v>
+      </c>
+      <c r="F664">
+        <v>48</v>
+      </c>
       <c r="G664" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H664">
+        <v>16</v>
+      </c>
+      <c r="I664">
+        <v>0</v>
+      </c>
       <c r="J664" s="85" t="s">
         <v>17</v>
       </c>
@@ -58762,12 +58920,14 @@
         <v>6</v>
       </c>
       <c r="P664" s="1"/>
-      <c r="Q664" s="3"/>
+      <c r="Q664" s="3">
+        <v>1</v>
+      </c>
       <c r="R664" s="5"/>
       <c r="S664" s="4"/>
       <c r="T664" s="10">
         <f>(I664/60+H664)-(F664/60+E664)</f>
-        <v>0</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="U664" s="10">
         <f>(O664/60+N664)-(L664/60+K664)</f>
@@ -58776,9 +58936,11 @@
       <c r="V664" s="10"/>
       <c r="W664" s="11">
         <f>T664+U664-Q664*0.5+V664</f>
-        <v>0</v>
-      </c>
-      <c r="X664" s="10"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="X664" s="10">
+        <v>6</v>
+      </c>
       <c r="Z664" s="75">
         <v>0</v>
       </c>
@@ -58792,9 +58954,21 @@
         <v>4</v>
       </c>
       <c r="D665" s="1"/>
+      <c r="E665">
+        <v>9</v>
+      </c>
+      <c r="F665">
+        <v>47</v>
+      </c>
       <c r="G665" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H665">
+        <v>16</v>
+      </c>
+      <c r="I665">
+        <v>56</v>
+      </c>
       <c r="J665" s="85" t="s">
         <v>17</v>
       </c>
@@ -58802,12 +58976,14 @@
         <v>6</v>
       </c>
       <c r="P665" s="1"/>
-      <c r="Q665" s="3"/>
+      <c r="Q665" s="3">
+        <v>1</v>
+      </c>
       <c r="R665" s="5"/>
       <c r="S665" s="4"/>
       <c r="T665" s="10">
         <f>(I665/60+H665)-(F665/60+E665)</f>
-        <v>0</v>
+        <v>7.15</v>
       </c>
       <c r="U665" s="10">
         <f>(O665/60+N665)-(L665/60+K665)</f>
@@ -58816,9 +58992,11 @@
       <c r="V665" s="10"/>
       <c r="W665" s="11">
         <f>T665+U665-Q665*0.5+V665</f>
-        <v>0</v>
-      </c>
-      <c r="X665" s="10"/>
+        <v>6.65</v>
+      </c>
+      <c r="X665" s="10">
+        <v>6.5</v>
+      </c>
       <c r="Y665" t="s">
         <v>11</v>
       </c>
@@ -58842,9 +59020,21 @@
         <v>5</v>
       </c>
       <c r="D666" s="1"/>
+      <c r="E666">
+        <v>10</v>
+      </c>
+      <c r="F666">
+        <v>22</v>
+      </c>
       <c r="G666" s="82" t="s">
         <v>6</v>
       </c>
+      <c r="H666">
+        <v>17</v>
+      </c>
+      <c r="I666">
+        <v>11</v>
+      </c>
       <c r="J666" s="85" t="s">
         <v>17</v>
       </c>
@@ -58852,12 +59042,14 @@
         <v>6</v>
       </c>
       <c r="P666" s="1"/>
-      <c r="Q666" s="3"/>
+      <c r="Q666" s="3">
+        <v>1</v>
+      </c>
       <c r="R666" s="5"/>
       <c r="S666" s="4"/>
       <c r="T666" s="10">
         <f>(I666/60+H666)-(F666/60+E666)</f>
-        <v>0</v>
+        <v>6.8166666666666664</v>
       </c>
       <c r="U666" s="10">
         <f>(O666/60+N666)-(L666/60+K666)</f>
@@ -58866,24 +59058,26 @@
       <c r="V666" s="10"/>
       <c r="W666" s="11">
         <f>T666+U666-Q666*0.5+V666</f>
-        <v>0</v>
-      </c>
-      <c r="X666" s="10"/>
+        <v>6.3166666666666664</v>
+      </c>
+      <c r="X666" s="10">
+        <v>6.5</v>
+      </c>
       <c r="Y666" s="12">
         <f>SUM(W662:W666)</f>
-        <v>0</v>
+        <v>31.766666666666662</v>
       </c>
       <c r="Z666" s="10">
         <f>Y666-(8*(5-Z664))+SUM(S662:S666)*8</f>
-        <v>-40</v>
+        <v>-8.2333333333333378</v>
       </c>
       <c r="AA666" s="10">
         <f>AA659+Z666</f>
-        <v>-151.18333333333334</v>
+        <v>-62.233333333333334</v>
       </c>
       <c r="AB666" s="10">
         <f>AB659+Z666</f>
-        <v>-147.53666666666669</v>
+        <v>-58.586666666666687</v>
       </c>
     </row>
     <row r="667" spans="1:33" x14ac:dyDescent="0.25">
@@ -58923,7 +59117,7 @@
       <c r="X667" s="69"/>
       <c r="Y667" s="123">
         <f>SUM(X662:X666)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z667" s="67"/>
       <c r="AA667" s="67"/>
@@ -58939,7 +59133,7 @@
         <v>43695</v>
       </c>
       <c r="B668" s="6" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
@@ -59198,11 +59392,11 @@
       </c>
       <c r="AA673" s="10">
         <f>AA666+Z673</f>
-        <v>-191.18333333333334</v>
+        <v>-102.23333333333333</v>
       </c>
       <c r="AB673" s="10">
         <f>AB666+Z673</f>
-        <v>-187.53666666666669</v>
+        <v>-98.586666666666687</v>
       </c>
     </row>
     <row r="674" spans="1:33" x14ac:dyDescent="0.25">
@@ -59258,7 +59452,7 @@
         <v>43702</v>
       </c>
       <c r="B675" s="6" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
@@ -59517,11 +59711,11 @@
       </c>
       <c r="AA680" s="10">
         <f>AA673+Z680</f>
-        <v>-231.18333333333334</v>
+        <v>-142.23333333333335</v>
       </c>
       <c r="AB680" s="10">
         <f>AB673+Z680</f>
-        <v>-227.53666666666669</v>
+        <v>-138.5866666666667</v>
       </c>
     </row>
     <row r="681" spans="1:33" x14ac:dyDescent="0.25">
@@ -59836,11 +60030,11 @@
       </c>
       <c r="AA687" s="10">
         <f>AA680+Z687</f>
-        <v>-271.18333333333334</v>
+        <v>-182.23333333333335</v>
       </c>
       <c r="AB687" s="10">
         <f>AB680+Z687</f>
-        <v>-267.53666666666669</v>
+        <v>-178.5866666666667</v>
       </c>
     </row>
     <row r="688" spans="1:33" x14ac:dyDescent="0.25">
@@ -60155,11 +60349,11 @@
       </c>
       <c r="AA694" s="10">
         <f>AA687+Z694</f>
-        <v>-311.18333333333334</v>
+        <v>-222.23333333333335</v>
       </c>
       <c r="AB694" s="10">
         <f>AB687+Z694</f>
-        <v>-307.53666666666669</v>
+        <v>-218.5866666666667</v>
       </c>
     </row>
     <row r="695" spans="1:33" x14ac:dyDescent="0.25">
@@ -60474,11 +60668,11 @@
       </c>
       <c r="AA701" s="10">
         <f>AA694+Z701</f>
-        <v>-351.18333333333334</v>
+        <v>-262.23333333333335</v>
       </c>
       <c r="AB701" s="10">
         <f>AB694+Z701</f>
-        <v>-347.53666666666669</v>
+        <v>-258.5866666666667</v>
       </c>
     </row>
     <row r="702" spans="1:33" x14ac:dyDescent="0.25">
@@ -60793,11 +60987,11 @@
       </c>
       <c r="AA708" s="10">
         <f>AA701+Z708</f>
-        <v>-391.18333333333334</v>
+        <v>-302.23333333333335</v>
       </c>
       <c r="AB708" s="10">
         <f>AB701+Z708</f>
-        <v>-387.53666666666669</v>
+        <v>-298.5866666666667</v>
       </c>
     </row>
     <row r="709" spans="1:33" x14ac:dyDescent="0.25">
@@ -61112,11 +61306,11 @@
       </c>
       <c r="AA715" s="10">
         <f>AA708+Z715</f>
-        <v>-431.18333333333334</v>
+        <v>-342.23333333333335</v>
       </c>
       <c r="AB715" s="10">
         <f>AB708+Z715</f>
-        <v>-427.53666666666669</v>
+        <v>-338.5866666666667</v>
       </c>
     </row>
     <row r="716" spans="1:33" x14ac:dyDescent="0.25">
@@ -61431,11 +61625,11 @@
       </c>
       <c r="AA722" s="10">
         <f>AA715+Z722</f>
-        <v>-471.18333333333334</v>
+        <v>-382.23333333333335</v>
       </c>
       <c r="AB722" s="10">
         <f>AB715+Z722</f>
-        <v>-467.53666666666669</v>
+        <v>-378.5866666666667</v>
       </c>
     </row>
     <row r="723" spans="1:33" x14ac:dyDescent="0.25">
@@ -61488,6 +61682,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="E437:I437"/>
+    <mergeCell ref="K437:O437"/>
+    <mergeCell ref="E430:I430"/>
+    <mergeCell ref="K430:O430"/>
+    <mergeCell ref="E409:I409"/>
+    <mergeCell ref="K409:O409"/>
+    <mergeCell ref="E416:I416"/>
+    <mergeCell ref="K416:O416"/>
+    <mergeCell ref="E423:I423"/>
+    <mergeCell ref="K423:O423"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="E304:I304"/>
+    <mergeCell ref="K304:O304"/>
+    <mergeCell ref="E283:I283"/>
+    <mergeCell ref="K283:O283"/>
+    <mergeCell ref="E276:I276"/>
+    <mergeCell ref="K276:O276"/>
+    <mergeCell ref="E269:I269"/>
+    <mergeCell ref="K269:O269"/>
+    <mergeCell ref="E262:I262"/>
+    <mergeCell ref="K262:O262"/>
+    <mergeCell ref="E339:I339"/>
+    <mergeCell ref="K339:O339"/>
+    <mergeCell ref="E290:I290"/>
+    <mergeCell ref="K290:O290"/>
+    <mergeCell ref="E311:I311"/>
+    <mergeCell ref="K311:O311"/>
+    <mergeCell ref="E318:I318"/>
+    <mergeCell ref="K318:O318"/>
+    <mergeCell ref="E325:I325"/>
+    <mergeCell ref="K325:O325"/>
+    <mergeCell ref="E297:I297"/>
+    <mergeCell ref="K297:O297"/>
+    <mergeCell ref="E332:I332"/>
+    <mergeCell ref="K332:O332"/>
+    <mergeCell ref="E346:I346"/>
+    <mergeCell ref="K346:O346"/>
+    <mergeCell ref="E353:I353"/>
+    <mergeCell ref="K353:O353"/>
+    <mergeCell ref="E360:I360"/>
+    <mergeCell ref="K360:O360"/>
     <mergeCell ref="E444:I444"/>
     <mergeCell ref="K444:O444"/>
     <mergeCell ref="E451:I451"/>
@@ -61504,48 +61740,6 @@
     <mergeCell ref="K395:O395"/>
     <mergeCell ref="E402:I402"/>
     <mergeCell ref="K402:O402"/>
-    <mergeCell ref="E346:I346"/>
-    <mergeCell ref="K346:O346"/>
-    <mergeCell ref="E353:I353"/>
-    <mergeCell ref="K353:O353"/>
-    <mergeCell ref="E360:I360"/>
-    <mergeCell ref="K360:O360"/>
-    <mergeCell ref="E339:I339"/>
-    <mergeCell ref="K339:O339"/>
-    <mergeCell ref="E290:I290"/>
-    <mergeCell ref="K290:O290"/>
-    <mergeCell ref="E311:I311"/>
-    <mergeCell ref="K311:O311"/>
-    <mergeCell ref="E318:I318"/>
-    <mergeCell ref="K318:O318"/>
-    <mergeCell ref="E325:I325"/>
-    <mergeCell ref="K325:O325"/>
-    <mergeCell ref="E297:I297"/>
-    <mergeCell ref="K297:O297"/>
-    <mergeCell ref="E332:I332"/>
-    <mergeCell ref="K332:O332"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="E304:I304"/>
-    <mergeCell ref="K304:O304"/>
-    <mergeCell ref="E283:I283"/>
-    <mergeCell ref="K283:O283"/>
-    <mergeCell ref="E276:I276"/>
-    <mergeCell ref="K276:O276"/>
-    <mergeCell ref="E269:I269"/>
-    <mergeCell ref="K269:O269"/>
-    <mergeCell ref="E262:I262"/>
-    <mergeCell ref="K262:O262"/>
-    <mergeCell ref="E437:I437"/>
-    <mergeCell ref="K437:O437"/>
-    <mergeCell ref="E430:I430"/>
-    <mergeCell ref="K430:O430"/>
-    <mergeCell ref="E409:I409"/>
-    <mergeCell ref="K409:O409"/>
-    <mergeCell ref="E416:I416"/>
-    <mergeCell ref="K416:O416"/>
-    <mergeCell ref="E423:I423"/>
-    <mergeCell ref="K423:O423"/>
   </mergeCells>
   <conditionalFormatting sqref="Y216">
     <cfRule type="colorScale" priority="81">
@@ -61557,7 +61751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y209 Y307 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
+  <conditionalFormatting sqref="Y307 Y209 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -61577,7 +61771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD218 AD309 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
+  <conditionalFormatting sqref="AD309 AD218 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/tidsrapport/tidsrapportering3.xlsx
+++ b/tidsrapport/tidsrapportering3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehaagse\Desktop\code_snippets\tidsrapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD35C7-E1BD-442F-A804-5EB8F7436A71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90743323-0A77-411E-BB94-0A2976052428}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016 old" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6430" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6443" uniqueCount="316">
   <si>
     <t>vecka 38</t>
   </si>
@@ -980,6 +980,12 @@
   <si>
     <t>Ayleen tandläkare</t>
   </si>
+  <si>
+    <t>sum md:</t>
+  </si>
+  <si>
+    <t>reported --&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -1328,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1521,6 +1527,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23256,10 +23264,10 @@
   <dimension ref="A1:AK723"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C678" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C663" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S684" sqref="S684"/>
+      <selection pane="bottomRight" activeCell="AJ680" sqref="AJ680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -58315,6 +58323,9 @@
       <c r="AB644" t="s">
         <v>300</v>
       </c>
+      <c r="AC644" t="s">
+        <v>314</v>
+      </c>
       <c r="AE644" s="92"/>
     </row>
     <row r="645" spans="1:33" x14ac:dyDescent="0.35">
@@ -58384,6 +58395,10 @@
       <c r="AB645" s="10">
         <f>AB638+Z645</f>
         <v>-2.036666666666676</v>
+      </c>
+      <c r="AC645" s="10">
+        <f>AC638+Y645</f>
+        <v>40.266666666666673</v>
       </c>
     </row>
     <row r="646" spans="1:33" x14ac:dyDescent="0.35">
@@ -58428,7 +58443,10 @@
       <c r="Z646" s="66"/>
       <c r="AA646" s="66"/>
       <c r="AB646" s="69"/>
-      <c r="AC646" s="58"/>
+      <c r="AC646" s="132">
+        <f>AC639+Y646</f>
+        <v>40</v>
+      </c>
       <c r="AD646" s="124"/>
       <c r="AE646" s="58"/>
       <c r="AF646" s="58"/>
@@ -58706,6 +58724,9 @@
       <c r="AB651" t="s">
         <v>300</v>
       </c>
+      <c r="AC651" t="s">
+        <v>314</v>
+      </c>
       <c r="AE651" s="92"/>
     </row>
     <row r="652" spans="1:33" x14ac:dyDescent="0.35">
@@ -58773,6 +58794,10 @@
       <c r="AB652" s="10">
         <f>AB645+Z652</f>
         <v>-10.353333333333346</v>
+      </c>
+      <c r="AC652" s="10">
+        <f>AC645+Y652</f>
+        <v>71.95</v>
       </c>
     </row>
     <row r="653" spans="1:33" x14ac:dyDescent="0.35">
@@ -58817,7 +58842,10 @@
       <c r="Z653" s="66"/>
       <c r="AA653" s="66"/>
       <c r="AB653" s="69"/>
-      <c r="AC653" s="58"/>
+      <c r="AC653" s="132">
+        <f>AC646+Y653</f>
+        <v>72</v>
+      </c>
       <c r="AD653" s="124"/>
       <c r="AE653" s="58"/>
       <c r="AF653" s="58"/>
@@ -59047,6 +59075,9 @@
       <c r="AB658" t="s">
         <v>300</v>
       </c>
+      <c r="AC658" t="s">
+        <v>314</v>
+      </c>
       <c r="AE658" s="92"/>
     </row>
     <row r="659" spans="1:33" x14ac:dyDescent="0.35">
@@ -59102,6 +59133,10 @@
       <c r="AB659" s="10">
         <f>AB652+Z659</f>
         <v>-50.353333333333346</v>
+      </c>
+      <c r="AC659" s="10">
+        <f>AC652+Y659</f>
+        <v>71.95</v>
       </c>
     </row>
     <row r="660" spans="1:33" x14ac:dyDescent="0.35">
@@ -59146,7 +59181,10 @@
       <c r="Z660" s="66"/>
       <c r="AA660" s="66"/>
       <c r="AB660" s="69"/>
-      <c r="AC660" s="58"/>
+      <c r="AC660" s="132">
+        <f>AC653+Y660</f>
+        <v>72</v>
+      </c>
       <c r="AD660" s="124"/>
       <c r="AE660" s="58"/>
       <c r="AF660" s="58"/>
@@ -59435,6 +59473,9 @@
       <c r="AB665" t="s">
         <v>300</v>
       </c>
+      <c r="AC665" t="s">
+        <v>314</v>
+      </c>
       <c r="AE665" s="92"/>
     </row>
     <row r="666" spans="1:33" x14ac:dyDescent="0.35">
@@ -59504,6 +59545,10 @@
       <c r="AB666" s="10">
         <f>AB659+Z666</f>
         <v>-58.586666666666687</v>
+      </c>
+      <c r="AC666" s="13">
+        <f>Y666</f>
+        <v>31.766666666666662</v>
       </c>
     </row>
     <row r="667" spans="1:33" x14ac:dyDescent="0.35">
@@ -59548,7 +59593,10 @@
       <c r="Z667" s="66"/>
       <c r="AA667" s="66"/>
       <c r="AB667" s="69"/>
-      <c r="AC667" s="58"/>
+      <c r="AC667" s="133">
+        <f>Y667</f>
+        <v>32</v>
+      </c>
       <c r="AD667" s="124"/>
       <c r="AE667" s="58"/>
       <c r="AF667" s="58"/>
@@ -59834,6 +59882,9 @@
       <c r="AB672" t="s">
         <v>300</v>
       </c>
+      <c r="AC672" t="s">
+        <v>314</v>
+      </c>
       <c r="AE672" s="92"/>
     </row>
     <row r="673" spans="1:33" x14ac:dyDescent="0.35">
@@ -59889,6 +59940,10 @@
       <c r="AB673" s="10">
         <f>AB666+Z673</f>
         <v>-57.686666666666682</v>
+      </c>
+      <c r="AC673" s="10">
+        <f>AC666+Y673</f>
+        <v>64.666666666666671</v>
       </c>
     </row>
     <row r="674" spans="1:33" x14ac:dyDescent="0.35">
@@ -59933,7 +59988,10 @@
       <c r="Z674" s="66"/>
       <c r="AA674" s="66"/>
       <c r="AB674" s="69"/>
-      <c r="AC674" s="58"/>
+      <c r="AC674" s="132">
+        <f>AC667+Y674</f>
+        <v>65</v>
+      </c>
       <c r="AD674" s="124"/>
       <c r="AE674" s="58"/>
       <c r="AF674" s="58"/>
@@ -60219,6 +60277,9 @@
       <c r="AB679" t="s">
         <v>300</v>
       </c>
+      <c r="AC679" t="s">
+        <v>314</v>
+      </c>
       <c r="AE679" s="92"/>
     </row>
     <row r="680" spans="1:33" x14ac:dyDescent="0.35">
@@ -60288,6 +60349,10 @@
       <c r="AB680" s="10">
         <f>AB673+Z680</f>
         <v>-58.353333333333353</v>
+      </c>
+      <c r="AC680" s="10">
+        <f>AC673+Y680</f>
+        <v>104</v>
       </c>
     </row>
     <row r="681" spans="1:33" x14ac:dyDescent="0.35">
@@ -60332,7 +60397,10 @@
       <c r="Z681" s="66"/>
       <c r="AA681" s="66"/>
       <c r="AB681" s="69"/>
-      <c r="AC681" s="58"/>
+      <c r="AC681" s="132">
+        <f>AC674+Y681</f>
+        <v>104.5</v>
+      </c>
       <c r="AD681" s="124"/>
       <c r="AE681" s="58"/>
       <c r="AF681" s="58"/>
@@ -60620,6 +60688,9 @@
       <c r="AB686" t="s">
         <v>300</v>
       </c>
+      <c r="AC686" t="s">
+        <v>314</v>
+      </c>
       <c r="AE686" s="92"/>
     </row>
     <row r="687" spans="1:33" x14ac:dyDescent="0.35">
@@ -60687,6 +60758,10 @@
       <c r="AB687" s="10">
         <f>AB680+Z687</f>
         <v>-60.453333333333347</v>
+      </c>
+      <c r="AC687" s="10">
+        <f>AC681+Y687</f>
+        <v>142.4</v>
       </c>
     </row>
     <row r="688" spans="1:33" x14ac:dyDescent="0.35">
@@ -60731,7 +60806,10 @@
       <c r="Z688" s="66"/>
       <c r="AA688" s="66"/>
       <c r="AB688" s="69"/>
-      <c r="AC688" s="58"/>
+      <c r="AC688" s="132">
+        <f>AC681+Y688</f>
+        <v>142.5</v>
+      </c>
       <c r="AD688" s="124"/>
       <c r="AE688" s="58"/>
       <c r="AF688" s="58"/>
@@ -60742,7 +60820,7 @@
         <v>43716</v>
       </c>
       <c r="B689" s="6" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
@@ -60796,8 +60874,20 @@
         <v>1</v>
       </c>
       <c r="D690" s="1"/>
+      <c r="E690">
+        <v>8</v>
+      </c>
+      <c r="F690">
+        <v>40</v>
+      </c>
       <c r="G690" s="79" t="s">
         <v>6</v>
+      </c>
+      <c r="H690">
+        <v>16</v>
+      </c>
+      <c r="I690">
+        <v>28</v>
       </c>
       <c r="J690" s="82" t="s">
         <v>17</v>
@@ -60811,7 +60901,7 @@
       <c r="S690" s="4"/>
       <c r="T690" s="10">
         <f>(I690/60+H690)-(F690/60+E690)</f>
-        <v>0</v>
+        <v>7.7999999999999989</v>
       </c>
       <c r="U690" s="10">
         <f>(O690/60+N690)-(L690/60+K690)</f>
@@ -60820,9 +60910,11 @@
       <c r="V690" s="10"/>
       <c r="W690" s="11">
         <f>T690+U690-Q690*0.5+V690</f>
-        <v>0</v>
-      </c>
-      <c r="X690" s="106"/>
+        <v>7.7999999999999989</v>
+      </c>
+      <c r="X690" s="106">
+        <v>9</v>
+      </c>
       <c r="AC690" s="8"/>
     </row>
     <row r="691" spans="1:33" x14ac:dyDescent="0.35">
@@ -60834,9 +60926,21 @@
         <v>2</v>
       </c>
       <c r="D691" s="1"/>
+      <c r="E691">
+        <v>8</v>
+      </c>
+      <c r="F691">
+        <v>25</v>
+      </c>
       <c r="G691" s="79" t="s">
         <v>6</v>
       </c>
+      <c r="H691">
+        <v>17</v>
+      </c>
+      <c r="I691">
+        <v>15</v>
+      </c>
       <c r="J691" s="82" t="s">
         <v>17</v>
       </c>
@@ -60844,12 +60948,14 @@
         <v>6</v>
       </c>
       <c r="P691" s="1"/>
-      <c r="Q691" s="3"/>
+      <c r="Q691" s="3">
+        <v>1</v>
+      </c>
       <c r="R691" s="5"/>
       <c r="S691" s="4"/>
       <c r="T691" s="10">
         <f>(I691/60+H691)-(F691/60+E691)</f>
-        <v>0</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="U691" s="10">
         <f>(O691/60+N691)-(L691/60+K691)</f>
@@ -60858,9 +60964,11 @@
       <c r="V691" s="10"/>
       <c r="W691" s="11">
         <f>T691+U691-Q691*0.5+V691</f>
-        <v>0</v>
-      </c>
-      <c r="X691" s="10"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="X691" s="10">
+        <v>9</v>
+      </c>
       <c r="Z691" t="s">
         <v>258</v>
       </c>
@@ -60874,8 +60982,20 @@
         <v>3</v>
       </c>
       <c r="D692" s="1"/>
+      <c r="E692">
+        <v>8</v>
+      </c>
+      <c r="F692">
+        <v>10</v>
+      </c>
       <c r="G692" s="79" t="s">
         <v>6</v>
+      </c>
+      <c r="H692">
+        <v>19</v>
+      </c>
+      <c r="I692">
+        <v>20</v>
       </c>
       <c r="J692" s="82" t="s">
         <v>17</v>
@@ -60889,7 +61009,7 @@
       <c r="S692" s="4"/>
       <c r="T692" s="10">
         <f>(I692/60+H692)-(F692/60+E692)</f>
-        <v>0</v>
+        <v>11.166666666666666</v>
       </c>
       <c r="U692" s="10">
         <f>(O692/60+N692)-(L692/60+K692)</f>
@@ -60898,9 +61018,11 @@
       <c r="V692" s="10"/>
       <c r="W692" s="11">
         <f>T692+U692-Q692*0.5+V692</f>
-        <v>0</v>
-      </c>
-      <c r="X692" s="10"/>
+        <v>11.166666666666666</v>
+      </c>
+      <c r="X692" s="10">
+        <v>9</v>
+      </c>
       <c r="Z692" s="74">
         <v>0</v>
       </c>
@@ -60914,8 +61036,20 @@
         <v>4</v>
       </c>
       <c r="D693" s="1"/>
+      <c r="E693">
+        <v>8</v>
+      </c>
+      <c r="F693">
+        <v>2</v>
+      </c>
       <c r="G693" s="79" t="s">
         <v>6</v>
+      </c>
+      <c r="H693">
+        <v>15</v>
+      </c>
+      <c r="I693">
+        <v>40</v>
       </c>
       <c r="J693" s="82" t="s">
         <v>17</v>
@@ -60929,7 +61063,7 @@
       <c r="S693" s="4"/>
       <c r="T693" s="10">
         <f>(I693/60+H693)-(F693/60+E693)</f>
-        <v>0</v>
+        <v>7.6333333333333329</v>
       </c>
       <c r="U693" s="10">
         <f>(O693/60+N693)-(L693/60+K693)</f>
@@ -60938,9 +61072,11 @@
       <c r="V693" s="10"/>
       <c r="W693" s="11">
         <f>T693+U693-Q693*0.5+V693</f>
-        <v>0</v>
-      </c>
-      <c r="X693" s="10"/>
+        <v>7.6333333333333329</v>
+      </c>
+      <c r="X693" s="10">
+        <v>8</v>
+      </c>
       <c r="Y693" t="s">
         <v>11</v>
       </c>
@@ -60952,6 +61088,9 @@
       </c>
       <c r="AB693" t="s">
         <v>300</v>
+      </c>
+      <c r="AC693" t="s">
+        <v>314</v>
       </c>
       <c r="AE693" s="92"/>
     </row>
@@ -60964,8 +61103,20 @@
         <v>5</v>
       </c>
       <c r="D694" s="1"/>
+      <c r="E694">
+        <v>8</v>
+      </c>
+      <c r="F694">
+        <v>23</v>
+      </c>
       <c r="G694" s="79" t="s">
         <v>6</v>
+      </c>
+      <c r="H694">
+        <v>16</v>
+      </c>
+      <c r="I694">
+        <v>30</v>
       </c>
       <c r="J694" s="82" t="s">
         <v>17</v>
@@ -60979,7 +61130,7 @@
       <c r="S694" s="4"/>
       <c r="T694" s="10">
         <f>(I694/60+H694)-(F694/60+E694)</f>
-        <v>0</v>
+        <v>8.1166666666666671</v>
       </c>
       <c r="U694" s="10">
         <f>(O694/60+N694)-(L694/60+K694)</f>
@@ -60988,24 +61139,30 @@
       <c r="V694" s="10"/>
       <c r="W694" s="11">
         <f>T694+U694-Q694*0.5+V694</f>
-        <v>0</v>
-      </c>
-      <c r="X694" s="10"/>
+        <v>8.1166666666666671</v>
+      </c>
+      <c r="X694" s="10">
+        <v>8</v>
+      </c>
       <c r="Y694" s="12">
         <f>SUM(W690:W694)</f>
-        <v>0</v>
+        <v>43.05</v>
       </c>
       <c r="Z694" s="10">
         <f>Y694-(8*(5-Z692))+SUM(S690:S694)*8</f>
-        <v>-40</v>
+        <v>3.0499999999999972</v>
       </c>
       <c r="AA694" s="10">
         <f>AA687+Z694</f>
-        <v>-104.1</v>
+        <v>-61.05</v>
       </c>
       <c r="AB694" s="10">
         <f>AB687+Z694</f>
-        <v>-100.45333333333335</v>
+        <v>-57.40333333333335</v>
+      </c>
+      <c r="AC694" s="10">
+        <f>AC687+Y694</f>
+        <v>185.45</v>
       </c>
     </row>
     <row r="695" spans="1:33" x14ac:dyDescent="0.35">
@@ -61042,15 +61199,20 @@
       <c r="U695" s="71"/>
       <c r="V695" s="71"/>
       <c r="W695" s="72"/>
-      <c r="X695" s="68"/>
+      <c r="X695" s="68" t="s">
+        <v>315</v>
+      </c>
       <c r="Y695" s="120">
         <f>SUM(X690:X694)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Z695" s="66"/>
       <c r="AA695" s="66"/>
       <c r="AB695" s="69"/>
-      <c r="AC695" s="58"/>
+      <c r="AC695" s="132">
+        <f>AC688+Y695</f>
+        <v>185.5</v>
+      </c>
       <c r="AD695" s="124"/>
       <c r="AE695" s="58"/>
       <c r="AF695" s="58"/>
@@ -61272,6 +61434,9 @@
       <c r="AB700" t="s">
         <v>300</v>
       </c>
+      <c r="AC700" t="s">
+        <v>314</v>
+      </c>
       <c r="AE700" s="92"/>
     </row>
     <row r="701" spans="1:33" x14ac:dyDescent="0.35">
@@ -61320,11 +61485,15 @@
       </c>
       <c r="AA701" s="10">
         <f>AA694+Z701</f>
-        <v>-144.1</v>
+        <v>-101.05</v>
       </c>
       <c r="AB701" s="10">
         <f>AB694+Z701</f>
-        <v>-140.45333333333335</v>
+        <v>-97.40333333333335</v>
+      </c>
+      <c r="AC701" s="10">
+        <f>AC694+Y701</f>
+        <v>185.45</v>
       </c>
     </row>
     <row r="702" spans="1:33" x14ac:dyDescent="0.35">
@@ -61369,7 +61538,10 @@
       <c r="Z702" s="66"/>
       <c r="AA702" s="66"/>
       <c r="AB702" s="69"/>
-      <c r="AC702" s="58"/>
+      <c r="AC702" s="132">
+        <f>AC695+Y702</f>
+        <v>185.5</v>
+      </c>
       <c r="AD702" s="124"/>
       <c r="AE702" s="58"/>
       <c r="AF702" s="58"/>
@@ -61591,6 +61763,9 @@
       <c r="AB707" t="s">
         <v>300</v>
       </c>
+      <c r="AC707" t="s">
+        <v>314</v>
+      </c>
       <c r="AE707" s="92"/>
     </row>
     <row r="708" spans="1:33" x14ac:dyDescent="0.35">
@@ -61639,11 +61814,15 @@
       </c>
       <c r="AA708" s="10">
         <f>AA701+Z708</f>
-        <v>-184.1</v>
+        <v>-141.05000000000001</v>
       </c>
       <c r="AB708" s="10">
         <f>AB701+Z708</f>
-        <v>-180.45333333333335</v>
+        <v>-137.40333333333336</v>
+      </c>
+      <c r="AC708" s="10">
+        <f>AC701+Y708</f>
+        <v>185.45</v>
       </c>
     </row>
     <row r="709" spans="1:33" x14ac:dyDescent="0.35">
@@ -61688,7 +61867,10 @@
       <c r="Z709" s="66"/>
       <c r="AA709" s="66"/>
       <c r="AB709" s="69"/>
-      <c r="AC709" s="58"/>
+      <c r="AC709" s="132">
+        <f>AC702+Y709</f>
+        <v>185.5</v>
+      </c>
       <c r="AD709" s="124"/>
       <c r="AE709" s="58"/>
       <c r="AF709" s="58"/>
@@ -61910,6 +62092,9 @@
       <c r="AB714" t="s">
         <v>300</v>
       </c>
+      <c r="AC714" t="s">
+        <v>314</v>
+      </c>
       <c r="AE714" s="92"/>
     </row>
     <row r="715" spans="1:33" x14ac:dyDescent="0.35">
@@ -61958,11 +62143,15 @@
       </c>
       <c r="AA715" s="10">
         <f>AA708+Z715</f>
-        <v>-224.1</v>
+        <v>-181.05</v>
       </c>
       <c r="AB715" s="10">
         <f>AB708+Z715</f>
-        <v>-220.45333333333335</v>
+        <v>-177.40333333333336</v>
+      </c>
+      <c r="AC715" s="10">
+        <f>AC708+Y715</f>
+        <v>185.45</v>
       </c>
     </row>
     <row r="716" spans="1:33" x14ac:dyDescent="0.35">
@@ -62007,7 +62196,10 @@
       <c r="Z716" s="66"/>
       <c r="AA716" s="66"/>
       <c r="AB716" s="69"/>
-      <c r="AC716" s="58"/>
+      <c r="AC716" s="132">
+        <f>AC709+Y716</f>
+        <v>185.5</v>
+      </c>
       <c r="AD716" s="124"/>
       <c r="AE716" s="58"/>
       <c r="AF716" s="58"/>
@@ -62229,6 +62421,9 @@
       <c r="AB721" t="s">
         <v>300</v>
       </c>
+      <c r="AC721" t="s">
+        <v>314</v>
+      </c>
       <c r="AE721" s="92"/>
     </row>
     <row r="722" spans="1:33" x14ac:dyDescent="0.35">
@@ -62277,11 +62472,15 @@
       </c>
       <c r="AA722" s="10">
         <f>AA715+Z722</f>
-        <v>-264.10000000000002</v>
+        <v>-221.05</v>
       </c>
       <c r="AB722" s="10">
         <f>AB715+Z722</f>
-        <v>-260.45333333333338</v>
+        <v>-217.40333333333336</v>
+      </c>
+      <c r="AC722" s="10">
+        <f>AC715+Y722</f>
+        <v>185.45</v>
       </c>
     </row>
     <row r="723" spans="1:33" x14ac:dyDescent="0.35">
@@ -62326,7 +62525,10 @@
       <c r="Z723" s="66"/>
       <c r="AA723" s="66"/>
       <c r="AB723" s="69"/>
-      <c r="AC723" s="58"/>
+      <c r="AC723" s="132">
+        <f>AC716+Y723</f>
+        <v>185.5</v>
+      </c>
       <c r="AD723" s="124"/>
       <c r="AE723" s="58"/>
       <c r="AF723" s="58"/>
@@ -62334,48 +62536,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E437:I437"/>
-    <mergeCell ref="K437:O437"/>
-    <mergeCell ref="E430:I430"/>
-    <mergeCell ref="K430:O430"/>
-    <mergeCell ref="E409:I409"/>
-    <mergeCell ref="K409:O409"/>
-    <mergeCell ref="E416:I416"/>
-    <mergeCell ref="K416:O416"/>
-    <mergeCell ref="E423:I423"/>
-    <mergeCell ref="K423:O423"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="E304:I304"/>
-    <mergeCell ref="K304:O304"/>
-    <mergeCell ref="E283:I283"/>
-    <mergeCell ref="K283:O283"/>
-    <mergeCell ref="E276:I276"/>
-    <mergeCell ref="K276:O276"/>
-    <mergeCell ref="E269:I269"/>
-    <mergeCell ref="K269:O269"/>
-    <mergeCell ref="E262:I262"/>
-    <mergeCell ref="K262:O262"/>
-    <mergeCell ref="E339:I339"/>
-    <mergeCell ref="K339:O339"/>
-    <mergeCell ref="E290:I290"/>
-    <mergeCell ref="K290:O290"/>
-    <mergeCell ref="E311:I311"/>
-    <mergeCell ref="K311:O311"/>
-    <mergeCell ref="E318:I318"/>
-    <mergeCell ref="K318:O318"/>
-    <mergeCell ref="E325:I325"/>
-    <mergeCell ref="K325:O325"/>
-    <mergeCell ref="E297:I297"/>
-    <mergeCell ref="K297:O297"/>
-    <mergeCell ref="E332:I332"/>
-    <mergeCell ref="K332:O332"/>
-    <mergeCell ref="E346:I346"/>
-    <mergeCell ref="K346:O346"/>
-    <mergeCell ref="E353:I353"/>
-    <mergeCell ref="K353:O353"/>
-    <mergeCell ref="E360:I360"/>
-    <mergeCell ref="K360:O360"/>
     <mergeCell ref="E444:I444"/>
     <mergeCell ref="K444:O444"/>
     <mergeCell ref="E451:I451"/>
@@ -62392,6 +62552,48 @@
     <mergeCell ref="K395:O395"/>
     <mergeCell ref="E402:I402"/>
     <mergeCell ref="K402:O402"/>
+    <mergeCell ref="E346:I346"/>
+    <mergeCell ref="K346:O346"/>
+    <mergeCell ref="E353:I353"/>
+    <mergeCell ref="K353:O353"/>
+    <mergeCell ref="E360:I360"/>
+    <mergeCell ref="K360:O360"/>
+    <mergeCell ref="E339:I339"/>
+    <mergeCell ref="K339:O339"/>
+    <mergeCell ref="E290:I290"/>
+    <mergeCell ref="K290:O290"/>
+    <mergeCell ref="E311:I311"/>
+    <mergeCell ref="K311:O311"/>
+    <mergeCell ref="E318:I318"/>
+    <mergeCell ref="K318:O318"/>
+    <mergeCell ref="E325:I325"/>
+    <mergeCell ref="K325:O325"/>
+    <mergeCell ref="E297:I297"/>
+    <mergeCell ref="K297:O297"/>
+    <mergeCell ref="E332:I332"/>
+    <mergeCell ref="K332:O332"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="E304:I304"/>
+    <mergeCell ref="K304:O304"/>
+    <mergeCell ref="E283:I283"/>
+    <mergeCell ref="K283:O283"/>
+    <mergeCell ref="E276:I276"/>
+    <mergeCell ref="K276:O276"/>
+    <mergeCell ref="E269:I269"/>
+    <mergeCell ref="K269:O269"/>
+    <mergeCell ref="E262:I262"/>
+    <mergeCell ref="K262:O262"/>
+    <mergeCell ref="E437:I437"/>
+    <mergeCell ref="K437:O437"/>
+    <mergeCell ref="E430:I430"/>
+    <mergeCell ref="K430:O430"/>
+    <mergeCell ref="E409:I409"/>
+    <mergeCell ref="K409:O409"/>
+    <mergeCell ref="E416:I416"/>
+    <mergeCell ref="K416:O416"/>
+    <mergeCell ref="E423:I423"/>
+    <mergeCell ref="K423:O423"/>
   </mergeCells>
   <conditionalFormatting sqref="Y216">
     <cfRule type="colorScale" priority="81">
@@ -62403,7 +62605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y307 Y209 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
+  <conditionalFormatting sqref="Y209 Y307 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -62423,7 +62625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD309 AD218 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
+  <conditionalFormatting sqref="AD218 AD309 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/tidsrapport/tidsrapportering3.xlsx
+++ b/tidsrapport/tidsrapportering3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehaagse\Desktop\code_snippets\tidsrapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACC3C4C-A932-454B-ADE2-35B890373FF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF637DAF-D7BD-4778-A156-7BD538CA8AC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016 old" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6805" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6817" uniqueCount="318">
   <si>
     <t>vecka 38</t>
   </si>
@@ -989,6 +989,9 @@
   <si>
     <t>1,5 hackaton</t>
   </si>
+  <si>
+    <t>Alice' tandläkare</t>
+  </si>
 </sst>
 </file>
 
@@ -23273,10 +23276,10 @@
   <dimension ref="A1:AK786"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C724" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C700" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X725" sqref="X725"/>
+      <selection pane="bottomRight" activeCell="X721" sqref="X721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23298,7 +23301,7 @@
     <col min="20" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2.140625" customWidth="1"/>
     <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
     <col min="25" max="25" width="10.5703125" customWidth="1"/>
     <col min="26" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.7109375" style="99"/>
@@ -62637,7 +62640,9 @@
         <f>T720+U720-Q720*0.5+V720</f>
         <v>0</v>
       </c>
-      <c r="X720" s="10"/>
+      <c r="X720" s="10">
+        <v>0</v>
+      </c>
       <c r="Z720" s="74">
         <v>1</v>
       </c>
@@ -62825,7 +62830,9 @@
       </c>
       <c r="Z723" s="66"/>
       <c r="AA723" s="66"/>
-      <c r="AB723" s="69"/>
+      <c r="AB723" s="69" t="s">
+        <v>285</v>
+      </c>
       <c r="AC723" s="129">
         <f>AC716+Y723</f>
         <v>324</v>
@@ -63242,7 +63249,9 @@
       </c>
       <c r="Z730" s="66"/>
       <c r="AA730" s="66"/>
-      <c r="AB730" s="69"/>
+      <c r="AB730" s="69" t="s">
+        <v>285</v>
+      </c>
       <c r="AC730" s="129">
         <f>AC723+Y730</f>
         <v>364</v>
@@ -63649,7 +63658,9 @@
       </c>
       <c r="Z737" s="66"/>
       <c r="AA737" s="66"/>
-      <c r="AB737" s="69"/>
+      <c r="AB737" s="69" t="s">
+        <v>285</v>
+      </c>
       <c r="AC737" s="129">
         <f>AC730+Y737</f>
         <v>406.5</v>
@@ -63664,7 +63675,7 @@
         <v>43765</v>
       </c>
       <c r="B738" s="6" t="s">
-        <v>298</v>
+        <v>24</v>
       </c>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
@@ -63713,7 +63724,9 @@
       <c r="A739" s="52">
         <v>43766</v>
       </c>
-      <c r="B739" s="9"/>
+      <c r="B739" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C739" s="1" t="s">
         <v>1</v>
       </c>
@@ -63751,7 +63764,9 @@
       <c r="A740" s="52">
         <v>43767</v>
       </c>
-      <c r="B740" s="9"/>
+      <c r="B740" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C740" s="1" t="s">
         <v>2</v>
       </c>
@@ -63791,7 +63806,9 @@
       <c r="A741" s="52">
         <v>43768</v>
       </c>
-      <c r="B741" s="9"/>
+      <c r="B741" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C741" s="1" t="s">
         <v>3</v>
       </c>
@@ -63824,14 +63841,16 @@
       </c>
       <c r="X741" s="10"/>
       <c r="Z741" s="74">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="742" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A742" s="52">
         <v>43769</v>
       </c>
-      <c r="B742" s="9"/>
+      <c r="B742" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C742" s="1" t="s">
         <v>4</v>
       </c>
@@ -63884,7 +63903,9 @@
       <c r="A743" s="52">
         <v>43770</v>
       </c>
-      <c r="B743" s="9"/>
+      <c r="B743" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="C743" s="1" t="s">
         <v>5</v>
       </c>
@@ -63922,15 +63943,15 @@
       </c>
       <c r="Z743" s="10">
         <f>Y743-(8*(5-Z741))+SUM(S739:S743)*8</f>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="AA743" s="10">
         <f>AA736+Z743</f>
-        <v>-111.7</v>
+        <v>-71.7</v>
       </c>
       <c r="AB743" s="10">
         <f>AB736+Z743</f>
-        <v>-108.05333333333336</v>
+        <v>-68.053333333333356</v>
       </c>
       <c r="AC743" s="10">
         <f>AC736+Y743</f>
@@ -63978,7 +63999,9 @@
       </c>
       <c r="Z744" s="66"/>
       <c r="AA744" s="66"/>
-      <c r="AB744" s="69"/>
+      <c r="AB744" s="69" t="s">
+        <v>285</v>
+      </c>
       <c r="AC744" s="129">
         <f>AC737+Y744</f>
         <v>406.5</v>
@@ -63993,7 +64016,7 @@
         <v>43772</v>
       </c>
       <c r="B745" s="6" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
@@ -64047,8 +64070,20 @@
         <v>1</v>
       </c>
       <c r="D746" s="1"/>
+      <c r="E746">
+        <v>8</v>
+      </c>
+      <c r="F746">
+        <v>33</v>
+      </c>
       <c r="G746" s="79" t="s">
         <v>6</v>
+      </c>
+      <c r="H746">
+        <v>15</v>
+      </c>
+      <c r="I746">
+        <v>31</v>
       </c>
       <c r="J746" s="82" t="s">
         <v>17</v>
@@ -64062,7 +64097,7 @@
       <c r="S746" s="4"/>
       <c r="T746" s="10">
         <f>(I746/60+H746)-(F746/60+E746)</f>
-        <v>0</v>
+        <v>6.9666666666666668</v>
       </c>
       <c r="U746" s="10">
         <f>(O746/60+N746)-(L746/60+K746)</f>
@@ -64071,9 +64106,11 @@
       <c r="V746" s="10"/>
       <c r="W746" s="11">
         <f>T746+U746-Q746*0.5+V746</f>
-        <v>0</v>
-      </c>
-      <c r="X746" s="106"/>
+        <v>6.9666666666666668</v>
+      </c>
+      <c r="X746" s="106">
+        <v>8</v>
+      </c>
       <c r="AC746" s="8"/>
     </row>
     <row r="747" spans="1:33" x14ac:dyDescent="0.25">
@@ -64085,9 +64122,21 @@
         <v>2</v>
       </c>
       <c r="D747" s="1"/>
+      <c r="E747">
+        <v>8</v>
+      </c>
+      <c r="F747">
+        <v>51</v>
+      </c>
       <c r="G747" s="79" t="s">
         <v>6</v>
       </c>
+      <c r="H747">
+        <v>17</v>
+      </c>
+      <c r="I747">
+        <v>15</v>
+      </c>
       <c r="J747" s="82" t="s">
         <v>17</v>
       </c>
@@ -64095,12 +64144,14 @@
         <v>6</v>
       </c>
       <c r="P747" s="1"/>
-      <c r="Q747" s="3"/>
+      <c r="Q747" s="3">
+        <v>2</v>
+      </c>
       <c r="R747" s="5"/>
       <c r="S747" s="4"/>
       <c r="T747" s="10">
         <f>(I747/60+H747)-(F747/60+E747)</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="U747" s="10">
         <f>(O747/60+N747)-(L747/60+K747)</f>
@@ -64109,9 +64160,11 @@
       <c r="V747" s="10"/>
       <c r="W747" s="11">
         <f>T747+U747-Q747*0.5+V747</f>
-        <v>0</v>
-      </c>
-      <c r="X747" s="10"/>
+        <v>7.4</v>
+      </c>
+      <c r="X747" s="10">
+        <v>8</v>
+      </c>
       <c r="Z747" t="s">
         <v>258</v>
       </c>
@@ -64120,13 +64173,27 @@
       <c r="A748" s="52">
         <v>43775</v>
       </c>
-      <c r="B748" s="9"/>
+      <c r="B748" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="C748" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D748" s="1"/>
+      <c r="E748">
+        <v>8</v>
+      </c>
+      <c r="F748">
+        <v>27</v>
+      </c>
       <c r="G748" s="79" t="s">
         <v>6</v>
+      </c>
+      <c r="H748">
+        <v>14</v>
+      </c>
+      <c r="I748">
+        <v>50</v>
       </c>
       <c r="J748" s="82" t="s">
         <v>17</v>
@@ -64140,7 +64207,7 @@
       <c r="S748" s="4"/>
       <c r="T748" s="10">
         <f>(I748/60+H748)-(F748/60+E748)</f>
-        <v>0</v>
+        <v>6.3833333333333346</v>
       </c>
       <c r="U748" s="10">
         <f>(O748/60+N748)-(L748/60+K748)</f>
@@ -64149,9 +64216,11 @@
       <c r="V748" s="10"/>
       <c r="W748" s="11">
         <f>T748+U748-Q748*0.5+V748</f>
-        <v>0</v>
-      </c>
-      <c r="X748" s="10"/>
+        <v>6.3833333333333346</v>
+      </c>
+      <c r="X748" s="10">
+        <v>6</v>
+      </c>
       <c r="Z748" s="74">
         <v>0</v>
       </c>
@@ -64165,9 +64234,21 @@
         <v>4</v>
       </c>
       <c r="D749" s="1"/>
+      <c r="E749">
+        <v>8</v>
+      </c>
+      <c r="F749">
+        <v>41</v>
+      </c>
       <c r="G749" s="79" t="s">
         <v>6</v>
       </c>
+      <c r="H749">
+        <v>20</v>
+      </c>
+      <c r="I749">
+        <v>0</v>
+      </c>
       <c r="J749" s="82" t="s">
         <v>17</v>
       </c>
@@ -64175,12 +64256,14 @@
         <v>6</v>
       </c>
       <c r="P749" s="1"/>
-      <c r="Q749" s="3"/>
+      <c r="Q749" s="3">
+        <v>1</v>
+      </c>
       <c r="R749" s="5"/>
       <c r="S749" s="4"/>
       <c r="T749" s="10">
         <f>(I749/60+H749)-(F749/60+E749)</f>
-        <v>0</v>
+        <v>11.316666666666666</v>
       </c>
       <c r="U749" s="10">
         <f>(O749/60+N749)-(L749/60+K749)</f>
@@ -64189,9 +64272,11 @@
       <c r="V749" s="10"/>
       <c r="W749" s="11">
         <f>T749+U749-Q749*0.5+V749</f>
-        <v>0</v>
-      </c>
-      <c r="X749" s="10"/>
+        <v>10.816666666666666</v>
+      </c>
+      <c r="X749" s="10">
+        <v>8</v>
+      </c>
       <c r="Y749" t="s">
         <v>11</v>
       </c>
@@ -64218,9 +64303,21 @@
         <v>5</v>
       </c>
       <c r="D750" s="1"/>
+      <c r="E750">
+        <v>10</v>
+      </c>
+      <c r="F750">
+        <v>48</v>
+      </c>
       <c r="G750" s="79" t="s">
         <v>6</v>
       </c>
+      <c r="H750">
+        <v>17</v>
+      </c>
+      <c r="I750">
+        <v>30</v>
+      </c>
       <c r="J750" s="82" t="s">
         <v>17</v>
       </c>
@@ -64228,12 +64325,14 @@
         <v>6</v>
       </c>
       <c r="P750" s="1"/>
-      <c r="Q750" s="3"/>
+      <c r="Q750" s="3">
+        <v>1</v>
+      </c>
       <c r="R750" s="5"/>
       <c r="S750" s="4"/>
       <c r="T750" s="10">
         <f>(I750/60+H750)-(F750/60+E750)</f>
-        <v>0</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="U750" s="10">
         <f>(O750/60+N750)-(L750/60+K750)</f>
@@ -64242,28 +64341,30 @@
       <c r="V750" s="10"/>
       <c r="W750" s="11">
         <f>T750+U750-Q750*0.5+V750</f>
-        <v>0</v>
-      </c>
-      <c r="X750" s="10"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="X750" s="10">
+        <v>8</v>
+      </c>
       <c r="Y750" s="12">
         <f>SUM(W746:W750)</f>
-        <v>0</v>
+        <v>37.766666666666666</v>
       </c>
       <c r="Z750" s="10">
         <f>Y750-(8*(5-Z748))+SUM(S746:S750)*8</f>
-        <v>-40</v>
+        <v>-2.2333333333333343</v>
       </c>
       <c r="AA750" s="10">
         <f>AA743+Z750</f>
-        <v>-151.69999999999999</v>
+        <v>-73.933333333333337</v>
       </c>
       <c r="AB750" s="10">
         <f>AB743+Z750</f>
-        <v>-148.05333333333334</v>
+        <v>-70.28666666666669</v>
       </c>
       <c r="AC750" s="10">
         <f>AC743+Y750</f>
-        <v>406.8</v>
+        <v>444.56666666666666</v>
       </c>
     </row>
     <row r="751" spans="1:33" x14ac:dyDescent="0.25">
@@ -64303,14 +64404,16 @@
       <c r="X751" s="68"/>
       <c r="Y751" s="120">
         <f>SUM(X746:X750)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z751" s="66"/>
       <c r="AA751" s="66"/>
-      <c r="AB751" s="69"/>
+      <c r="AB751" s="69" t="s">
+        <v>285</v>
+      </c>
       <c r="AC751" s="129">
         <f>AC744+Y751</f>
-        <v>406.5</v>
+        <v>444.5</v>
       </c>
       <c r="AD751" s="124"/>
       <c r="AE751" s="58"/>
@@ -64322,7 +64425,7 @@
         <v>43779</v>
       </c>
       <c r="B752" s="6" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
@@ -64376,9 +64479,21 @@
         <v>1</v>
       </c>
       <c r="D753" s="1"/>
+      <c r="E753">
+        <v>8</v>
+      </c>
+      <c r="F753">
+        <v>50</v>
+      </c>
       <c r="G753" s="79" t="s">
         <v>6</v>
       </c>
+      <c r="H753">
+        <v>17</v>
+      </c>
+      <c r="I753">
+        <v>5</v>
+      </c>
       <c r="J753" s="82" t="s">
         <v>17</v>
       </c>
@@ -64386,12 +64501,14 @@
         <v>6</v>
       </c>
       <c r="P753" s="1"/>
-      <c r="Q753" s="3"/>
+      <c r="Q753" s="3">
+        <v>1</v>
+      </c>
       <c r="R753" s="5"/>
       <c r="S753" s="4"/>
       <c r="T753" s="10">
         <f>(I753/60+H753)-(F753/60+E753)</f>
-        <v>0</v>
+        <v>8.2499999999999982</v>
       </c>
       <c r="U753" s="10">
         <f>(O753/60+N753)-(L753/60+K753)</f>
@@ -64400,7 +64517,7 @@
       <c r="V753" s="10"/>
       <c r="W753" s="11">
         <f>T753+U753-Q753*0.5+V753</f>
-        <v>0</v>
+        <v>7.7499999999999982</v>
       </c>
       <c r="X753" s="106"/>
       <c r="AC753" s="8"/>
@@ -64414,8 +64531,20 @@
         <v>2</v>
       </c>
       <c r="D754" s="1"/>
+      <c r="E754">
+        <v>8</v>
+      </c>
+      <c r="F754">
+        <v>23</v>
+      </c>
       <c r="G754" s="79" t="s">
         <v>6</v>
+      </c>
+      <c r="H754">
+        <v>17</v>
+      </c>
+      <c r="I754">
+        <v>5</v>
       </c>
       <c r="J754" s="82" t="s">
         <v>17</v>
@@ -64429,7 +64558,7 @@
       <c r="S754" s="4"/>
       <c r="T754" s="10">
         <f>(I754/60+H754)-(F754/60+E754)</f>
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="U754" s="10">
         <f>(O754/60+N754)-(L754/60+K754)</f>
@@ -64438,7 +64567,7 @@
       <c r="V754" s="10"/>
       <c r="W754" s="11">
         <f>T754+U754-Q754*0.5+V754</f>
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="X754" s="10"/>
       <c r="Z754" t="s">
@@ -64454,8 +64583,20 @@
         <v>3</v>
       </c>
       <c r="D755" s="1"/>
+      <c r="E755">
+        <v>8</v>
+      </c>
+      <c r="F755">
+        <v>21</v>
+      </c>
       <c r="G755" s="79" t="s">
         <v>6</v>
+      </c>
+      <c r="H755">
+        <v>16</v>
+      </c>
+      <c r="I755">
+        <v>0</v>
       </c>
       <c r="J755" s="82" t="s">
         <v>17</v>
@@ -64469,7 +64610,7 @@
       <c r="S755" s="4"/>
       <c r="T755" s="10">
         <f>(I755/60+H755)-(F755/60+E755)</f>
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="U755" s="10">
         <f>(O755/60+N755)-(L755/60+K755)</f>
@@ -64478,7 +64619,7 @@
       <c r="V755" s="10"/>
       <c r="W755" s="11">
         <f>T755+U755-Q755*0.5+V755</f>
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="X755" s="10"/>
       <c r="Z755" s="74">
@@ -64576,23 +64717,23 @@
       <c r="X757" s="10"/>
       <c r="Y757" s="12">
         <f>SUM(W753:W757)</f>
-        <v>0</v>
+        <v>24.099999999999994</v>
       </c>
       <c r="Z757" s="10">
         <f>Y757-(8*(5-Z755))+SUM(S753:S757)*8</f>
-        <v>-40</v>
+        <v>-15.900000000000006</v>
       </c>
       <c r="AA757" s="10">
         <f>AA750+Z757</f>
-        <v>-191.7</v>
+        <v>-89.833333333333343</v>
       </c>
       <c r="AB757" s="10">
         <f>AB750+Z757</f>
-        <v>-188.05333333333334</v>
+        <v>-86.186666666666696</v>
       </c>
       <c r="AC757" s="10">
         <f>AC750+Y757</f>
-        <v>406.8</v>
+        <v>468.66666666666663</v>
       </c>
     </row>
     <row r="758" spans="1:33" x14ac:dyDescent="0.25">
@@ -64636,10 +64777,12 @@
       </c>
       <c r="Z758" s="66"/>
       <c r="AA758" s="66"/>
-      <c r="AB758" s="69"/>
+      <c r="AB758" s="69" t="s">
+        <v>285</v>
+      </c>
       <c r="AC758" s="129">
         <f>AC751+Y758</f>
-        <v>406.5</v>
+        <v>444.5</v>
       </c>
       <c r="AD758" s="124"/>
       <c r="AE758" s="58"/>
@@ -64913,15 +65056,15 @@
       </c>
       <c r="AA764" s="10">
         <f>AA757+Z764</f>
-        <v>-231.7</v>
+        <v>-129.83333333333334</v>
       </c>
       <c r="AB764" s="10">
         <f>AB757+Z764</f>
-        <v>-228.05333333333334</v>
+        <v>-126.1866666666667</v>
       </c>
       <c r="AC764" s="10">
         <f>AC757+Y764</f>
-        <v>406.8</v>
+        <v>468.66666666666663</v>
       </c>
     </row>
     <row r="765" spans="1:33" x14ac:dyDescent="0.25">
@@ -64968,7 +65111,7 @@
       <c r="AB765" s="69"/>
       <c r="AC765" s="129">
         <f>AC758+Y765</f>
-        <v>406.5</v>
+        <v>444.5</v>
       </c>
       <c r="AD765" s="124"/>
       <c r="AE765" s="58"/>
@@ -65242,15 +65385,15 @@
       </c>
       <c r="AA771" s="10">
         <f>AA764+Z771</f>
-        <v>-271.7</v>
+        <v>-169.83333333333334</v>
       </c>
       <c r="AB771" s="10">
         <f>AB764+Z771</f>
-        <v>-268.05333333333334</v>
+        <v>-166.1866666666667</v>
       </c>
       <c r="AC771" s="10">
         <f>AC764+Y771</f>
-        <v>406.8</v>
+        <v>468.66666666666663</v>
       </c>
     </row>
     <row r="772" spans="1:33" x14ac:dyDescent="0.25">
@@ -65297,7 +65440,7 @@
       <c r="AB772" s="69"/>
       <c r="AC772" s="129">
         <f>AC765+Y772</f>
-        <v>406.5</v>
+        <v>444.5</v>
       </c>
       <c r="AD772" s="124"/>
       <c r="AE772" s="58"/>
@@ -65571,15 +65714,15 @@
       </c>
       <c r="AA778" s="10">
         <f>AA771+Z778</f>
-        <v>-311.7</v>
+        <v>-209.83333333333334</v>
       </c>
       <c r="AB778" s="10">
         <f>AB771+Z778</f>
-        <v>-308.05333333333334</v>
+        <v>-206.1866666666667</v>
       </c>
       <c r="AC778" s="10">
         <f>AC771+Y778</f>
-        <v>406.8</v>
+        <v>468.66666666666663</v>
       </c>
     </row>
     <row r="779" spans="1:33" x14ac:dyDescent="0.25">
@@ -65626,7 +65769,7 @@
       <c r="AB779" s="69"/>
       <c r="AC779" s="129">
         <f>AC772+Y779</f>
-        <v>406.5</v>
+        <v>444.5</v>
       </c>
       <c r="AD779" s="124"/>
       <c r="AE779" s="58"/>
@@ -65900,15 +66043,15 @@
       </c>
       <c r="AA785" s="10">
         <f>AA778+Z785</f>
-        <v>-351.7</v>
+        <v>-249.83333333333334</v>
       </c>
       <c r="AB785" s="10">
         <f>AB778+Z785</f>
-        <v>-348.05333333333334</v>
+        <v>-246.1866666666667</v>
       </c>
       <c r="AC785" s="10">
         <f>AC778+Y785</f>
-        <v>406.8</v>
+        <v>468.66666666666663</v>
       </c>
     </row>
     <row r="786" spans="1:33" x14ac:dyDescent="0.25">
@@ -65955,7 +66098,7 @@
       <c r="AB786" s="69"/>
       <c r="AC786" s="129">
         <f>AC779+Y786</f>
-        <v>406.5</v>
+        <v>444.5</v>
       </c>
       <c r="AD786" s="124"/>
       <c r="AE786" s="58"/>
@@ -66024,6 +66167,176 @@
     <mergeCell ref="K423:O423"/>
   </mergeCells>
   <conditionalFormatting sqref="Y216">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y209 Y307 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD273">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD218 AD309 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD211">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD204">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y314">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD316">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y321">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD323">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y328">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD330">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y335">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH333">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y342">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y349">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y356">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y363">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66033,8 +66346,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y209 Y307 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
-    <cfRule type="colorScale" priority="89">
+  <conditionalFormatting sqref="Y370">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -66043,48 +66356,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD273">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD218 AD309 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
+  <conditionalFormatting sqref="Y377">
     <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD211">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD204">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y314">
-    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -66093,17 +66366,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD316">
+  <conditionalFormatting sqref="Z384">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z391">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
         <color theme="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y321">
+  <conditionalFormatting sqref="Z398">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66113,17 +66396,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD323">
+  <conditionalFormatting sqref="Z405">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
         <color theme="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y328">
+  <conditionalFormatting sqref="Z412">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66133,17 +66416,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD330">
+  <conditionalFormatting sqref="Z419">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
         <color theme="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y335">
+  <conditionalFormatting sqref="Z426">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66153,17 +66436,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH333">
+  <conditionalFormatting sqref="Z433">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
         <color theme="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y342">
+  <conditionalFormatting sqref="Z440">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66173,7 +66456,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y349">
+  <conditionalFormatting sqref="Z447">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z454">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66183,7 +66476,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y356">
+  <conditionalFormatting sqref="Z461">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z468">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66193,7 +66496,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y363">
+  <conditionalFormatting sqref="Z475">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z482">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66203,7 +66516,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y370">
+  <conditionalFormatting sqref="Z489">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z496">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66213,7 +66536,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y377">
+  <conditionalFormatting sqref="Z503">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z510">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66223,7 +66556,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z384">
+  <conditionalFormatting sqref="Z517">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z524">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66233,7 +66576,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z391">
+  <conditionalFormatting sqref="Z531">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z538">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66243,7 +66596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z398">
+  <conditionalFormatting sqref="Z545">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66253,7 +66606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z405">
+  <conditionalFormatting sqref="Z552">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66263,7 +66616,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z412">
+  <conditionalFormatting sqref="Z559">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66273,7 +66626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z419">
+  <conditionalFormatting sqref="Z566">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66283,7 +66636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z426">
+  <conditionalFormatting sqref="Z573">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66293,7 +66646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z433">
+  <conditionalFormatting sqref="Z580">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66303,7 +66656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z440">
+  <conditionalFormatting sqref="Z587">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66313,7 +66666,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z447">
+  <conditionalFormatting sqref="Z594">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66323,7 +66676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z454">
+  <conditionalFormatting sqref="Z601">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66333,7 +66686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z461">
+  <conditionalFormatting sqref="Z608">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66343,7 +66696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z468">
+  <conditionalFormatting sqref="Z615">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66353,7 +66706,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z475">
+  <conditionalFormatting sqref="Z622">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66363,7 +66716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z482">
+  <conditionalFormatting sqref="Z629">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66373,7 +66726,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z489">
+  <conditionalFormatting sqref="Z636">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66383,7 +66736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z496">
+  <conditionalFormatting sqref="Z643">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66393,7 +66746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z503">
+  <conditionalFormatting sqref="Z650">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66403,7 +66756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z510">
+  <conditionalFormatting sqref="Z657">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66413,7 +66766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z517">
+  <conditionalFormatting sqref="Z664">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66423,7 +66776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z524">
+  <conditionalFormatting sqref="Z671">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66433,7 +66786,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z531">
+  <conditionalFormatting sqref="Z678">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66443,7 +66796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z538">
+  <conditionalFormatting sqref="Z685">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66453,7 +66806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z545">
+  <conditionalFormatting sqref="Z692">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66463,7 +66816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z552">
+  <conditionalFormatting sqref="Z699">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66473,7 +66826,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z559">
+  <conditionalFormatting sqref="Z706">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66483,7 +66836,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z566">
+  <conditionalFormatting sqref="Z713">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66493,7 +66846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z573">
+  <conditionalFormatting sqref="Z720">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66503,47 +66856,47 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z580">
+  <conditionalFormatting sqref="AI544">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
         <color theme="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z587">
+  <conditionalFormatting sqref="AI537">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
         <color theme="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z594">
+  <conditionalFormatting sqref="AI530">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
         <color theme="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z601">
+  <conditionalFormatting sqref="AI523">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
         <color theme="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z608">
+  <conditionalFormatting sqref="Z727">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66553,7 +66906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z615">
+  <conditionalFormatting sqref="Z734">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66563,7 +66916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z622">
+  <conditionalFormatting sqref="Z741">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66573,7 +66926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z629">
+  <conditionalFormatting sqref="Z748">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66583,7 +66936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z636">
+  <conditionalFormatting sqref="Z755">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66593,7 +66946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z643">
+  <conditionalFormatting sqref="Z762">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66603,7 +66956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z650">
+  <conditionalFormatting sqref="Z769">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66613,7 +66966,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z657">
+  <conditionalFormatting sqref="Z776">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66623,7 +66976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z664">
+  <conditionalFormatting sqref="Z783">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -66633,218 +66986,394 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z671">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="W746:W750">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{13AA8F12-1B0B-442E-936B-C6BABAD5B0D4}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z678">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="W739:W743">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9B2E079C-EA53-43A6-9990-E9B2E01B2771}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z685">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="W732:W736">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{484519BD-CFCE-4606-8EDE-2A5E60FE2802}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z692">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="W725:W729">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B1192BE6-F5FE-40D5-9F0A-8D4649E208BD}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z699">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="W718:W722">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{24C91A6A-01D0-44E9-BFCB-6F6F3C700ED4}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z706">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="W753:W757">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ACEB0313-5933-415E-A307-56526568FC4E}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z713">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="W760:W764">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DB3157D5-9295-4532-A099-124301782E95}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z720">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="W767:W771">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0895FF1E-2D92-4441-8438-12DFC8350B32}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI544">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="W774:W778">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F4A0677C-93AF-49C5-9D78-35D6DF6520E9}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI537">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="W781:W785">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D36858F4-ABB6-46F3-A3D1-BF300E30075F}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI530">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="X746:X750">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="8"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI523">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="X732:X736">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="8"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z727">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="X718:X722">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="8"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z734">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="X725:X729">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="8"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z741">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="X739:X743">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="8"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z748">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="X753:X757">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="8"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z755">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="X760:X764">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="8"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z762">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="X767:X771">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="8"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z769">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="X774:X778">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="8"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z776">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z783">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="X781:X785">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="7"/>
+        <cfvo type="num" val="8"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{13AA8F12-1B0B-442E-936B-C6BABAD5B0D4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W746:W750</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9B2E079C-EA53-43A6-9990-E9B2E01B2771}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W739:W743</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{484519BD-CFCE-4606-8EDE-2A5E60FE2802}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W732:W736</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1192BE6-F5FE-40D5-9F0A-8D4649E208BD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W725:W729</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{24C91A6A-01D0-44E9-BFCB-6F6F3C700ED4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W718:W722</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ACEB0313-5933-415E-A307-56526568FC4E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W753:W757</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DB3157D5-9295-4532-A099-124301782E95}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W760:W764</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0895FF1E-2D92-4441-8438-12DFC8350B32}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W767:W771</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F4A0677C-93AF-49C5-9D78-35D6DF6520E9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W774:W778</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D36858F4-ABB6-46F3-A3D1-BF300E30075F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W781:W785</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/tidsrapport/tidsrapportering3.xlsx
+++ b/tidsrapport/tidsrapportering3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehaagse\Desktop\code_snippets\tidsrapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A254034-78D8-4E16-8CB1-F78F8DC0A761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF2F83-A056-4636-B89C-BAD8EE6EF791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1719,6 +1721,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1728,9 +1733,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10355,20 +10357,20 @@
       <c r="A4" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="I4" s="139" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="I4" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
       <c r="N4" s="31"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="40" t="s">
@@ -23533,21 +23535,21 @@
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
       <c r="J2" s="87"/>
-      <c r="K2" s="141" t="s">
+      <c r="K2" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
       <c r="P2" s="86"/>
       <c r="Q2" s="94" t="s">
         <v>18</v>
@@ -37167,21 +37169,21 @@
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="140" t="s">
+      <c r="E262" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F262" s="140"/>
-      <c r="G262" s="140"/>
-      <c r="H262" s="140"/>
-      <c r="I262" s="140"/>
+      <c r="F262" s="143"/>
+      <c r="G262" s="143"/>
+      <c r="H262" s="143"/>
+      <c r="I262" s="143"/>
       <c r="J262" s="42"/>
-      <c r="K262" s="140" t="s">
+      <c r="K262" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L262" s="140"/>
-      <c r="M262" s="140"/>
-      <c r="N262" s="140"/>
-      <c r="O262" s="140"/>
+      <c r="L262" s="143"/>
+      <c r="M262" s="143"/>
+      <c r="N262" s="143"/>
+      <c r="O262" s="143"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="93" t="s">
         <v>18</v>
@@ -37595,21 +37597,21 @@
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="140" t="s">
+      <c r="E269" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F269" s="140"/>
-      <c r="G269" s="140"/>
-      <c r="H269" s="140"/>
-      <c r="I269" s="140"/>
+      <c r="F269" s="143"/>
+      <c r="G269" s="143"/>
+      <c r="H269" s="143"/>
+      <c r="I269" s="143"/>
       <c r="J269" s="42"/>
-      <c r="K269" s="140" t="s">
+      <c r="K269" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L269" s="140"/>
-      <c r="M269" s="140"/>
-      <c r="N269" s="140"/>
-      <c r="O269" s="140"/>
+      <c r="L269" s="143"/>
+      <c r="M269" s="143"/>
+      <c r="N269" s="143"/>
+      <c r="O269" s="143"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="93" t="s">
         <v>18</v>
@@ -38008,21 +38010,21 @@
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="140" t="s">
+      <c r="E276" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F276" s="140"/>
-      <c r="G276" s="140"/>
-      <c r="H276" s="140"/>
-      <c r="I276" s="140"/>
+      <c r="F276" s="143"/>
+      <c r="G276" s="143"/>
+      <c r="H276" s="143"/>
+      <c r="I276" s="143"/>
       <c r="J276" s="42"/>
-      <c r="K276" s="140" t="s">
+      <c r="K276" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L276" s="140"/>
-      <c r="M276" s="140"/>
-      <c r="N276" s="140"/>
-      <c r="O276" s="140"/>
+      <c r="L276" s="143"/>
+      <c r="M276" s="143"/>
+      <c r="N276" s="143"/>
+      <c r="O276" s="143"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="93" t="s">
         <v>18</v>
@@ -38400,21 +38402,21 @@
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="140" t="s">
+      <c r="E283" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F283" s="140"/>
-      <c r="G283" s="140"/>
-      <c r="H283" s="140"/>
-      <c r="I283" s="140"/>
+      <c r="F283" s="143"/>
+      <c r="G283" s="143"/>
+      <c r="H283" s="143"/>
+      <c r="I283" s="143"/>
       <c r="J283" s="42"/>
-      <c r="K283" s="140" t="s">
+      <c r="K283" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L283" s="140"/>
-      <c r="M283" s="140"/>
-      <c r="N283" s="140"/>
-      <c r="O283" s="140"/>
+      <c r="L283" s="143"/>
+      <c r="M283" s="143"/>
+      <c r="N283" s="143"/>
+      <c r="O283" s="143"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="93" t="s">
         <v>18</v>
@@ -38756,21 +38758,21 @@
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="140" t="s">
+      <c r="E290" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F290" s="140"/>
-      <c r="G290" s="140"/>
-      <c r="H290" s="140"/>
-      <c r="I290" s="140"/>
+      <c r="F290" s="143"/>
+      <c r="G290" s="143"/>
+      <c r="H290" s="143"/>
+      <c r="I290" s="143"/>
       <c r="J290" s="42"/>
-      <c r="K290" s="140" t="s">
+      <c r="K290" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L290" s="140"/>
-      <c r="M290" s="140"/>
-      <c r="N290" s="140"/>
-      <c r="O290" s="140"/>
+      <c r="L290" s="143"/>
+      <c r="M290" s="143"/>
+      <c r="N290" s="143"/>
+      <c r="O290" s="143"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="93" t="s">
         <v>18</v>
@@ -39119,21 +39121,21 @@
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="140" t="s">
+      <c r="E297" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F297" s="140"/>
-      <c r="G297" s="140"/>
-      <c r="H297" s="140"/>
-      <c r="I297" s="140"/>
+      <c r="F297" s="143"/>
+      <c r="G297" s="143"/>
+      <c r="H297" s="143"/>
+      <c r="I297" s="143"/>
       <c r="J297" s="42"/>
-      <c r="K297" s="140" t="s">
+      <c r="K297" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L297" s="140"/>
-      <c r="M297" s="140"/>
-      <c r="N297" s="140"/>
-      <c r="O297" s="140"/>
+      <c r="L297" s="143"/>
+      <c r="M297" s="143"/>
+      <c r="N297" s="143"/>
+      <c r="O297" s="143"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="93" t="s">
         <v>18</v>
@@ -39538,21 +39540,21 @@
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="140" t="s">
+      <c r="E304" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F304" s="140"/>
-      <c r="G304" s="140"/>
-      <c r="H304" s="140"/>
-      <c r="I304" s="140"/>
+      <c r="F304" s="143"/>
+      <c r="G304" s="143"/>
+      <c r="H304" s="143"/>
+      <c r="I304" s="143"/>
       <c r="J304" s="42"/>
-      <c r="K304" s="140" t="s">
+      <c r="K304" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L304" s="140"/>
-      <c r="M304" s="140"/>
-      <c r="N304" s="140"/>
-      <c r="O304" s="140"/>
+      <c r="L304" s="143"/>
+      <c r="M304" s="143"/>
+      <c r="N304" s="143"/>
+      <c r="O304" s="143"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="93" t="s">
         <v>18</v>
@@ -39947,21 +39949,21 @@
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="140" t="s">
+      <c r="E311" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F311" s="140"/>
-      <c r="G311" s="140"/>
-      <c r="H311" s="140"/>
-      <c r="I311" s="140"/>
+      <c r="F311" s="143"/>
+      <c r="G311" s="143"/>
+      <c r="H311" s="143"/>
+      <c r="I311" s="143"/>
       <c r="J311" s="42"/>
-      <c r="K311" s="140" t="s">
+      <c r="K311" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L311" s="140"/>
-      <c r="M311" s="140"/>
-      <c r="N311" s="140"/>
-      <c r="O311" s="140"/>
+      <c r="L311" s="143"/>
+      <c r="M311" s="143"/>
+      <c r="N311" s="143"/>
+      <c r="O311" s="143"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="93" t="s">
         <v>18</v>
@@ -40364,21 +40366,21 @@
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="140" t="s">
+      <c r="E318" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F318" s="140"/>
-      <c r="G318" s="140"/>
-      <c r="H318" s="140"/>
-      <c r="I318" s="140"/>
+      <c r="F318" s="143"/>
+      <c r="G318" s="143"/>
+      <c r="H318" s="143"/>
+      <c r="I318" s="143"/>
       <c r="J318" s="42"/>
-      <c r="K318" s="140" t="s">
+      <c r="K318" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L318" s="140"/>
-      <c r="M318" s="140"/>
-      <c r="N318" s="140"/>
-      <c r="O318" s="140"/>
+      <c r="L318" s="143"/>
+      <c r="M318" s="143"/>
+      <c r="N318" s="143"/>
+      <c r="O318" s="143"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="93" t="s">
         <v>18</v>
@@ -40791,21 +40793,21 @@
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="140" t="s">
+      <c r="E325" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F325" s="140"/>
-      <c r="G325" s="140"/>
-      <c r="H325" s="140"/>
-      <c r="I325" s="140"/>
+      <c r="F325" s="143"/>
+      <c r="G325" s="143"/>
+      <c r="H325" s="143"/>
+      <c r="I325" s="143"/>
       <c r="J325" s="42"/>
-      <c r="K325" s="140" t="s">
+      <c r="K325" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L325" s="140"/>
-      <c r="M325" s="140"/>
-      <c r="N325" s="140"/>
-      <c r="O325" s="140"/>
+      <c r="L325" s="143"/>
+      <c r="M325" s="143"/>
+      <c r="N325" s="143"/>
+      <c r="O325" s="143"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="93" t="s">
         <v>18</v>
@@ -41197,21 +41199,21 @@
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
-      <c r="E332" s="140" t="s">
+      <c r="E332" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F332" s="140"/>
-      <c r="G332" s="140"/>
-      <c r="H332" s="140"/>
-      <c r="I332" s="140"/>
+      <c r="F332" s="143"/>
+      <c r="G332" s="143"/>
+      <c r="H332" s="143"/>
+      <c r="I332" s="143"/>
       <c r="J332" s="42"/>
-      <c r="K332" s="140" t="s">
+      <c r="K332" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L332" s="140"/>
-      <c r="M332" s="140"/>
-      <c r="N332" s="140"/>
-      <c r="O332" s="140"/>
+      <c r="L332" s="143"/>
+      <c r="M332" s="143"/>
+      <c r="N332" s="143"/>
+      <c r="O332" s="143"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="93" t="s">
         <v>18</v>
@@ -41622,21 +41624,21 @@
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
-      <c r="E339" s="140" t="s">
+      <c r="E339" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F339" s="140"/>
-      <c r="G339" s="140"/>
-      <c r="H339" s="140"/>
-      <c r="I339" s="140"/>
+      <c r="F339" s="143"/>
+      <c r="G339" s="143"/>
+      <c r="H339" s="143"/>
+      <c r="I339" s="143"/>
       <c r="J339" s="42"/>
-      <c r="K339" s="140" t="s">
+      <c r="K339" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L339" s="140"/>
-      <c r="M339" s="140"/>
-      <c r="N339" s="140"/>
-      <c r="O339" s="140"/>
+      <c r="L339" s="143"/>
+      <c r="M339" s="143"/>
+      <c r="N339" s="143"/>
+      <c r="O339" s="143"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="93" t="s">
         <v>18</v>
@@ -42032,21 +42034,21 @@
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
-      <c r="E346" s="140" t="s">
+      <c r="E346" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F346" s="140"/>
-      <c r="G346" s="140"/>
-      <c r="H346" s="140"/>
-      <c r="I346" s="140"/>
+      <c r="F346" s="143"/>
+      <c r="G346" s="143"/>
+      <c r="H346" s="143"/>
+      <c r="I346" s="143"/>
       <c r="J346" s="42"/>
-      <c r="K346" s="140" t="s">
+      <c r="K346" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L346" s="140"/>
-      <c r="M346" s="140"/>
-      <c r="N346" s="140"/>
-      <c r="O346" s="140"/>
+      <c r="L346" s="143"/>
+      <c r="M346" s="143"/>
+      <c r="N346" s="143"/>
+      <c r="O346" s="143"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="93" t="s">
         <v>18</v>
@@ -42411,21 +42413,21 @@
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
-      <c r="E353" s="140" t="s">
+      <c r="E353" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F353" s="140"/>
-      <c r="G353" s="140"/>
-      <c r="H353" s="140"/>
-      <c r="I353" s="140"/>
+      <c r="F353" s="143"/>
+      <c r="G353" s="143"/>
+      <c r="H353" s="143"/>
+      <c r="I353" s="143"/>
       <c r="J353" s="42"/>
-      <c r="K353" s="140" t="s">
+      <c r="K353" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L353" s="140"/>
-      <c r="M353" s="140"/>
-      <c r="N353" s="140"/>
-      <c r="O353" s="140"/>
+      <c r="L353" s="143"/>
+      <c r="M353" s="143"/>
+      <c r="N353" s="143"/>
+      <c r="O353" s="143"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="93" t="s">
         <v>18</v>
@@ -42782,21 +42784,21 @@
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
-      <c r="E360" s="140" t="s">
+      <c r="E360" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F360" s="140"/>
-      <c r="G360" s="140"/>
-      <c r="H360" s="140"/>
-      <c r="I360" s="140"/>
+      <c r="F360" s="143"/>
+      <c r="G360" s="143"/>
+      <c r="H360" s="143"/>
+      <c r="I360" s="143"/>
       <c r="J360" s="42"/>
-      <c r="K360" s="140" t="s">
+      <c r="K360" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L360" s="140"/>
-      <c r="M360" s="140"/>
-      <c r="N360" s="140"/>
-      <c r="O360" s="140"/>
+      <c r="L360" s="143"/>
+      <c r="M360" s="143"/>
+      <c r="N360" s="143"/>
+      <c r="O360" s="143"/>
       <c r="P360" s="1"/>
       <c r="Q360" s="93" t="s">
         <v>18</v>
@@ -43164,21 +43166,21 @@
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
-      <c r="E367" s="140" t="s">
+      <c r="E367" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F367" s="140"/>
-      <c r="G367" s="140"/>
-      <c r="H367" s="140"/>
-      <c r="I367" s="140"/>
+      <c r="F367" s="143"/>
+      <c r="G367" s="143"/>
+      <c r="H367" s="143"/>
+      <c r="I367" s="143"/>
       <c r="J367" s="42"/>
-      <c r="K367" s="140" t="s">
+      <c r="K367" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L367" s="140"/>
-      <c r="M367" s="140"/>
-      <c r="N367" s="140"/>
-      <c r="O367" s="140"/>
+      <c r="L367" s="143"/>
+      <c r="M367" s="143"/>
+      <c r="N367" s="143"/>
+      <c r="O367" s="143"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="93" t="s">
         <v>18</v>
@@ -43542,21 +43544,21 @@
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
-      <c r="E374" s="140" t="s">
+      <c r="E374" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F374" s="140"/>
-      <c r="G374" s="140"/>
-      <c r="H374" s="140"/>
-      <c r="I374" s="140"/>
+      <c r="F374" s="143"/>
+      <c r="G374" s="143"/>
+      <c r="H374" s="143"/>
+      <c r="I374" s="143"/>
       <c r="J374" s="42"/>
-      <c r="K374" s="140" t="s">
+      <c r="K374" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L374" s="140"/>
-      <c r="M374" s="140"/>
-      <c r="N374" s="140"/>
-      <c r="O374" s="140"/>
+      <c r="L374" s="143"/>
+      <c r="M374" s="143"/>
+      <c r="N374" s="143"/>
+      <c r="O374" s="143"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="93" t="s">
         <v>18</v>
@@ -43922,21 +43924,21 @@
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
-      <c r="E381" s="140" t="s">
+      <c r="E381" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F381" s="140"/>
-      <c r="G381" s="140"/>
-      <c r="H381" s="140"/>
-      <c r="I381" s="140"/>
+      <c r="F381" s="143"/>
+      <c r="G381" s="143"/>
+      <c r="H381" s="143"/>
+      <c r="I381" s="143"/>
       <c r="J381" s="42"/>
-      <c r="K381" s="140" t="s">
+      <c r="K381" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L381" s="140"/>
-      <c r="M381" s="140"/>
-      <c r="N381" s="140"/>
-      <c r="O381" s="140"/>
+      <c r="L381" s="143"/>
+      <c r="M381" s="143"/>
+      <c r="N381" s="143"/>
+      <c r="O381" s="143"/>
       <c r="P381" s="1"/>
       <c r="Q381" s="93" t="s">
         <v>18</v>
@@ -44315,21 +44317,21 @@
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
-      <c r="E388" s="140" t="s">
+      <c r="E388" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F388" s="140"/>
-      <c r="G388" s="140"/>
-      <c r="H388" s="140"/>
-      <c r="I388" s="140"/>
+      <c r="F388" s="143"/>
+      <c r="G388" s="143"/>
+      <c r="H388" s="143"/>
+      <c r="I388" s="143"/>
       <c r="J388" s="42"/>
-      <c r="K388" s="140" t="s">
+      <c r="K388" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L388" s="140"/>
-      <c r="M388" s="140"/>
-      <c r="N388" s="140"/>
-      <c r="O388" s="140"/>
+      <c r="L388" s="143"/>
+      <c r="M388" s="143"/>
+      <c r="N388" s="143"/>
+      <c r="O388" s="143"/>
       <c r="P388" s="1"/>
       <c r="Q388" s="93" t="s">
         <v>18</v>
@@ -44715,21 +44717,21 @@
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
-      <c r="E395" s="140" t="s">
+      <c r="E395" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F395" s="140"/>
-      <c r="G395" s="140"/>
-      <c r="H395" s="140"/>
-      <c r="I395" s="140"/>
+      <c r="F395" s="143"/>
+      <c r="G395" s="143"/>
+      <c r="H395" s="143"/>
+      <c r="I395" s="143"/>
       <c r="J395" s="42"/>
-      <c r="K395" s="140" t="s">
+      <c r="K395" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L395" s="140"/>
-      <c r="M395" s="140"/>
-      <c r="N395" s="140"/>
-      <c r="O395" s="140"/>
+      <c r="L395" s="143"/>
+      <c r="M395" s="143"/>
+      <c r="N395" s="143"/>
+      <c r="O395" s="143"/>
       <c r="P395" s="1"/>
       <c r="Q395" s="93" t="s">
         <v>18</v>
@@ -45120,21 +45122,21 @@
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
-      <c r="E402" s="140" t="s">
+      <c r="E402" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F402" s="140"/>
-      <c r="G402" s="140"/>
-      <c r="H402" s="140"/>
-      <c r="I402" s="140"/>
+      <c r="F402" s="143"/>
+      <c r="G402" s="143"/>
+      <c r="H402" s="143"/>
+      <c r="I402" s="143"/>
       <c r="J402" s="42"/>
-      <c r="K402" s="140" t="s">
+      <c r="K402" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L402" s="140"/>
-      <c r="M402" s="140"/>
-      <c r="N402" s="140"/>
-      <c r="O402" s="140"/>
+      <c r="L402" s="143"/>
+      <c r="M402" s="143"/>
+      <c r="N402" s="143"/>
+      <c r="O402" s="143"/>
       <c r="P402" s="1"/>
       <c r="Q402" s="93" t="s">
         <v>18</v>
@@ -45513,21 +45515,21 @@
       </c>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
-      <c r="E409" s="140" t="s">
+      <c r="E409" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F409" s="140"/>
-      <c r="G409" s="140"/>
-      <c r="H409" s="140"/>
-      <c r="I409" s="140"/>
+      <c r="F409" s="143"/>
+      <c r="G409" s="143"/>
+      <c r="H409" s="143"/>
+      <c r="I409" s="143"/>
       <c r="J409" s="42"/>
-      <c r="K409" s="140" t="s">
+      <c r="K409" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L409" s="140"/>
-      <c r="M409" s="140"/>
-      <c r="N409" s="140"/>
-      <c r="O409" s="140"/>
+      <c r="L409" s="143"/>
+      <c r="M409" s="143"/>
+      <c r="N409" s="143"/>
+      <c r="O409" s="143"/>
       <c r="P409" s="1"/>
       <c r="Q409" s="93" t="s">
         <v>18</v>
@@ -45916,21 +45918,21 @@
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
-      <c r="E416" s="140" t="s">
+      <c r="E416" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F416" s="140"/>
-      <c r="G416" s="140"/>
-      <c r="H416" s="140"/>
-      <c r="I416" s="140"/>
+      <c r="F416" s="143"/>
+      <c r="G416" s="143"/>
+      <c r="H416" s="143"/>
+      <c r="I416" s="143"/>
       <c r="J416" s="42"/>
-      <c r="K416" s="140" t="s">
+      <c r="K416" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L416" s="140"/>
-      <c r="M416" s="140"/>
-      <c r="N416" s="140"/>
-      <c r="O416" s="140"/>
+      <c r="L416" s="143"/>
+      <c r="M416" s="143"/>
+      <c r="N416" s="143"/>
+      <c r="O416" s="143"/>
       <c r="P416" s="1"/>
       <c r="Q416" s="93" t="s">
         <v>18</v>
@@ -46317,21 +46319,21 @@
       </c>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
-      <c r="E423" s="140" t="s">
+      <c r="E423" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F423" s="140"/>
-      <c r="G423" s="140"/>
-      <c r="H423" s="140"/>
-      <c r="I423" s="140"/>
+      <c r="F423" s="143"/>
+      <c r="G423" s="143"/>
+      <c r="H423" s="143"/>
+      <c r="I423" s="143"/>
       <c r="J423" s="42"/>
-      <c r="K423" s="140" t="s">
+      <c r="K423" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L423" s="140"/>
-      <c r="M423" s="140"/>
-      <c r="N423" s="140"/>
-      <c r="O423" s="140"/>
+      <c r="L423" s="143"/>
+      <c r="M423" s="143"/>
+      <c r="N423" s="143"/>
+      <c r="O423" s="143"/>
       <c r="P423" s="1"/>
       <c r="Q423" s="93" t="s">
         <v>18</v>
@@ -46768,21 +46770,21 @@
       </c>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
-      <c r="E430" s="140" t="s">
+      <c r="E430" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F430" s="140"/>
-      <c r="G430" s="140"/>
-      <c r="H430" s="140"/>
-      <c r="I430" s="140"/>
+      <c r="F430" s="143"/>
+      <c r="G430" s="143"/>
+      <c r="H430" s="143"/>
+      <c r="I430" s="143"/>
       <c r="J430" s="42"/>
-      <c r="K430" s="140" t="s">
+      <c r="K430" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L430" s="140"/>
-      <c r="M430" s="140"/>
-      <c r="N430" s="140"/>
-      <c r="O430" s="140"/>
+      <c r="L430" s="143"/>
+      <c r="M430" s="143"/>
+      <c r="N430" s="143"/>
+      <c r="O430" s="143"/>
       <c r="P430" s="1"/>
       <c r="Q430" s="93" t="s">
         <v>18</v>
@@ -47169,21 +47171,21 @@
       </c>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
-      <c r="E437" s="140" t="s">
+      <c r="E437" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F437" s="140"/>
-      <c r="G437" s="140"/>
-      <c r="H437" s="140"/>
-      <c r="I437" s="140"/>
+      <c r="F437" s="143"/>
+      <c r="G437" s="143"/>
+      <c r="H437" s="143"/>
+      <c r="I437" s="143"/>
       <c r="J437" s="42"/>
-      <c r="K437" s="140" t="s">
+      <c r="K437" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L437" s="140"/>
-      <c r="M437" s="140"/>
-      <c r="N437" s="140"/>
-      <c r="O437" s="140"/>
+      <c r="L437" s="143"/>
+      <c r="M437" s="143"/>
+      <c r="N437" s="143"/>
+      <c r="O437" s="143"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="93" t="s">
         <v>18</v>
@@ -47502,21 +47504,21 @@
       </c>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
-      <c r="E444" s="140" t="s">
+      <c r="E444" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F444" s="140"/>
-      <c r="G444" s="140"/>
-      <c r="H444" s="140"/>
-      <c r="I444" s="140"/>
+      <c r="F444" s="143"/>
+      <c r="G444" s="143"/>
+      <c r="H444" s="143"/>
+      <c r="I444" s="143"/>
       <c r="J444" s="42"/>
-      <c r="K444" s="140" t="s">
+      <c r="K444" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L444" s="140"/>
-      <c r="M444" s="140"/>
-      <c r="N444" s="140"/>
-      <c r="O444" s="140"/>
+      <c r="L444" s="143"/>
+      <c r="M444" s="143"/>
+      <c r="N444" s="143"/>
+      <c r="O444" s="143"/>
       <c r="P444" s="1"/>
       <c r="Q444" s="93" t="s">
         <v>18</v>
@@ -47875,21 +47877,21 @@
       </c>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
-      <c r="E451" s="140" t="s">
+      <c r="E451" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="F451" s="140"/>
-      <c r="G451" s="140"/>
-      <c r="H451" s="140"/>
-      <c r="I451" s="140"/>
+      <c r="F451" s="143"/>
+      <c r="G451" s="143"/>
+      <c r="H451" s="143"/>
+      <c r="I451" s="143"/>
       <c r="J451" s="42"/>
-      <c r="K451" s="140" t="s">
+      <c r="K451" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="L451" s="140"/>
-      <c r="M451" s="140"/>
-      <c r="N451" s="140"/>
-      <c r="O451" s="140"/>
+      <c r="L451" s="143"/>
+      <c r="M451" s="143"/>
+      <c r="N451" s="143"/>
+      <c r="O451" s="143"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="93" t="s">
         <v>18</v>
@@ -67365,48 +67367,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E437:I437"/>
-    <mergeCell ref="K437:O437"/>
-    <mergeCell ref="E430:I430"/>
-    <mergeCell ref="K430:O430"/>
-    <mergeCell ref="E409:I409"/>
-    <mergeCell ref="K409:O409"/>
-    <mergeCell ref="E416:I416"/>
-    <mergeCell ref="K416:O416"/>
-    <mergeCell ref="E423:I423"/>
-    <mergeCell ref="K423:O423"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="E304:I304"/>
-    <mergeCell ref="K304:O304"/>
-    <mergeCell ref="E283:I283"/>
-    <mergeCell ref="K283:O283"/>
-    <mergeCell ref="E276:I276"/>
-    <mergeCell ref="K276:O276"/>
-    <mergeCell ref="E269:I269"/>
-    <mergeCell ref="K269:O269"/>
-    <mergeCell ref="E262:I262"/>
-    <mergeCell ref="K262:O262"/>
-    <mergeCell ref="E339:I339"/>
-    <mergeCell ref="K339:O339"/>
-    <mergeCell ref="E290:I290"/>
-    <mergeCell ref="K290:O290"/>
-    <mergeCell ref="E311:I311"/>
-    <mergeCell ref="K311:O311"/>
-    <mergeCell ref="E318:I318"/>
-    <mergeCell ref="K318:O318"/>
-    <mergeCell ref="E325:I325"/>
-    <mergeCell ref="K325:O325"/>
-    <mergeCell ref="E297:I297"/>
-    <mergeCell ref="K297:O297"/>
-    <mergeCell ref="E332:I332"/>
-    <mergeCell ref="K332:O332"/>
-    <mergeCell ref="E346:I346"/>
-    <mergeCell ref="K346:O346"/>
-    <mergeCell ref="E353:I353"/>
-    <mergeCell ref="K353:O353"/>
-    <mergeCell ref="E360:I360"/>
-    <mergeCell ref="K360:O360"/>
     <mergeCell ref="E444:I444"/>
     <mergeCell ref="K444:O444"/>
     <mergeCell ref="E451:I451"/>
@@ -67423,6 +67383,48 @@
     <mergeCell ref="K395:O395"/>
     <mergeCell ref="E402:I402"/>
     <mergeCell ref="K402:O402"/>
+    <mergeCell ref="E346:I346"/>
+    <mergeCell ref="K346:O346"/>
+    <mergeCell ref="E353:I353"/>
+    <mergeCell ref="K353:O353"/>
+    <mergeCell ref="E360:I360"/>
+    <mergeCell ref="K360:O360"/>
+    <mergeCell ref="E339:I339"/>
+    <mergeCell ref="K339:O339"/>
+    <mergeCell ref="E290:I290"/>
+    <mergeCell ref="K290:O290"/>
+    <mergeCell ref="E311:I311"/>
+    <mergeCell ref="K311:O311"/>
+    <mergeCell ref="E318:I318"/>
+    <mergeCell ref="K318:O318"/>
+    <mergeCell ref="E325:I325"/>
+    <mergeCell ref="K325:O325"/>
+    <mergeCell ref="E297:I297"/>
+    <mergeCell ref="K297:O297"/>
+    <mergeCell ref="E332:I332"/>
+    <mergeCell ref="K332:O332"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="E304:I304"/>
+    <mergeCell ref="K304:O304"/>
+    <mergeCell ref="E283:I283"/>
+    <mergeCell ref="K283:O283"/>
+    <mergeCell ref="E276:I276"/>
+    <mergeCell ref="K276:O276"/>
+    <mergeCell ref="E269:I269"/>
+    <mergeCell ref="K269:O269"/>
+    <mergeCell ref="E262:I262"/>
+    <mergeCell ref="K262:O262"/>
+    <mergeCell ref="E437:I437"/>
+    <mergeCell ref="K437:O437"/>
+    <mergeCell ref="E430:I430"/>
+    <mergeCell ref="K430:O430"/>
+    <mergeCell ref="E409:I409"/>
+    <mergeCell ref="K409:O409"/>
+    <mergeCell ref="E416:I416"/>
+    <mergeCell ref="K416:O416"/>
+    <mergeCell ref="E423:I423"/>
+    <mergeCell ref="K423:O423"/>
   </mergeCells>
   <conditionalFormatting sqref="Y216">
     <cfRule type="colorScale" priority="161">
@@ -67434,7 +67436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y307 Y209 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
+  <conditionalFormatting sqref="Y209 Y307 Y300 Y293 Y286 Y279 Y272 Y265 Y258 Y251 Y244 Y237 Y230 Y223 Y172 Y178 Y184 Y190 Y196 Y202">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -67454,7 +67456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD309 AD218 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
+  <conditionalFormatting sqref="AD218 AD309 AD225 AD232 AD239 AD246 AD253 AD260 AD266 AD281 AD288 AD295 AD302">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -69044,7 +69046,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG211" sqref="AG211"/>
+      <selection pane="bottomRight" activeCell="AI206" sqref="AI206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69105,21 +69107,21 @@
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
       <c r="J2" s="87"/>
-      <c r="K2" s="141" t="s">
+      <c r="K2" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
       <c r="P2" s="86"/>
       <c r="Q2" s="94" t="s">
         <v>18</v>
@@ -81691,28 +81693,28 @@
       <c r="A226" s="52">
         <v>44047</v>
       </c>
-      <c r="B226" s="142"/>
+      <c r="B226" s="139"/>
       <c r="C226" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D226" s="1"/>
-      <c r="E226" s="143"/>
-      <c r="F226" s="143"/>
+      <c r="E226" s="140"/>
+      <c r="F226" s="140"/>
       <c r="G226" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H226" s="143"/>
-      <c r="I226" s="143"/>
+      <c r="H226" s="140"/>
+      <c r="I226" s="140"/>
       <c r="J226" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="K226" s="143"/>
-      <c r="L226" s="143"/>
+      <c r="K226" s="140"/>
+      <c r="L226" s="140"/>
       <c r="M226" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="N226" s="143"/>
-      <c r="O226" s="143"/>
+      <c r="N226" s="140"/>
+      <c r="O226" s="140"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="3"/>
       <c r="R226" s="5"/>
@@ -81730,7 +81732,7 @@
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="X226" s="144"/>
+      <c r="X226" s="141"/>
       <c r="Y226"/>
       <c r="Z226" t="s">
         <v>258</v>
@@ -81763,28 +81765,28 @@
       <c r="A227" s="52">
         <v>44048</v>
       </c>
-      <c r="B227" s="142"/>
+      <c r="B227" s="139"/>
       <c r="C227" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D227" s="1"/>
-      <c r="E227" s="143"/>
-      <c r="F227" s="143"/>
+      <c r="E227" s="140"/>
+      <c r="F227" s="140"/>
       <c r="G227" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H227" s="143"/>
-      <c r="I227" s="143"/>
+      <c r="H227" s="140"/>
+      <c r="I227" s="140"/>
       <c r="J227" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="K227" s="143"/>
-      <c r="L227" s="143"/>
+      <c r="K227" s="140"/>
+      <c r="L227" s="140"/>
       <c r="M227" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="N227" s="143"/>
-      <c r="O227" s="143"/>
+      <c r="N227" s="140"/>
+      <c r="O227" s="140"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="3"/>
       <c r="R227" s="5"/>
@@ -81802,7 +81804,7 @@
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="X227" s="144"/>
+      <c r="X227" s="141"/>
       <c r="Z227" s="74">
         <v>0</v>
       </c>
@@ -81811,28 +81813,28 @@
       <c r="A228" s="52">
         <v>44049</v>
       </c>
-      <c r="B228" s="142"/>
+      <c r="B228" s="139"/>
       <c r="C228" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D228" s="1"/>
-      <c r="E228" s="143"/>
-      <c r="F228" s="143"/>
+      <c r="E228" s="140"/>
+      <c r="F228" s="140"/>
       <c r="G228" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H228" s="143"/>
-      <c r="I228" s="143"/>
+      <c r="H228" s="140"/>
+      <c r="I228" s="140"/>
       <c r="J228" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="K228" s="143"/>
-      <c r="L228" s="143"/>
+      <c r="K228" s="140"/>
+      <c r="L228" s="140"/>
       <c r="M228" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="N228" s="143"/>
-      <c r="O228" s="143"/>
+      <c r="N228" s="140"/>
+      <c r="O228" s="140"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="3"/>
       <c r="R228" s="5"/>
@@ -81850,7 +81852,7 @@
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="X228" s="144"/>
+      <c r="X228" s="141"/>
       <c r="Y228" t="s">
         <v>11</v>
       </c>
@@ -81871,28 +81873,28 @@
       <c r="A229" s="52">
         <v>44050</v>
       </c>
-      <c r="B229" s="142"/>
+      <c r="B229" s="139"/>
       <c r="C229" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D229" s="1"/>
-      <c r="E229" s="143"/>
-      <c r="F229" s="143"/>
+      <c r="E229" s="140"/>
+      <c r="F229" s="140"/>
       <c r="G229" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H229" s="143"/>
-      <c r="I229" s="143"/>
+      <c r="H229" s="140"/>
+      <c r="I229" s="140"/>
       <c r="J229" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="K229" s="143"/>
-      <c r="L229" s="143"/>
+      <c r="K229" s="140"/>
+      <c r="L229" s="140"/>
       <c r="M229" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="N229" s="143"/>
-      <c r="O229" s="143"/>
+      <c r="N229" s="140"/>
+      <c r="O229" s="140"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="3"/>
       <c r="R229" s="5"/>
@@ -81910,7 +81912,7 @@
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="X229" s="144"/>
+      <c r="X229" s="141"/>
       <c r="Y229" s="12">
         <f t="shared" ref="Y229" si="215">SUM(W225:W229)</f>
         <v>4</v>
@@ -81985,7 +81987,7 @@
     <mergeCell ref="K2:O2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="Z52 Z10 Z59 Z80">
+  <conditionalFormatting sqref="Z10 Z52 Z59 Z80">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -82004,7 +82006,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z38 Z17 Z66 Z87">
+  <conditionalFormatting sqref="Z17 Z38 Z66 Z87">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -82023,7 +82025,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z45 Z24 Z73">
+  <conditionalFormatting sqref="Z24 Z45 Z73">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="num" val="0"/>
